--- a/All_perf.xlsx
+++ b/All_perf.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dursu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7C182-E3E4-49F1-A8EB-FDAAE73B929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185376B8-4169-4563-A136-B02E55280695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="loose channel" sheetId="1" r:id="rId1"/>
+    <sheet name="strict channel" sheetId="3" r:id="rId2"/>
+    <sheet name="Durations" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Improved Greedy</t>
   </si>
@@ -46,9 +45,6 @@
   </si>
   <si>
     <t>Exact</t>
-  </si>
-  <si>
-    <t>UpperBound</t>
   </si>
   <si>
     <t>LP Relaxation</t>
@@ -71,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,18 +112,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -226,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$3</c:f>
+              <c:f>Durations!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -249,10 +246,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$20</c:f>
+              <c:f>Durations!$C$4:$C$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
@@ -303,6 +300,90 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4728.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7368.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8126.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11567.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14750.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16961.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20276.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20687.150000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23317.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27289.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29017.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38582.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43735.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48914.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49561.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51034.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57914.87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68891.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76391.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84451.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91784.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99314.42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104934.71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110981.58</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>118392.34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121304.76</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130217.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>133405.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,7 +400,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$3</c:f>
+              <c:f>Durations!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,10 +423,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$20</c:f>
+              <c:f>Durations!$D$4:$D$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -396,6 +477,90 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>563.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>931.80206718750003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1062.0897210937501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1341.1562531250001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1617.73972265625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007.9907593750002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2408.8491046875001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2781.7905820312503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3053.0650640625004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3337.2335015625004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3722.8431140624998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4306.7551523437505</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4848.2667843750005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5267.0362359374994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6257.2583062499998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7009.4089757812508</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7813.5257039062499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8411.0032007812497</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9221.0740898437489</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11020.523057812499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11828.990334375001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12270.3495046875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13185.356978906249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13489.463620312501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13929.676392187501</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14446.100156250001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15187.662928125001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16257.30484921875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17148.942323437499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,7 +577,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$3</c:f>
+              <c:f>Durations!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,10 +600,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$20</c:f>
+              <c:f>Durations!$E$4:$E$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -489,6 +654,90 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>584.21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>794.05638114880014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>891.66883984500021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1014.0218313225001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1291.6182600300003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1564.7980513375001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1930.7685912900004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2315.6064114050005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2650.788339587501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2914.5250046150009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3201.1962216150005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3558.9110338950004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4159.957099462501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4685.5853211300009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5102.281727865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5988.4721597400003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6669.9844361675023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7443.9290367575004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8069.1040607275008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8853.6393612624997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10522.863881354999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11304.546827210002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11761.423695244999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12623.219896997502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12945.355310755001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13400.193073365004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13881.197361500002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14543.876884110001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15571.331856552504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,7 +754,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$3</c:f>
+              <c:f>Durations!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,10 +777,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$4:$F$20</c:f>
+              <c:f>Durations!$F$4:$F$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.09</c:v>
                 </c:pt>
@@ -582,6 +831,90 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1601.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1842.0050000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024.9307307152869</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2885.6571383419987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3669.1710191069569</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4231.3501556824995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5047.2647816942781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5146.4722056781966</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5819.3675905747941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6793.2155924263607</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7253.825624767549</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9607.4606073456634</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10921.383821712852</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12174.277337814503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12356.523658779492</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12727.011307630502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14468.146111697635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17178.907840725165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19035.976528605661</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21093.500583406789</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22945.505137387197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24791.358062967796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26109.414229394075</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27672.613090797113</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29455.238718951652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30130.370757749344</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30234.654924867787</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32471.31236248972</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33238.827580969257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,7 +978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="890864031"/>
@@ -676,7 +1009,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -704,7 +1037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="890857791"/>
@@ -746,7 +1079,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -783,7 +1116,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -828,12 +1161,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>% Objective Value Gap to MIP Exact Solution</a:t>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Durations in seconds</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -862,7 +1192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -877,11 +1207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$24</c:f>
+              <c:f>Durations!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Basic Greedy</c:v>
+                  <c:v>MIP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -900,60 +1230,144 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$25:$D$41</c:f>
+              <c:f>Durations!$J$4:$J$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3645320197044337E-2</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5280802537940492E-2</c:v>
+                  <c:v>12.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1344413468719414</c:v>
+                  <c:v>22.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28371102539376408</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0967755153409608E-2</c:v>
+                  <c:v>63.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6721378395387207E-2</c:v>
+                  <c:v>95.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13629576139573976</c:v>
+                  <c:v>123.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26088544295402594</c:v>
+                  <c:v>216.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12749376998900289</c:v>
+                  <c:v>326.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4129446790004292E-2</c:v>
+                  <c:v>547.82000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13798807179500044</c:v>
+                  <c:v>2062.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39545371518580635</c:v>
+                  <c:v>2337.4299999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45031238280076108</c:v>
+                  <c:v>3581.33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35891453980684823</c:v>
+                  <c:v>4757.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7237.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8230.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11546.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15387.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17285.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21152.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22969.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25207.07</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29762.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31975.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39471.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43700.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48200.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49885.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54684.07</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56765.29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73035.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82363.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92771.58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94578.85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103558.11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116711.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>134483.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>157718.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>170387.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>171404.03</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>189661.66</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194458.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +1375,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9663-4B6A-87CA-46170E69C3FE}"/>
+              <c16:uniqueId val="{00000000-F02B-47F2-B774-00BC9A0316BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,11 +1384,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$24</c:f>
+              <c:f>Durations!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Improved Greedy</c:v>
+                  <c:v>Basic Greedy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -993,60 +1407,144 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$25:$E$41</c:f>
+              <c:f>Durations!$K$4:$K$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3785323136270107E-3</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2011067077146373E-2</c:v>
+                  <c:v>7.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6780451704922463E-4</c:v>
+                  <c:v>6.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7880428510153774E-3</c:v>
+                  <c:v>23.09</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0048528506714289E-3</c:v>
+                  <c:v>23.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3302997199070928E-3</c:v>
+                  <c:v>72.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9865792015252051E-3</c:v>
+                  <c:v>163.68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>248.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.4619358472460384E-3</c:v>
+                  <c:v>390.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4411588167370997E-2</c:v>
+                  <c:v>514.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>820.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1146.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1405.79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1716.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2198.0100000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2662.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2893.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3058.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3471.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3748.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4326.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4900.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5119.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6648.42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7592.48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7971.29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8257.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9738.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11858.81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12023.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12260.41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13711.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14013.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14241.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14894.78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15338.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16377.33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17626.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9663-4B6A-87CA-46170E69C3FE}"/>
+              <c16:uniqueId val="{00000001-F02B-47F2-B774-00BC9A0316BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1063,11 +1561,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$24</c:f>
+              <c:f>Durations!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lp-Relaxation</c:v>
+                  <c:v>Improved Greedy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1086,60 +1584,144 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$25:$F$41</c:f>
+              <c:f>Durations!$L$4:$L$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.496776827173303E-3</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9777793984201927E-5</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4683053040103498E-4</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0536335845515907E-3</c:v>
+                  <c:v>14.66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>81.88</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0117149773602421E-4</c:v>
+                  <c:v>193.59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>190.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9088296910948695E-4</c:v>
+                  <c:v>393.57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>597.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>806.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>946.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1130.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1214.83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1589.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1943.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2495.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2908.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3239.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3381.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3821.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4109.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5086.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5333.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6070.86</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6849.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7988.46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8639.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9209.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10806.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12865.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12139.41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13295.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14882.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15845.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15975.66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15849.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16546.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,7 +1729,184 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9663-4B6A-87CA-46170E69C3FE}"/>
+              <c16:uniqueId val="{00000002-F02B-47F2-B774-00BC9A0316BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Durations!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lp-Relaxation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Durations!$M$4:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>219.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>476.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>821.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1174.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1400.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1667.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1884.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2186.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2625.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3657.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4649.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5525.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5134.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5997.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6822.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7752.24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10796.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11259.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11959.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12498.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12810.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15100.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18088.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19271.93</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22140.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22886.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24278.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26615.88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28765.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29385.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31398.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32532.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32154.91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34514.720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F02B-47F2-B774-00BC9A0316BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,11 +1919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="932847727"/>
-        <c:axId val="932843983"/>
+        <c:axId val="247630063"/>
+        <c:axId val="247642127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="932847727"/>
+        <c:axId val="247630063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,10 +1962,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932843983"/>
+        <c:crossAx val="247642127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="932843983"/>
+        <c:axId val="247642127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1993,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1262,10 +2021,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932847727"/>
+        <c:crossAx val="247630063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +2063,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1341,7 +2100,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2468,16 +3227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2504,23 +3263,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95F047A-A1F9-512D-3399-238654A7E2A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F5E8A9-E20E-42A7-BFAE-A8B6ADEEC2F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,2157 +3597,5307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B31E84-D452-44EC-9AC7-099D3C0C767A}">
-  <dimension ref="B1:V40"/>
+  <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
     <col min="16" max="16" width="3.140625" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>450</v>
       </c>
-      <c r="D2" s="5">
-        <f>(R2-C2)/R2</f>
+      <c r="D2" s="3">
+        <f>(O2-C2)/O2</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>($V2-C2)/$V2</f>
+      <c r="E2" s="1"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>450</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(O2-G2)/O2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>450</v>
       </c>
-      <c r="I2" s="5">
-        <f>(R2-H2)/R2</f>
+      <c r="L2" s="3">
+        <f>(O2-K2)/O2</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>($V2-H2)/$V2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2">
+      <c r="M2" s="1"/>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>450</v>
       </c>
-      <c r="N2" s="6">
-        <f>(R2-M2)/R2</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>($V2-M2)/$V2</f>
-        <v>0</v>
-      </c>
       <c r="P2" s="1"/>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>450</v>
-      </c>
-      <c r="S2">
-        <f>($V2-R2)/$V2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>13083</v>
       </c>
-      <c r="D3" s="5">
-        <f>(R3-C3)/R3</f>
+      <c r="D3" s="3">
+        <f>(O3-C3)/O3</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E40" si="0">($V3-C3)/$V3</f>
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
       <c r="G3">
+        <v>13083</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(O3-G3)/O3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>13083</v>
       </c>
-      <c r="I3" s="5">
-        <f>(R3-H3)/R3</f>
+      <c r="L3" s="3">
+        <f>(O3-K3)/O3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3">
+      <c r="M3" s="1"/>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>13083</v>
       </c>
-      <c r="N3" s="6">
-        <f>(R3-M3)/R3</f>
-        <v>0</v>
-      </c>
       <c r="P3" s="1"/>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>13083</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S40" si="1">($V3-R3)/$V3</f>
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>16170</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
         <v>12180</v>
       </c>
-      <c r="D4" s="5">
-        <f>(R4-C4)/R4</f>
+      <c r="D4" s="3">
+        <f>(O4-C4)/O4</f>
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.57784555663385551</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
       <c r="G4">
+        <v>11892</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(O4-G4)/O4</f>
+        <v>2.3645320197044337E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>11892</v>
-      </c>
-      <c r="I4" s="5">
-        <f>(R4-H4)/R4</f>
-        <v>2.3645320197044337E-2</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4">
+      <c r="K4">
+        <v>12180</v>
+      </c>
+      <c r="L4" s="3">
+        <f>(O4-K4)/O4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>12180</v>
       </c>
-      <c r="N4" s="6">
-        <f>(R4-M4)/R4</f>
-        <v>0</v>
-      </c>
       <c r="P4" s="1"/>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>12180</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>0.57784555663385551</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>28852</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
         <v>63096</v>
       </c>
-      <c r="D5" s="5">
-        <f>(R5-C5)/R5</f>
+      <c r="D5" s="3">
+        <f>(O5-C5)/O5</f>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.14667099444151419</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5">
+        <v>4</v>
+      </c>
       <c r="G5">
+        <v>63096</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(O5-G5)/O5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>63096</v>
       </c>
-      <c r="I5" s="5">
-        <f>(R5-H5)/R5</f>
+      <c r="L5" s="3">
+        <f>(O5-K5)/O5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5">
+      <c r="M5" s="1"/>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>63096</v>
       </c>
-      <c r="N5" s="6">
-        <f>(R5-M5)/R5</f>
-        <v>0</v>
-      </c>
       <c r="P5" s="1"/>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>63096</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>0.14667099444151419</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5">
-        <v>4</v>
-      </c>
-      <c r="V5">
-        <v>73941</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
         <v>69978</v>
       </c>
-      <c r="D6" s="5">
-        <f>(R6-C6)/R6</f>
+      <c r="D6" s="3">
+        <f>(O6-C6)/O6</f>
         <v>0</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.30364606137802014</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6">
+        <v>5</v>
+      </c>
       <c r="G6">
+        <v>64710</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(O6-G6)/O6</f>
+        <v>7.5280802537940492E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>64710</v>
-      </c>
-      <c r="I6" s="5">
-        <f>(R6-H6)/R6</f>
-        <v>7.5280802537940492E-2</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6">
+      <c r="K6">
+        <v>69978</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(O6-K6)/O6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>69978</v>
       </c>
-      <c r="N6" s="6">
-        <f>(R6-M6)/R6</f>
-        <v>0</v>
-      </c>
       <c r="P6" s="1"/>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>69978</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0.30364606137802014</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6">
-        <v>100492</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>215581</v>
       </c>
-      <c r="D7" s="5">
-        <f>(R7-C7)/R7</f>
+      <c r="D7" s="3">
+        <f>(O7-C7)/O7</f>
         <v>0</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.28995273619551076</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>6</v>
+      </c>
       <c r="G7">
+        <v>186598</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(O7-G7)/O7</f>
+        <v>0.1344413468719414</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>186598</v>
-      </c>
-      <c r="I7" s="5">
-        <f>(R7-H7)/R7</f>
-        <v>0.1344413468719414</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7">
+      <c r="K7">
+        <v>215581</v>
+      </c>
+      <c r="L7" s="3">
+        <f>(O7-K7)/O7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>215581</v>
       </c>
-      <c r="N7" s="6">
-        <f>(R7-M7)/R7</f>
-        <v>0</v>
-      </c>
       <c r="P7" s="1"/>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>215581</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0.28995273619551076</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7">
-        <v>6</v>
-      </c>
-      <c r="V7">
-        <v>303615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>74664</v>
       </c>
-      <c r="D8" s="5">
-        <f>(R8-C8)/R8</f>
+      <c r="D8" s="3">
+        <f>(O8-C8)/O8</f>
         <v>0</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.2701466275659824</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
       <c r="G8">
+        <v>53481</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(O8-G8)/O8</f>
+        <v>0.28371102539376408</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>53481</v>
-      </c>
-      <c r="I8" s="5">
-        <f>(R8-H8)/R8</f>
-        <v>0.28371102539376408</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8">
+      <c r="K8">
+        <v>74664</v>
+      </c>
+      <c r="L8" s="3">
+        <f>(O8-K8)/O8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>74664</v>
       </c>
-      <c r="N8" s="6">
-        <f>(R8-M8)/R8</f>
-        <v>0</v>
-      </c>
       <c r="P8" s="1"/>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>74664</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>0.2701466275659824</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8">
-        <v>7</v>
-      </c>
-      <c r="V8">
-        <v>102300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>340171</v>
       </c>
-      <c r="D9" s="5">
-        <f>(R9-C9)/R9</f>
+      <c r="D9" s="3">
+        <f>(O9-C9)/O9</f>
         <v>4.3785323136270107E-3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.41311376419033158</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9">
+        <v>8</v>
+      </c>
       <c r="G9">
+        <v>324253</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(O9-G9)/O9</f>
+        <v>5.0967755153409608E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="H9">
-        <v>324253</v>
-      </c>
-      <c r="I9" s="5">
-        <f>(R9-H9)/R9</f>
-        <v>5.0967755153409608E-2</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9">
+      <c r="K9">
+        <v>341667</v>
+      </c>
+      <c r="L9" s="3">
+        <f>(O9-K9)/O9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>341667</v>
       </c>
-      <c r="N9" s="6">
-        <f>(R9-M9)/R9</f>
-        <v>0</v>
-      </c>
       <c r="P9" s="1"/>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-      <c r="R9">
-        <v>341667</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>0.41053276284462231</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
-        <v>579620</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
         <v>697042</v>
       </c>
-      <c r="D10" s="5">
-        <f>(R10-C10)/R10</f>
+      <c r="D10" s="3">
+        <f>(O10-C10)/O10</f>
         <v>1.2011067077146373E-2</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.61088930719024304</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10">
+        <v>9</v>
+      </c>
       <c r="G10">
+        <v>658443</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(O10-G10)/O10</f>
+        <v>6.6721378395387207E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="H10">
-        <v>658443</v>
-      </c>
-      <c r="I10" s="5">
-        <f>(R10-H10)/R10</f>
-        <v>6.6721378395387207E-2</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10">
+      <c r="K10">
+        <v>704460</v>
+      </c>
+      <c r="L10" s="3">
+        <f>(O10-K10)/O10</f>
+        <v>1.496776827173303E-3</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10">
         <v>9</v>
       </c>
-      <c r="M10">
-        <v>704460</v>
-      </c>
-      <c r="N10" s="6">
-        <f>(R10-M10)/R10</f>
-        <v>1.496776827173303E-3</v>
+      <c r="O10">
+        <v>705516</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>705516</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0.60615885477723219</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10">
-        <v>9</v>
-      </c>
-      <c r="V10">
-        <v>1791372</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
         <v>1672414</v>
       </c>
-      <c r="D11" s="5">
-        <f>(R11-C11)/R11</f>
+      <c r="D11" s="3">
+        <f>(O11-C11)/O11</f>
         <v>2.6780451704922463E-4</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.42473653470298367</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11">
+        <v>10</v>
+      </c>
       <c r="G11">
+        <v>1444858</v>
+      </c>
+      <c r="H11" s="3">
+        <f>(O11-G11)/O11</f>
+        <v>0.13629576139573976</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="H11">
-        <v>1444858</v>
-      </c>
-      <c r="I11" s="5">
-        <f>(R11-H11)/R11</f>
-        <v>0.13629576139573976</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11">
+      <c r="K11">
+        <v>1672762</v>
+      </c>
+      <c r="L11" s="3">
+        <f>(O11-K11)/O11</f>
+        <v>5.9777793984201927E-5</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>1672762</v>
-      </c>
-      <c r="N11" s="6">
-        <f>(R11-M11)/R11</f>
-        <v>5.9777793984201927E-5</v>
+      <c r="O11">
+        <v>1672862</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>1672862</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>0.4245824352799622</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>2907214</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
         <v>1158970</v>
       </c>
-      <c r="D12" s="5">
-        <f>(R12-C12)/R12</f>
+      <c r="D12" s="3">
+        <f>(O12-C12)/O12</f>
         <v>1.7880428510153774E-3</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.52755228244218177</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12">
+        <v>11</v>
+      </c>
       <c r="G12">
+        <v>858146</v>
+      </c>
+      <c r="H12" s="3">
+        <f>(O12-G12)/O12</f>
+        <v>0.26088544295402594</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="H12">
-        <v>858146</v>
-      </c>
-      <c r="I12" s="5">
-        <f>(R12-H12)/R12</f>
-        <v>0.26088544295402594</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12">
+      <c r="K12">
+        <v>1160295</v>
+      </c>
+      <c r="L12" s="3">
+        <f>(O12-K12)/O12</f>
+        <v>6.4683053040103498E-4</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12">
         <v>11</v>
       </c>
-      <c r="M12">
-        <v>1160295</v>
-      </c>
-      <c r="N12" s="6">
-        <f>(R12-M12)/R12</f>
-        <v>6.4683053040103498E-4</v>
+      <c r="O12">
+        <v>1161046</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>1161046</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>0.52670601251142424</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12">
-        <v>11</v>
-      </c>
-      <c r="V12">
-        <v>2453118</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
         <v>1968454</v>
       </c>
-      <c r="D13" s="5">
-        <f>(R13-C13)/R13</f>
+      <c r="D13" s="3">
+        <f>(O13-C13)/O13</f>
         <v>7.0048528506714289E-3</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.37846211166788229</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>12</v>
+      </c>
       <c r="G13">
+        <v>1729604</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(O13-G13)/O13</f>
+        <v>0.12749376998900289</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="H13">
-        <v>1729604</v>
-      </c>
-      <c r="I13" s="5">
-        <f>(R13-H13)/R13</f>
-        <v>0.12749376998900289</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13">
+      <c r="K13">
+        <v>1978269</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(O13-K13)/O13</f>
+        <v>2.0536335845515907E-3</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13">
         <v>12</v>
       </c>
-      <c r="M13">
-        <v>1978269</v>
-      </c>
-      <c r="N13" s="6">
-        <f>(R13-M13)/R13</f>
-        <v>2.0536335845515907E-3</v>
+      <c r="O13">
+        <v>1982340</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13">
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>1982340</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>0.37407761748240487</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13">
-        <v>12</v>
-      </c>
-      <c r="V13">
-        <v>3167070</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
         <v>4230527</v>
       </c>
-      <c r="D14" s="5">
-        <f>(R14-C14)/R14</f>
+      <c r="D14" s="3">
+        <f>(O14-C14)/O14</f>
         <v>3.3302997199070928E-3</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.56177834505853208</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14">
+        <v>13</v>
+      </c>
       <c r="G14">
+        <v>4099795</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(O14-G14)/O14</f>
+        <v>3.4129446790004292E-2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="H14">
-        <v>4099795</v>
-      </c>
-      <c r="I14" s="5">
-        <f>(R14-H14)/R14</f>
-        <v>3.4129446790004292E-2</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14">
+      <c r="K14">
+        <v>4244663</v>
+      </c>
+      <c r="L14" s="3">
+        <f>(O14-K14)/O14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14">
         <v>13</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>4244663</v>
       </c>
-      <c r="N14" s="6">
-        <f>(R14-M14)/R14</f>
-        <v>0</v>
-      </c>
       <c r="P14" s="1"/>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <v>4244663</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="1"/>
-        <v>0.56031405909268139</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14">
-        <v>13</v>
-      </c>
-      <c r="V14">
-        <v>9653852</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
         <v>6314464</v>
       </c>
-      <c r="D15" s="5">
-        <f>(R15-C15)/R15</f>
+      <c r="D15" s="3">
+        <f>(O15-C15)/O15</f>
         <v>9.9865792015252051E-3</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.48640713778178024</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15">
+        <v>14</v>
+      </c>
       <c r="G15">
+        <v>5498050</v>
+      </c>
+      <c r="H15" s="3">
+        <f>(O15-G15)/O15</f>
+        <v>0.13798807179500044</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="H15">
-        <v>5498050</v>
-      </c>
-      <c r="I15" s="5">
-        <f>(R15-H15)/R15</f>
-        <v>0.13798807179500044</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15">
+      <c r="K15">
+        <v>6373050</v>
+      </c>
+      <c r="L15" s="3">
+        <f>(O15-K15)/O15</f>
+        <v>8.0117149773602421E-4</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15">
         <v>14</v>
       </c>
-      <c r="M15">
-        <v>6373050</v>
-      </c>
-      <c r="N15" s="6">
-        <f>(R15-M15)/R15</f>
-        <v>8.0117149773602421E-4</v>
+      <c r="O15">
+        <v>6378160</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15">
-        <v>14</v>
-      </c>
-      <c r="R15">
-        <v>6378160</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>0.48122636377596567</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15">
-        <v>14</v>
-      </c>
-      <c r="V15">
-        <v>12294688</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
         <v>4565882</v>
       </c>
-      <c r="D16" s="5">
-        <f>(R16-C16)/R16</f>
+      <c r="D16" s="3">
+        <f>(O16-C16)/O16</f>
         <v>0</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.62039254719691805</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16">
+        <v>15</v>
+      </c>
       <c r="G16">
+        <v>2760287</v>
+      </c>
+      <c r="H16" s="3">
+        <f>(O16-G16)/O16</f>
+        <v>0.39545371518580635</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="H16">
-        <v>2760287</v>
-      </c>
-      <c r="I16" s="5">
-        <f>(R16-H16)/R16</f>
-        <v>0.39545371518580635</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16">
+      <c r="K16">
+        <v>4565882</v>
+      </c>
+      <c r="L16" s="3">
+        <f>(O16-K16)/O16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>4565882</v>
       </c>
-      <c r="N16" s="6">
-        <f>(R16-M16)/R16</f>
-        <v>0</v>
-      </c>
       <c r="P16" s="1"/>
-      <c r="Q16">
-        <v>15</v>
-      </c>
-      <c r="R16">
-        <v>4565882</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>0.62039254719691805</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16">
-        <v>15</v>
-      </c>
-      <c r="V16">
-        <v>12027904</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
         <v>14674342</v>
       </c>
-      <c r="D17" s="5">
-        <f>(R17-C17)/R17</f>
+      <c r="D17" s="3">
+        <f>(O17-C17)/O17</f>
         <v>9.4619358472460384E-3</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.47075491333678438</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17">
+        <v>16</v>
+      </c>
       <c r="G17">
+        <v>8143356</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(O17-G17)/O17</f>
+        <v>0.45031238280076108</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="H17">
-        <v>8143356</v>
-      </c>
-      <c r="I17" s="5">
-        <f>(R17-H17)/R17</f>
-        <v>0.45031238280076108</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17">
+      <c r="K17">
+        <v>14801318</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(O17-K17)/O17</f>
+        <v>8.9088296910948695E-4</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17">
         <v>16</v>
       </c>
-      <c r="M17">
-        <v>14801318</v>
-      </c>
-      <c r="N17" s="6">
-        <f>(R17-M17)/R17</f>
-        <v>8.9088296910948695E-4</v>
+      <c r="O17">
+        <v>14814516</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17">
-        <v>16</v>
-      </c>
-      <c r="R17">
-        <v>14814516</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="1"/>
-        <v>0.46569939529189147</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17">
-        <v>16</v>
-      </c>
-      <c r="V17">
-        <v>27726931</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
         <v>10806986</v>
       </c>
-      <c r="D18" s="5">
-        <f>(R18-C18)/R18</f>
+      <c r="D18" s="3">
+        <f>(O18-C18)/O18</f>
         <v>2.4411588167370997E-2</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.48631222560424342</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18">
+        <v>17</v>
+      </c>
       <c r="G18">
+        <v>7101562</v>
+      </c>
+      <c r="H18" s="3">
+        <f>(O18-G18)/O18</f>
+        <v>0.35891453980684823</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="H18">
-        <v>7101562</v>
-      </c>
-      <c r="I18" s="5">
-        <f>(R18-H18)/R18</f>
-        <v>0.35891453980684823</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18">
+      <c r="K18">
+        <v>11077403</v>
+      </c>
+      <c r="L18" s="3">
+        <f>(O18-K18)/O18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18">
         <v>17</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>11077403</v>
       </c>
-      <c r="N18" s="6">
-        <f>(R18-M18)/R18</f>
-        <v>0</v>
-      </c>
       <c r="P18" s="1"/>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-      <c r="R18">
-        <v>11077403</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>0.47345851163729857</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18">
-        <v>17</v>
-      </c>
-      <c r="V18">
-        <v>21038044</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
+        <v>31474422</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:D46" si="0">(O19-C19)/O19</f>
+        <v>1.7674511538955571E-3</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
         <v>13934374</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19:H46" si="1">(O19-G19)/O19</f>
         <v>0.55806191851291542</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>31504601</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" ref="L19:L46" si="2">(O19-K19)/O19</f>
+        <v>8.1030378859599467E-4</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>31530150</v>
+      </c>
       <c r="P19" s="1"/>
-      <c r="Q19">
-        <v>18</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19">
-        <v>18</v>
-      </c>
-      <c r="V19">
-        <v>31530150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
+        <v>39480612</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.059977850075296E-3</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
         <v>18034319</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
         <v>0.54552209714178679</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>39681399</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>39681399</v>
+      </c>
       <c r="P20" s="1"/>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20">
-        <v>19</v>
-      </c>
-      <c r="V20">
-        <v>39681399</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
+        <v>32620251</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3268107575586186E-3</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
         <v>17587374</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
         <v>0.46317774314552046</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>32752578</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8777236656387891E-4</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>32762006</v>
+      </c>
       <c r="P21" s="1"/>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21">
-        <v>20</v>
-      </c>
-      <c r="V21">
-        <v>32762006</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
+        <v>20071024</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.985173718267501E-3</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
         <v>10148224</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
         <v>0.49943300250011619</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>20269630</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8881830618141217E-4</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>20273458</v>
+      </c>
       <c r="P22" s="1"/>
-      <c r="Q22">
-        <v>21</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22">
-        <v>21</v>
-      </c>
-      <c r="V22">
-        <v>20273458</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
+        <v>22794559</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6874548820565161E-3</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
         <v>13342090</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
         <v>0.41683927093774165</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>22875153</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6482418491359121E-4</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>22878924</v>
+      </c>
       <c r="P23" s="1"/>
-      <c r="Q23">
-        <v>22</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="U23">
-        <v>22</v>
-      </c>
-      <c r="V23">
-        <v>22878924</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
+        <v>25368004</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5530821581509645E-3</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
         <v>10199224</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
         <v>0.59937780996965251</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>25415801</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6756315975121827E-3</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>25458460</v>
+      </c>
       <c r="P24" s="1"/>
-      <c r="Q24">
-        <v>23</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24">
-        <v>23</v>
-      </c>
-      <c r="V24">
-        <v>25458460</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
+        <v>23009762</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3342206314960332E-3</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
         <v>14411726</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
         <v>0.37763637243030451</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>23150846</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4157426616526546E-4</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <v>23156440</v>
+      </c>
       <c r="P25" s="1"/>
-      <c r="Q25">
-        <v>24</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25">
-        <v>24</v>
-      </c>
-      <c r="V25">
-        <v>23156440</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26">
+        <v>60263438</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2205204649327297E-3</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
         <v>34825988</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
         <v>0.4268547995397392</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>60733548</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8373234600346287E-4</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>60762941</v>
+      </c>
       <c r="P26" s="1"/>
-      <c r="Q26">
-        <v>25</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26">
-        <v>25</v>
-      </c>
-      <c r="V26">
-        <v>60762941</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
+        <v>27832153</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>8.960751579068435E-3</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
         <v>23881648</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
         <v>0.14962919020410517</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>28078753</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7989015377367846E-4</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27">
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>28083805</v>
+      </c>
       <c r="P27" s="1"/>
-      <c r="Q27">
-        <v>26</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27">
-        <v>26</v>
-      </c>
-      <c r="V27">
-        <v>28083805</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28">
+        <v>73482005</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3522826958099309E-3</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
         <v>45563644</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
         <v>0.38077316925877625</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>73573307</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1145463341142723E-4</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>73581508</v>
+      </c>
       <c r="P28" s="1"/>
-      <c r="Q28">
-        <v>27</v>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="U28">
-        <v>27</v>
-      </c>
-      <c r="V28">
-        <v>73581508</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
+        <v>53546726</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3578394399626841E-3</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
         <v>33718914</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
         <v>0.37618262941607128</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>53940525</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0723540082972234E-3</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29">
+        <v>28</v>
+      </c>
+      <c r="O29">
+        <v>54052541</v>
+      </c>
       <c r="P29" s="1"/>
-      <c r="Q29">
-        <v>28</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29">
-        <v>28</v>
-      </c>
-      <c r="V29">
-        <v>54052541</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
+        <v>46337615</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3790640963800804E-3</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
         <v>27347055</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
         <v>0.41300488947677239</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>46583768</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5474787014810785E-5</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30">
+        <v>29</v>
+      </c>
+      <c r="O30">
+        <v>46588216</v>
+      </c>
       <c r="P30" s="1"/>
-      <c r="Q30">
-        <v>29</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30">
-        <v>29</v>
-      </c>
-      <c r="V30">
-        <v>46588216</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31">
+        <v>47154546</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7336748311323186E-4</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
         <v>18911956</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
         <v>0.59912658908883287</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>47160669</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4357932714411496E-4</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>47176878</v>
+      </c>
       <c r="P31" s="1"/>
-      <c r="Q31">
-        <v>30</v>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="U31">
-        <v>30</v>
-      </c>
-      <c r="V31">
-        <v>47176878</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
+        <v>67532818</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7849968454489258E-3</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
         <v>36980108</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
         <v>0.45503298411335896</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32">
+        <v>67854016</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1578663740063813E-5</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32">
+        <v>31</v>
+      </c>
+      <c r="O32">
+        <v>67857516</v>
+      </c>
       <c r="P32" s="1"/>
-      <c r="Q32">
-        <v>31</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32">
-        <v>31</v>
-      </c>
-      <c r="V32">
-        <v>67857516</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33">
+        <v>66138554</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5331932279985019E-2</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
         <v>36980108</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
         <v>0.45503298411335896</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>67794060</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3513591036842553E-4</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33">
+        <v>32</v>
+      </c>
+      <c r="O33">
+        <v>67857516</v>
+      </c>
       <c r="P33" s="1"/>
-      <c r="Q33">
-        <v>32</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33">
-        <v>32</v>
-      </c>
-      <c r="V33">
-        <v>67857516</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34">
+        <v>27635106</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8887496850716666E-3</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
         <v>19023576</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
         <v>0.31842285610118293</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>27911067</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6122610951509205E-6</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34">
+        <v>33</v>
+      </c>
+      <c r="O34">
+        <v>27911112</v>
+      </c>
       <c r="P34" s="1"/>
-      <c r="Q34">
-        <v>33</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34">
-        <v>33</v>
-      </c>
-      <c r="V34">
-        <v>27911112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35">
+        <v>103823588</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2883646837367568E-2</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
         <v>72487795</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
         <v>0.31779462390376551</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>106137058</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1108549978950655E-3</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35">
+        <v>34</v>
+      </c>
+      <c r="O35">
+        <v>106255092</v>
+      </c>
       <c r="P35" s="1"/>
-      <c r="Q35">
-        <v>34</v>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="U35">
-        <v>34</v>
-      </c>
-      <c r="V35">
-        <v>106255092</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36">
+        <v>99389936</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5508681571410415E-3</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
         <v>51076035</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
         <v>0.4874154384330675</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>99625048</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="2"/>
+        <v>1.913509894688713E-4</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <v>99644115</v>
+      </c>
       <c r="P36" s="1"/>
-      <c r="Q36">
-        <v>35</v>
-      </c>
-      <c r="T36" s="1"/>
-      <c r="U36">
-        <v>35</v>
-      </c>
-      <c r="V36">
-        <v>99644115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37">
+        <v>273290916</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8662852322579982E-3</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
         <v>142612939</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
         <v>0.48174743618988275</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>274931733</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="2"/>
+        <v>9.035891195776117E-4</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37">
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <v>275180383</v>
+      </c>
       <c r="P37" s="1"/>
-      <c r="Q37">
-        <v>36</v>
-      </c>
-      <c r="T37" s="1"/>
-      <c r="U37">
-        <v>36</v>
-      </c>
-      <c r="V37">
-        <v>275180383</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38">
+        <v>240543768</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>8.967929313649807E-3</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
         <v>119601127</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
         <v>0.50724746048198954</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>242403333</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3065853185484134E-3</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>242720468</v>
+      </c>
       <c r="P38" s="1"/>
-      <c r="Q38">
-        <v>37</v>
-      </c>
-      <c r="T38" s="1"/>
-      <c r="U38">
-        <v>37</v>
-      </c>
-      <c r="V38">
-        <v>242720468</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39">
+        <v>206766388</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3721149575614117E-2</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
         <v>109932242</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
         <v>0.4756215151162026</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>209610441</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5497302961755017E-4</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39">
+        <v>38</v>
+      </c>
+      <c r="O39">
+        <v>209642930</v>
+      </c>
       <c r="P39" s="1"/>
-      <c r="Q39">
-        <v>38</v>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="U39">
-        <v>38</v>
-      </c>
-      <c r="V39">
-        <v>209642930</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
+        <v>191590316</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>1.256883538074598E-2</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40">
         <v>121542734</v>
       </c>
-      <c r="E40">
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37358481425215562</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40">
+        <v>193836004</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9485625952837418E-4</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40">
+        <v>39</v>
+      </c>
+      <c r="O40">
+        <v>194029035</v>
+      </c>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>203291594</v>
+      </c>
+      <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>0.37358481425215562</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40">
-        <v>39</v>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="U40">
-        <v>39</v>
-      </c>
-      <c r="V40">
-        <v>194029035</v>
-      </c>
+        <v>4.8946083424890091E-4</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>162989823</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19863855332227687</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>203292856</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8325604104713585E-4</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41">
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <v>203391146</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>216233108</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2090536720447685E-4</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <v>176543360</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18389439256345663</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42">
+        <v>41</v>
+      </c>
+      <c r="K42">
+        <v>216233108</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2090536720447685E-4</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42">
+        <v>41</v>
+      </c>
+      <c r="O42">
+        <v>216324160</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>223638473</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7537186724332651E-4</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>179442115</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19800555396060873</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>223638473</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7537186724332651E-4</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43">
+        <v>42</v>
+      </c>
+      <c r="O43">
+        <v>223744835</v>
+      </c>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>241291365</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5064113140855182E-3</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>193451736</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20508487336809539</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>241291365</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5064113140855182E-3</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44">
+        <v>43</v>
+      </c>
+      <c r="O44">
+        <v>243361498</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>252087912</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>4.328326348433372E-3</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>202594307</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19981322736740625</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>252087912</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="2"/>
+        <v>4.328326348433372E-3</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45">
+        <v>44</v>
+      </c>
+      <c r="O45">
+        <v>253183774</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>272940000</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9413400109481484E-3</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>173694262</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3648528527166876</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>272940000</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9413400109481484E-3</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46">
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <v>273470900</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;R
+</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32456BF9-1A04-434C-AE1E-544544BF81F0}">
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3">
+        <f>(N2-B2)/N2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(N2-F2)/N2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2" s="4">
+        <f>(N2-J2)/N2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2510</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C46" si="0">(N3-B3)/N3</f>
+        <v>3.6098310291858678E-2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2510</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G46" si="1">(N3-F3)/N3</f>
+        <v>3.6098310291858678E-2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2604</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K46" si="2">(N3-J3)/N3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2604</v>
+      </c>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5390</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5390</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5390</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>5390</v>
+      </c>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7166</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.758107389686337E-2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7166</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.758107389686337E-2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>7524</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>7524</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7650</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>7650</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>8330</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>8330</v>
+      </c>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>33368</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>33368</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>33924</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>7.6583210603829157E-4</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>33950</v>
+      </c>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20017</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6336485813837729E-3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>17302</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13877551020408163</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>20090</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>20090</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>29870</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2628205128205129E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>23643</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24221153846153845</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>31200</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>31200</v>
+      </c>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>52355</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2612712490761274E-2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>52355</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2612712490761274E-2</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>53820</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5432372505543242E-3</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>54120</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>112278</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.854156296665008E-2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>93396</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22518666002986559</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>119210</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1033681765389082E-2</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>120540</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>150407</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11898430178069354</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>120365</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29495665417057171</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>170720</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>170720</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>114776</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14696395392047565</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>99345</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26164994425863991</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>133620</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>6.9119286510590855E-3</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>134550</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>274405</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14141113892365456</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>230016</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.28030037546933667</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>319420</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6320400500625787E-4</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>319600</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>493993</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12412588652482269</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>463178</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17876241134751772</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>563840</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8368794326241134E-4</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>564000</v>
+      </c>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>423004</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12166943521594685</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>416233</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13572882059800664</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>480890</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4742524916943522E-3</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>481600</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>920941</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0576288659793814E-2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>890329</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2135051546391752E-2</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8">
+        <v>970000</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>970000</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>706083</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5621600621600624E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>706083</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5621600621600624E-2</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8">
+        <v>771800</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1800051800051804E-4</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>772200</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>860252</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10525560351552343</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>780472</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18823443756825628</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="1"/>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>961450</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>864315</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20000462791558682</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>792367</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26659848204368752</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1"/>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1080400</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>659953</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35472885437637436</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>597265</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41602224584039355</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1022753</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1019719</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50163430795561958</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>883314</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56829931294553704</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="1"/>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>2046126</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1658427</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46020790640631387</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>1599535</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47937633285856013</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="1"/>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>3072344</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3010147</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26550806425441364</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2662337</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35037556081576843</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1"/>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>4098271</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3178712</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37953348558489974</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2729581</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4672013038980305</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>5123100</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3966361</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35491829220810273</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>3466977</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4361371937563856</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="1"/>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>6148618</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6074144</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15329169218185035</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>4286262</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4025143880544752</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="1"/>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>7173833</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5032349</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38633736860884577</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>4495396</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.451815337428849</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="1"/>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>8200514</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5975923</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35240157428264218</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>5502254</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40373210493223644</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="1"/>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>9227822</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6732065</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34310710656208393</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>6276007</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38760775520340113</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="1"/>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>10248345</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10439210</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47172184799406869</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>8988744</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54512294807994055</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="1"/>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>19760821</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>33204665</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16030826518645427</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>31267376</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20929913924722857</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="1"/>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>39543875</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>37985254</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35971716965630196</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>34041448</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42619431544573011</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="1"/>
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33">
+        <v>59325742</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>63155648</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20139719094233494</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>60638550</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23322588080825843</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="1"/>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>79082677</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>80207405</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1885541644366191</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>73959964</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25175855288900606</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="1"/>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>98845051</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>89501785</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24546127240293561</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>87873858</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25918540055525019</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="2">
+        <v>35</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="1"/>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>118617881</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>84968347</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38591075669314467</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>76948539</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44387207993962685</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="1"/>
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>138364819</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>105609705</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33200818085749706</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>87270834</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44800335194816238</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="1"/>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>158100297</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>124947031</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2975080678153868</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>110088127</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38104955013444791</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="1"/>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>177862585</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>158733608</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19686953712114605</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>157173483</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20476316424388413</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="1"/>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>197643615</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>168746330</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17033591029572154</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>168583488</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17113654495068334</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="1"/>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>203391146</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>185945603</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21596418572951082</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>156500038</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3401208055094882</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="1"/>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>237164680</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>195368489</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23937372997215967</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>181832457</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29207343392051488</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="1"/>
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="N43">
+        <v>256852145</v>
+      </c>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>215687053</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22070574009966351</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>195977949</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29191628056255703</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="1"/>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>276772285</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>207328322</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30047371569192333</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>186623585</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37033155084666863</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="1"/>
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45">
+        <v>296383891</v>
+      </c>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>164063971</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48119227099294576</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>150825577</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52305509489619395</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="1"/>
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46">
+        <v>316232704</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;R
+</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C75FBA-F597-4FCA-8E75-147FEE67A9C3}">
-  <dimension ref="B3:F41"/>
+  <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.02</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.01</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1.08</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.01</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.01</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>2.34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.09</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>4.01</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.09</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6.32</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>10.42</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.36</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.37</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>12.26</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="M8" s="6">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>18.23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.59</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.75</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6">
+        <v>22.96</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="M9" s="6">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>23.13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>21.58</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="L10" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="M10" s="6">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>44.67</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>1.91</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>2.59</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>38.44</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6">
+        <v>63.76</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="M11" s="6">
+        <v>56.73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>94.8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>4.8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>6.06</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>95.75</v>
+      </c>
+      <c r="K12" s="6">
+        <v>7.73</v>
+      </c>
+      <c r="L12" s="6">
+        <v>6.86</v>
+      </c>
+      <c r="M12" s="6">
+        <v>106.88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>5.27</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>7.25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>145.21</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
+        <v>123.14</v>
+      </c>
+      <c r="K13" s="6">
+        <v>6.01</v>
+      </c>
+      <c r="L13" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="M13" s="6">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>223.15</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>14.34</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>11.68</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>205.07</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6">
+        <v>216.93</v>
+      </c>
+      <c r="K14" s="6">
+        <v>23.09</v>
+      </c>
+      <c r="L14" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M14" s="6">
+        <v>219.84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>244.34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>17.21</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>17.29</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>246.77</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6">
+        <v>326.14999999999998</v>
+      </c>
+      <c r="K15" s="6">
+        <v>23.32</v>
+      </c>
+      <c r="L15" s="6">
+        <v>14.66</v>
+      </c>
+      <c r="M15" s="6">
+        <v>238.67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>465.31</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>60.12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>58</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>450.08</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16" s="6">
+        <v>547.82000000000005</v>
+      </c>
+      <c r="K16" s="6">
+        <v>72.66</v>
+      </c>
+      <c r="L16" s="6">
+        <v>81.88</v>
+      </c>
+      <c r="M16" s="6">
+        <v>476.17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>1721.69</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>176.74</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>134.6</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>727.76</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2062.34</v>
+      </c>
+      <c r="K17" s="6">
+        <v>163.68</v>
+      </c>
+      <c r="L17" s="6">
+        <v>193.59</v>
+      </c>
+      <c r="M17" s="6">
+        <v>821.61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>2033.87</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>233.67</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>184.38</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>1143.1600000000001</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2337.4299999999998</v>
+      </c>
+      <c r="K18" s="6">
+        <v>248.13</v>
+      </c>
+      <c r="L18" s="6">
+        <v>190.68</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1174.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>3348.65</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>370.3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>384.43</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>1389</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3581.33</v>
+      </c>
+      <c r="K19" s="6">
+        <v>390.01</v>
+      </c>
+      <c r="L19" s="6">
+        <v>393.57</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1400.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>4728.46</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>563.04</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>584.21</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>1601.06</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>2.3645320197044337E-2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>7.5280802537940492E-2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>0.1344413468719414</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>0.28371102539376408</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>5.0967755153409608E-2</v>
-      </c>
-      <c r="E32">
-        <v>4.3785323136270107E-3</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>6.6721378395387207E-2</v>
-      </c>
-      <c r="E33">
-        <v>1.2011067077146373E-2</v>
-      </c>
-      <c r="F33">
-        <v>1.496776827173303E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>0.13629576139573976</v>
-      </c>
-      <c r="E34">
-        <v>2.6780451704922463E-4</v>
-      </c>
-      <c r="F34">
-        <v>5.9777793984201927E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>0.26088544295402594</v>
-      </c>
-      <c r="E35">
-        <v>1.7880428510153774E-3</v>
-      </c>
-      <c r="F35">
-        <v>6.4683053040103498E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>0.12749376998900289</v>
-      </c>
-      <c r="E36">
-        <v>7.0048528506714289E-3</v>
-      </c>
-      <c r="F36">
-        <v>2.0536335845515907E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>3.4129446790004292E-2</v>
-      </c>
-      <c r="E37">
-        <v>3.3302997199070928E-3</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>0.13798807179500044</v>
-      </c>
-      <c r="E38">
-        <v>9.9865792015252051E-3</v>
-      </c>
-      <c r="F38">
-        <v>8.0117149773602421E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>0.39545371518580635</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="D40">
-        <v>0.45031238280076108</v>
-      </c>
-      <c r="E40">
-        <v>9.4619358472460384E-3</v>
-      </c>
-      <c r="F40">
-        <v>8.9088296910948695E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="I20">
         <v>17</v>
       </c>
-      <c r="D41">
-        <v>0.35891453980684823</v>
-      </c>
-      <c r="E41">
-        <v>2.4411588167370997E-2</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="J20" s="6">
+        <v>4757.93</v>
+      </c>
+      <c r="K20" s="6">
+        <v>514.65</v>
+      </c>
+      <c r="L20" s="6">
+        <v>597.01</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1667.61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7368.02</v>
+      </c>
+      <c r="D21" s="6">
+        <v>931.80206718750003</v>
+      </c>
+      <c r="E21" s="6">
+        <v>794.05638114880014</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1842.0050000000001</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7237.22</v>
+      </c>
+      <c r="K21" s="6">
+        <v>820.95</v>
+      </c>
+      <c r="L21" s="6">
+        <v>806.84</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1884.66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <v>8126.41</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1062.0897210937501</v>
+      </c>
+      <c r="E22" s="6">
+        <v>891.66883984500021</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2024.9307307152869</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22" s="6">
+        <v>8230.33</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1146.81</v>
+      </c>
+      <c r="L22" s="6">
+        <v>946.38</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2186.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
+        <v>11567.48</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1341.1562531250001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1014.0218313225001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2885.6571383419987</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>11546.01</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1405.79</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1130.47</v>
+      </c>
+      <c r="M23" s="6">
+        <v>2625.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
+        <v>14750.15</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1617.73972265625</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1291.6182600300003</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3669.1710191069569</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24" s="6">
+        <v>15387.76</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1716.53</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1214.83</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3657.93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6">
+        <v>16961.64</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2007.9907593750002</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1564.7980513375001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4231.3501556824995</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25" s="6">
+        <v>17285.5</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2198.0100000000002</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1589.85</v>
+      </c>
+      <c r="M25" s="6">
+        <v>4649.38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6">
+        <v>20276.98</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2408.8491046875001</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1930.7685912900004</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5047.2647816942781</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26" s="6">
+        <v>21152.79</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2662.03</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1943.48</v>
+      </c>
+      <c r="M26" s="6">
+        <v>5525.57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6">
+        <v>20687.150000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2781.7905820312503</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2315.6064114050005</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5146.4722056781966</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6">
+        <v>22969.43</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2893.65</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2495.7199999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <v>5134.03</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6">
+        <v>23317.34</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3053.0650640625004</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2650.788339587501</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5819.3675905747941</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28" s="6">
+        <v>25207.07</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3058.61</v>
+      </c>
+      <c r="L28" s="6">
+        <v>2908.53</v>
+      </c>
+      <c r="M28" s="6">
+        <v>5997.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6">
+        <v>27289.34</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3337.2335015625004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2914.5250046150009</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6793.2155924263607</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29" s="6">
+        <v>29762.09</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3471.28</v>
+      </c>
+      <c r="L29" s="6">
+        <v>3239.02</v>
+      </c>
+      <c r="M29" s="6">
+        <v>6822.08</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6">
+        <v>29017.82</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3722.8431140624998</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3201.1962216150005</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7253.825624767549</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30" s="6">
+        <v>31975.25</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3748.22</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3381.93</v>
+      </c>
+      <c r="M30" s="6">
+        <v>7752.24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6">
+        <v>38582.65</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4306.7551523437505</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3558.9110338950004</v>
+      </c>
+      <c r="F31" s="6">
+        <v>9607.4606073456634</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31" s="6">
+        <v>39471.96</v>
+      </c>
+      <c r="K31" s="6">
+        <v>4326.1400000000003</v>
+      </c>
+      <c r="L31" s="6">
+        <v>3821.65</v>
+      </c>
+      <c r="M31" s="6">
+        <v>10796.57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43735.08</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4848.2667843750005</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4159.957099462501</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10921.383821712852</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32" s="6">
+        <v>43700.99</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4900.3599999999997</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4109.79</v>
+      </c>
+      <c r="M32" s="6">
+        <v>11259.89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>48914.34</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5267.0362359374994</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4685.5853211300009</v>
+      </c>
+      <c r="F33" s="6">
+        <v>12174.277337814503</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33" s="6">
+        <v>48200.15</v>
+      </c>
+      <c r="K33" s="6">
+        <v>5119.2</v>
+      </c>
+      <c r="L33" s="6">
+        <v>5086.95</v>
+      </c>
+      <c r="M33" s="6">
+        <v>11959.63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6">
+        <v>49561.84</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6257.2583062499998</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5102.281727865</v>
+      </c>
+      <c r="F34" s="6">
+        <v>12356.523658779492</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34" s="6">
+        <v>49885.06</v>
+      </c>
+      <c r="K34" s="6">
+        <v>6648.42</v>
+      </c>
+      <c r="L34" s="6">
+        <v>5333.99</v>
+      </c>
+      <c r="M34" s="6">
+        <v>12498.74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6">
+        <v>51034.43</v>
+      </c>
+      <c r="D35" s="6">
+        <v>7009.4089757812508</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5988.4721597400003</v>
+      </c>
+      <c r="F35" s="6">
+        <v>12727.011307630502</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35" s="6">
+        <v>54684.07</v>
+      </c>
+      <c r="K35" s="6">
+        <v>7592.48</v>
+      </c>
+      <c r="L35" s="6">
+        <v>6070.86</v>
+      </c>
+      <c r="M35" s="6">
+        <v>12810.34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6">
+        <v>57914.87</v>
+      </c>
+      <c r="D36" s="6">
+        <v>7813.5257039062499</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6669.9844361675023</v>
+      </c>
+      <c r="F36" s="6">
+        <v>14468.146111697635</v>
+      </c>
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36" s="6">
+        <v>56765.29</v>
+      </c>
+      <c r="K36" s="6">
+        <v>7971.29</v>
+      </c>
+      <c r="L36" s="6">
+        <v>6849.45</v>
+      </c>
+      <c r="M36" s="6">
+        <v>15100.02</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6">
+        <v>68891.39</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8411.0032007812497</v>
+      </c>
+      <c r="E37" s="6">
+        <v>7443.9290367575004</v>
+      </c>
+      <c r="F37" s="6">
+        <v>17178.907840725165</v>
+      </c>
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37" s="6">
+        <v>73035.67</v>
+      </c>
+      <c r="K37" s="6">
+        <v>8257.25</v>
+      </c>
+      <c r="L37" s="6">
+        <v>7988.46</v>
+      </c>
+      <c r="M37" s="6">
+        <v>18088.34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6">
+        <v>76391.45</v>
+      </c>
+      <c r="D38" s="6">
+        <v>9221.0740898437489</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8069.1040607275008</v>
+      </c>
+      <c r="F38" s="6">
+        <v>19035.976528605661</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38" s="6">
+        <v>82363.95</v>
+      </c>
+      <c r="K38" s="6">
+        <v>9738.91</v>
+      </c>
+      <c r="L38" s="6">
+        <v>8639.3700000000008</v>
+      </c>
+      <c r="M38" s="6">
+        <v>19271.93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6">
+        <v>84451.18</v>
+      </c>
+      <c r="D39" s="6">
+        <v>11020.523057812499</v>
+      </c>
+      <c r="E39" s="6">
+        <v>8853.6393612624997</v>
+      </c>
+      <c r="F39" s="6">
+        <v>21093.500583406789</v>
+      </c>
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39" s="6">
+        <v>92771.58</v>
+      </c>
+      <c r="K39" s="6">
+        <v>11858.81</v>
+      </c>
+      <c r="L39" s="6">
+        <v>9209.2800000000007</v>
+      </c>
+      <c r="M39" s="6">
+        <v>22140.080000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6">
+        <v>91784.36</v>
+      </c>
+      <c r="D40" s="6">
+        <v>11828.990334375001</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10522.863881354999</v>
+      </c>
+      <c r="F40" s="6">
+        <v>22945.505137387197</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40" s="6">
+        <v>94578.85</v>
+      </c>
+      <c r="K40" s="6">
+        <v>12023.54</v>
+      </c>
+      <c r="L40" s="6">
+        <v>10806.42</v>
+      </c>
+      <c r="M40" s="6">
+        <v>22886.73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6">
+        <v>99314.42</v>
+      </c>
+      <c r="D41" s="6">
+        <v>12270.3495046875</v>
+      </c>
+      <c r="E41" s="6">
+        <v>11304.546827210002</v>
+      </c>
+      <c r="F41" s="6">
+        <v>24791.358062967796</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41" s="6">
+        <v>103558.11</v>
+      </c>
+      <c r="K41" s="6">
+        <v>12260.41</v>
+      </c>
+      <c r="L41" s="6">
+        <v>12865.16</v>
+      </c>
+      <c r="M41" s="6">
+        <v>24278.38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6">
+        <v>104934.71</v>
+      </c>
+      <c r="D42" s="6">
+        <v>13185.356978906249</v>
+      </c>
+      <c r="E42" s="6">
+        <v>11761.423695244999</v>
+      </c>
+      <c r="F42" s="6">
+        <v>26109.414229394075</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42" s="6">
+        <v>116711.76</v>
+      </c>
+      <c r="K42" s="6">
+        <v>13711.77</v>
+      </c>
+      <c r="L42" s="6">
+        <v>12139.41</v>
+      </c>
+      <c r="M42" s="6">
+        <v>26615.88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6">
+        <v>110981.58</v>
+      </c>
+      <c r="D43" s="6">
+        <v>13489.463620312501</v>
+      </c>
+      <c r="E43" s="6">
+        <v>12623.219896997502</v>
+      </c>
+      <c r="F43" s="6">
+        <v>27672.613090797113</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43" s="6">
+        <v>134483.75</v>
+      </c>
+      <c r="K43" s="6">
+        <v>14013.52</v>
+      </c>
+      <c r="L43" s="6">
+        <v>13295.47</v>
+      </c>
+      <c r="M43" s="6">
+        <v>28765.55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6">
+        <v>118392.34</v>
+      </c>
+      <c r="D44" s="6">
+        <v>13929.676392187501</v>
+      </c>
+      <c r="E44" s="6">
+        <v>12945.355310755001</v>
+      </c>
+      <c r="F44" s="6">
+        <v>29455.238718951652</v>
+      </c>
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44" s="6">
+        <v>157718.39999999999</v>
+      </c>
+      <c r="K44" s="6">
+        <v>14241.62</v>
+      </c>
+      <c r="L44" s="6">
+        <v>14882.96</v>
+      </c>
+      <c r="M44" s="6">
+        <v>29385.18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6">
+        <v>120934</v>
+      </c>
+      <c r="D45" s="6">
+        <v>14446.100156250001</v>
+      </c>
+      <c r="E45" s="6">
+        <v>13400.193073365004</v>
+      </c>
+      <c r="F45" s="6">
+        <v>30130.370757749344</v>
+      </c>
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45" s="6">
+        <v>170387.49</v>
+      </c>
+      <c r="K45" s="6">
+        <v>14894.78</v>
+      </c>
+      <c r="L45" s="6">
+        <v>15845.25</v>
+      </c>
+      <c r="M45" s="6">
+        <v>31398.720000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6">
+        <v>121304.76</v>
+      </c>
+      <c r="D46" s="6">
+        <v>15187.662928125001</v>
+      </c>
+      <c r="E46" s="6">
+        <v>13881.197361500002</v>
+      </c>
+      <c r="F46" s="6">
+        <v>30234.654924867787</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46" s="6">
+        <v>171404.03</v>
+      </c>
+      <c r="K46" s="6">
+        <v>15338.4</v>
+      </c>
+      <c r="L46" s="6">
+        <v>15975.66</v>
+      </c>
+      <c r="M46" s="6">
+        <v>32532.880000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" s="6">
+        <v>130217.09</v>
+      </c>
+      <c r="D47" s="6">
+        <v>16257.30484921875</v>
+      </c>
+      <c r="E47" s="6">
+        <v>14543.876884110001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>32471.31236248972</v>
+      </c>
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47" s="6">
+        <v>189661.66</v>
+      </c>
+      <c r="K47" s="6">
+        <v>16377.33</v>
+      </c>
+      <c r="L47" s="6">
+        <v>15849.97</v>
+      </c>
+      <c r="M47" s="6">
+        <v>32154.91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" s="6">
+        <v>133405.38</v>
+      </c>
+      <c r="D48" s="6">
+        <v>17148.942323437499</v>
+      </c>
+      <c r="E48" s="6">
+        <v>15571.331856552504</v>
+      </c>
+      <c r="F48" s="6">
+        <v>33238.827580969257</v>
+      </c>
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48" s="6">
+        <v>194458.68</v>
+      </c>
+      <c r="K48" s="6">
+        <v>17626.03</v>
+      </c>
+      <c r="L48" s="6">
+        <v>16546.47</v>
+      </c>
+      <c r="M48" s="6">
+        <v>34514.720000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;R
+</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/All_perf.xlsx
+++ b/All_perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185376B8-4169-4563-A136-B02E55280695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16578EC-9A16-4437-BE87-BC809C9A9959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
   </bookViews>
@@ -118,13 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +144,2088 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>% Objective Value Gap to MIP Exact Solution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loose channel'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loose channel'!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3785323136270107E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2011067077146373E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6780451704922463E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7880428510153774E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0048528506714289E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3302997199070928E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9865792015252051E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4619358472460384E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4411588167370997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7674511538955571E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.059977850075296E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3268107575586186E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.985173718267501E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6874548820565161E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5530821581509645E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3342206314960332E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2205204649327297E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.960751579068435E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3522826958099309E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3578394399626841E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3790640963800804E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7336748311323186E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7849968454489258E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5331932279985019E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8887496850716666E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2883646837367568E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5508681571410415E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8662852322579982E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.967929313649807E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3721149575614117E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.256883538074598E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8946083424890091E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2090536720447685E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7537186724332651E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.5064113140855182E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.328326348433372E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9413400109481484E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85CA-4004-A5FC-30AC8282D6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loose channel'!$F$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loose channel'!$H$2:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3645320197044337E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5280802537940492E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1344413468719414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28371102539376408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0967755153409608E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6721378395387207E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13629576139573976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26088544295402594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12749376998900289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4129446790004292E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13798807179500044</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39545371518580635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45031238280076108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35891453980684823</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55806191851291542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54552209714178679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46317774314552046</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49943300250011619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41683927093774165</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59937780996965251</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37763637243030451</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4268547995397392</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14962919020410517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38077316925877625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.37618262941607128</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.41300488947677239</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.59912658908883287</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45503298411335896</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45503298411335896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31842285610118293</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31779462390376551</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4874154384330675</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48174743618988275</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50724746048198954</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4756215151162026</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37358481425215562</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19863855332227687</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18389439256345663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19800555396060873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20508487336809539</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19981322736740625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3648528527166876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85CA-4004-A5FC-30AC8282D6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'loose channel'!$J$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LP Relaxation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'loose channel'!$L$2:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.496776827173303E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9777793984201927E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4683053040103498E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0536335845515907E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0117149773602421E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9088296910948695E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1030378859599467E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8777236656387891E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8881830618141217E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6482418491359121E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6756315975121827E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4157426616526546E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8373234600346287E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7989015377367846E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1145463341142723E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0723540082972234E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5474787014810785E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4357932714411496E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1578663740063813E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3513591036842553E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6122610951509205E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1108549978950655E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.913509894688713E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.035891195776117E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3065853185484134E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5497302961755017E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9485625952837418E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8325604104713585E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2090536720447685E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7537186724332651E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.5064113140855182E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.328326348433372E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9413400109481484E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85CA-4004-A5FC-30AC8282D6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1882278943"/>
+        <c:axId val="1882279359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1882278943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882279359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1882279359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882278943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>% Objective Value Gap to MIP Exact Solution for Limited Channel Capacity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'strict channel'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'strict channel'!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6098310291858678E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.758107389686337E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1632653061224483E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6336485813837729E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2628205128205129E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2612712490761274E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.854156296665008E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11898430178069354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14696395392047565</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14141113892365456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12412588652482269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12166943521594685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0576288659793814E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5621600621600624E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F743-439A-9924-22F9048EEA89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'strict channel'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'strict channel'!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6098310291858678E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.758107389686337E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1632653061224483E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13877551020408163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24221153846153845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2612712490761274E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22518666002986559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29495665417057171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26164994425863991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28030037546933667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17876241134751772</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13572882059800664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2135051546391752E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5621600621600624E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F743-439A-9924-22F9048EEA89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'strict channel'!$I$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LP Relaxation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'strict channel'!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6583210603829157E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5432372505543242E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1033681765389082E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9119286510590855E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6320400500625787E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8368794326241134E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4742524916943522E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1800051800051804E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F743-439A-9924-22F9048EEA89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1895935375"/>
+        <c:axId val="1895933711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1895935375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895933711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895933711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895935375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>% Objective Value Gap to Upper-Bound for Limited Channel Capacity</a:t>
+            </a:r>
+            <a:endParaRPr lang="tr-TR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'strict channel'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'strict channel'!$A$19:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'strict channel'!$C$19:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.10525560351552343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20000462791558682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35472885437637436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50163430795561958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46020790640631387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26550806425441364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37953348558489974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35491829220810273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15329169218185035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38633736860884577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35240157428264218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34310710656208393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47172184799406869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16030826518645427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35971716965630196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20139719094233494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1885541644366191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24546127240293561</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38591075669314467</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33200818085749706</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2975080678153868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19686953712114605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17033591029572154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21596418572951082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23937372997215967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22070574009966351</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30047371569192333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48119227099294576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0813-4595-B6AA-FFC29C81A645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'strict channel'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'strict channel'!$A$19:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'strict channel'!$G$19:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.18823443756825628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26659848204368752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41602224584039355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56829931294553704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47937633285856013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35037556081576843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4672013038980305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4361371937563856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4025143880544752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.451815337428849</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40373210493223644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38760775520340113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54512294807994055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20929913924722857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42619431544573011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23322588080825843</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25175855288900606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25918540055525019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44387207993962685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44800335194816238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38104955013444791</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20476316424388413</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17113654495068334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3401208055094882</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29207343392051488</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29191628056255703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.37033155084666863</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52305509489619395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0813-4595-B6AA-FFC29C81A645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2001058863"/>
+        <c:axId val="2001070095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2001058863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001070095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2001070095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001058863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1127,7 +3209,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1228,12 +3310,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Durations!$J$4:$J$48</c:f>
+              <c:f>Durations!$J$4:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1284,90 +3426,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4757.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7237.22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8230.33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11546.01</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15387.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17285.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21152.79</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22969.43</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25207.07</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29762.09</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31975.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>39471.96</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43700.99</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48200.15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49885.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>54684.07</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>56765.29</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73035.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>82363.95</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>92771.58</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>94578.85</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>103558.11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>116711.76</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>134483.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>157718.39999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>170387.49</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>171404.03</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>189661.66</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194458.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,12 +3463,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Durations!$K$4:$K$48</c:f>
+              <c:f>Durations!$K$4:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -1461,90 +3579,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>514.65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>820.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1146.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1405.79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1716.53</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2198.0100000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2662.03</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2893.65</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3058.61</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3471.28</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3748.22</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4326.1400000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4900.3599999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5119.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6648.42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7592.48</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7971.29</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8257.25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9738.91</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11858.81</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12023.54</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12260.41</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13711.77</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14013.52</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14241.62</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14894.78</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15338.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16377.33</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>17626.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,12 +3616,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Durations!$L$4:$L$48</c:f>
+              <c:f>Durations!$L$4:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -1638,90 +3732,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>597.01</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>806.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>946.38</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1130.47</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1214.83</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1589.85</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1943.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2495.7199999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2908.53</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3239.02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3381.93</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3821.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4109.79</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5086.95</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5333.99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6070.86</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6849.45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7988.46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8639.3700000000008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9209.2800000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10806.42</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12865.16</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12139.41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13295.47</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14882.96</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15845.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15975.66</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15849.97</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16546.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,12 +3769,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$4:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Durations!$M$4:$M$48</c:f>
+              <c:f>Durations!$M$4:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.13</c:v>
                 </c:pt>
@@ -1815,90 +3885,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1667.61</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1884.66</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2186.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2625.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3657.93</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4649.38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5525.57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5134.03</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5997.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6822.08</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7752.24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10796.57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11259.89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11959.63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12498.74</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12810.34</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15100.02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18088.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19271.93</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22140.080000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22886.73</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24278.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26615.88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28765.55</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29385.18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>31398.720000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32532.880000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>32154.91</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>34514.720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,6 +3915,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2111,6 +4098,721 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Durations in seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Durations!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$21:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Durations!$K$21:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>820.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1146.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1405.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1716.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2198.0100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2662.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2893.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3058.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3471.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3748.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4326.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4900.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5119.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6648.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7592.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7971.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8257.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9738.91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11858.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12023.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12260.41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13711.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14013.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14241.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14894.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15338.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16377.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17626.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8AA-4159-B574-C3818B48416A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Durations!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Durations!$I$21:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Durations!$L$21:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>806.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>946.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1130.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1214.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1589.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1943.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2495.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2908.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3239.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3381.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3821.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4109.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5086.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5333.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6070.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6849.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7988.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8639.3700000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9209.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10806.42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12865.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12139.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13295.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14882.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15845.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15975.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15849.97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16546.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8AA-4159-B574-C3818B48416A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1886370703"/>
+        <c:axId val="1886368623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1886370703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886368623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886368623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886370703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2191,6 +4893,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3223,7 +6085,2189 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB2FE7B-4425-4197-AB58-2159C541F3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1181DCA5-5F3A-430F-ADBC-70BD68E57CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6B72A6-0BD7-4E61-8674-AE5FCE36164E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3292,6 +8336,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88542BF-D6C7-42D8-B985-4E7ACBBC3BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3599,9 +8679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B31E84-D452-44EC-9AC7-099D3C0C767A}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,27 +8701,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -3651,7 +8731,7 @@
         <v>450</v>
       </c>
       <c r="D2" s="3">
-        <f>(O2-C2)/O2</f>
+        <f t="shared" ref="D2:D18" si="0">(O2-C2)/O2</f>
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
@@ -3662,7 +8742,7 @@
         <v>450</v>
       </c>
       <c r="H2" s="3">
-        <f>(O2-G2)/O2</f>
+        <f t="shared" ref="H2:H18" si="1">(O2-G2)/O2</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -3673,7 +8753,7 @@
         <v>450</v>
       </c>
       <c r="L2" s="3">
-        <f>(O2-K2)/O2</f>
+        <f t="shared" ref="L2:L18" si="2">(O2-K2)/O2</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -3693,7 +8773,7 @@
         <v>13083</v>
       </c>
       <c r="D3" s="3">
-        <f>(O3-C3)/O3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
@@ -3704,7 +8784,7 @@
         <v>13083</v>
       </c>
       <c r="H3" s="3">
-        <f>(O3-G3)/O3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
@@ -3715,7 +8795,7 @@
         <v>13083</v>
       </c>
       <c r="L3" s="3">
-        <f>(O3-K3)/O3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
@@ -3735,7 +8815,7 @@
         <v>12180</v>
       </c>
       <c r="D4" s="3">
-        <f>(O4-C4)/O4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
@@ -3746,7 +8826,7 @@
         <v>11892</v>
       </c>
       <c r="H4" s="3">
-        <f>(O4-G4)/O4</f>
+        <f t="shared" si="1"/>
         <v>2.3645320197044337E-2</v>
       </c>
       <c r="I4" s="1"/>
@@ -3757,7 +8837,7 @@
         <v>12180</v>
       </c>
       <c r="L4" s="3">
-        <f>(O4-K4)/O4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
@@ -3777,7 +8857,7 @@
         <v>63096</v>
       </c>
       <c r="D5" s="3">
-        <f>(O5-C5)/O5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
@@ -3788,7 +8868,7 @@
         <v>63096</v>
       </c>
       <c r="H5" s="3">
-        <f>(O5-G5)/O5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -3799,7 +8879,7 @@
         <v>63096</v>
       </c>
       <c r="L5" s="3">
-        <f>(O5-K5)/O5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
@@ -3819,7 +8899,7 @@
         <v>69978</v>
       </c>
       <c r="D6" s="3">
-        <f>(O6-C6)/O6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
@@ -3830,7 +8910,7 @@
         <v>64710</v>
       </c>
       <c r="H6" s="3">
-        <f>(O6-G6)/O6</f>
+        <f t="shared" si="1"/>
         <v>7.5280802537940492E-2</v>
       </c>
       <c r="I6" s="1"/>
@@ -3841,7 +8921,7 @@
         <v>69978</v>
       </c>
       <c r="L6" s="3">
-        <f>(O6-K6)/O6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
@@ -3861,7 +8941,7 @@
         <v>215581</v>
       </c>
       <c r="D7" s="3">
-        <f>(O7-C7)/O7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -3872,7 +8952,7 @@
         <v>186598</v>
       </c>
       <c r="H7" s="3">
-        <f>(O7-G7)/O7</f>
+        <f t="shared" si="1"/>
         <v>0.1344413468719414</v>
       </c>
       <c r="I7" s="1"/>
@@ -3883,7 +8963,7 @@
         <v>215581</v>
       </c>
       <c r="L7" s="3">
-        <f>(O7-K7)/O7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="1"/>
@@ -3903,7 +8983,7 @@
         <v>74664</v>
       </c>
       <c r="D8" s="3">
-        <f>(O8-C8)/O8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -3914,7 +8994,7 @@
         <v>53481</v>
       </c>
       <c r="H8" s="3">
-        <f>(O8-G8)/O8</f>
+        <f t="shared" si="1"/>
         <v>0.28371102539376408</v>
       </c>
       <c r="I8" s="1"/>
@@ -3925,7 +9005,7 @@
         <v>74664</v>
       </c>
       <c r="L8" s="3">
-        <f>(O8-K8)/O8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -3945,7 +9025,7 @@
         <v>340171</v>
       </c>
       <c r="D9" s="3">
-        <f>(O9-C9)/O9</f>
+        <f t="shared" si="0"/>
         <v>4.3785323136270107E-3</v>
       </c>
       <c r="E9" s="1"/>
@@ -3956,7 +9036,7 @@
         <v>324253</v>
       </c>
       <c r="H9" s="3">
-        <f>(O9-G9)/O9</f>
+        <f t="shared" si="1"/>
         <v>5.0967755153409608E-2</v>
       </c>
       <c r="I9" s="1"/>
@@ -3967,7 +9047,7 @@
         <v>341667</v>
       </c>
       <c r="L9" s="3">
-        <f>(O9-K9)/O9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -3987,7 +9067,7 @@
         <v>697042</v>
       </c>
       <c r="D10" s="3">
-        <f>(O10-C10)/O10</f>
+        <f t="shared" si="0"/>
         <v>1.2011067077146373E-2</v>
       </c>
       <c r="E10" s="1"/>
@@ -3998,7 +9078,7 @@
         <v>658443</v>
       </c>
       <c r="H10" s="3">
-        <f>(O10-G10)/O10</f>
+        <f t="shared" si="1"/>
         <v>6.6721378395387207E-2</v>
       </c>
       <c r="I10" s="1"/>
@@ -4009,7 +9089,7 @@
         <v>704460</v>
       </c>
       <c r="L10" s="3">
-        <f>(O10-K10)/O10</f>
+        <f t="shared" si="2"/>
         <v>1.496776827173303E-3</v>
       </c>
       <c r="M10" s="1"/>
@@ -4029,7 +9109,7 @@
         <v>1672414</v>
       </c>
       <c r="D11" s="3">
-        <f>(O11-C11)/O11</f>
+        <f t="shared" si="0"/>
         <v>2.6780451704922463E-4</v>
       </c>
       <c r="E11" s="1"/>
@@ -4040,7 +9120,7 @@
         <v>1444858</v>
       </c>
       <c r="H11" s="3">
-        <f>(O11-G11)/O11</f>
+        <f t="shared" si="1"/>
         <v>0.13629576139573976</v>
       </c>
       <c r="I11" s="1"/>
@@ -4051,7 +9131,7 @@
         <v>1672762</v>
       </c>
       <c r="L11" s="3">
-        <f>(O11-K11)/O11</f>
+        <f t="shared" si="2"/>
         <v>5.9777793984201927E-5</v>
       </c>
       <c r="M11" s="1"/>
@@ -4071,7 +9151,7 @@
         <v>1158970</v>
       </c>
       <c r="D12" s="3">
-        <f>(O12-C12)/O12</f>
+        <f t="shared" si="0"/>
         <v>1.7880428510153774E-3</v>
       </c>
       <c r="E12" s="1"/>
@@ -4082,7 +9162,7 @@
         <v>858146</v>
       </c>
       <c r="H12" s="3">
-        <f>(O12-G12)/O12</f>
+        <f t="shared" si="1"/>
         <v>0.26088544295402594</v>
       </c>
       <c r="I12" s="1"/>
@@ -4093,7 +9173,7 @@
         <v>1160295</v>
       </c>
       <c r="L12" s="3">
-        <f>(O12-K12)/O12</f>
+        <f t="shared" si="2"/>
         <v>6.4683053040103498E-4</v>
       </c>
       <c r="M12" s="1"/>
@@ -4113,7 +9193,7 @@
         <v>1968454</v>
       </c>
       <c r="D13" s="3">
-        <f>(O13-C13)/O13</f>
+        <f t="shared" si="0"/>
         <v>7.0048528506714289E-3</v>
       </c>
       <c r="E13" s="1"/>
@@ -4124,7 +9204,7 @@
         <v>1729604</v>
       </c>
       <c r="H13" s="3">
-        <f>(O13-G13)/O13</f>
+        <f t="shared" si="1"/>
         <v>0.12749376998900289</v>
       </c>
       <c r="I13" s="1"/>
@@ -4135,7 +9215,7 @@
         <v>1978269</v>
       </c>
       <c r="L13" s="3">
-        <f>(O13-K13)/O13</f>
+        <f t="shared" si="2"/>
         <v>2.0536335845515907E-3</v>
       </c>
       <c r="M13" s="1"/>
@@ -4155,7 +9235,7 @@
         <v>4230527</v>
       </c>
       <c r="D14" s="3">
-        <f>(O14-C14)/O14</f>
+        <f t="shared" si="0"/>
         <v>3.3302997199070928E-3</v>
       </c>
       <c r="E14" s="1"/>
@@ -4166,7 +9246,7 @@
         <v>4099795</v>
       </c>
       <c r="H14" s="3">
-        <f>(O14-G14)/O14</f>
+        <f t="shared" si="1"/>
         <v>3.4129446790004292E-2</v>
       </c>
       <c r="I14" s="1"/>
@@ -4177,7 +9257,7 @@
         <v>4244663</v>
       </c>
       <c r="L14" s="3">
-        <f>(O14-K14)/O14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -4197,7 +9277,7 @@
         <v>6314464</v>
       </c>
       <c r="D15" s="3">
-        <f>(O15-C15)/O15</f>
+        <f t="shared" si="0"/>
         <v>9.9865792015252051E-3</v>
       </c>
       <c r="E15" s="1"/>
@@ -4208,7 +9288,7 @@
         <v>5498050</v>
       </c>
       <c r="H15" s="3">
-        <f>(O15-G15)/O15</f>
+        <f t="shared" si="1"/>
         <v>0.13798807179500044</v>
       </c>
       <c r="I15" s="1"/>
@@ -4219,7 +9299,7 @@
         <v>6373050</v>
       </c>
       <c r="L15" s="3">
-        <f>(O15-K15)/O15</f>
+        <f t="shared" si="2"/>
         <v>8.0117149773602421E-4</v>
       </c>
       <c r="M15" s="1"/>
@@ -4239,7 +9319,7 @@
         <v>4565882</v>
       </c>
       <c r="D16" s="3">
-        <f>(O16-C16)/O16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -4250,7 +9330,7 @@
         <v>2760287</v>
       </c>
       <c r="H16" s="3">
-        <f>(O16-G16)/O16</f>
+        <f t="shared" si="1"/>
         <v>0.39545371518580635</v>
       </c>
       <c r="I16" s="1"/>
@@ -4261,7 +9341,7 @@
         <v>4565882</v>
       </c>
       <c r="L16" s="3">
-        <f>(O16-K16)/O16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -4281,7 +9361,7 @@
         <v>14674342</v>
       </c>
       <c r="D17" s="3">
-        <f>(O17-C17)/O17</f>
+        <f t="shared" si="0"/>
         <v>9.4619358472460384E-3</v>
       </c>
       <c r="E17" s="1"/>
@@ -4292,7 +9372,7 @@
         <v>8143356</v>
       </c>
       <c r="H17" s="3">
-        <f>(O17-G17)/O17</f>
+        <f t="shared" si="1"/>
         <v>0.45031238280076108</v>
       </c>
       <c r="I17" s="1"/>
@@ -4303,7 +9383,7 @@
         <v>14801318</v>
       </c>
       <c r="L17" s="3">
-        <f>(O17-K17)/O17</f>
+        <f t="shared" si="2"/>
         <v>8.9088296910948695E-4</v>
       </c>
       <c r="M17" s="1"/>
@@ -4323,7 +9403,7 @@
         <v>10806986</v>
       </c>
       <c r="D18" s="3">
-        <f>(O18-C18)/O18</f>
+        <f t="shared" si="0"/>
         <v>2.4411588167370997E-2</v>
       </c>
       <c r="E18" s="1"/>
@@ -4334,7 +9414,7 @@
         <v>7101562</v>
       </c>
       <c r="H18" s="3">
-        <f>(O18-G18)/O18</f>
+        <f t="shared" si="1"/>
         <v>0.35891453980684823</v>
       </c>
       <c r="I18" s="1"/>
@@ -4345,7 +9425,7 @@
         <v>11077403</v>
       </c>
       <c r="L18" s="3">
-        <f>(O18-K18)/O18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -4365,7 +9445,7 @@
         <v>31474422</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D46" si="0">(O19-C19)/O19</f>
+        <f t="shared" ref="D19:D46" si="3">(O19-C19)/O19</f>
         <v>1.7674511538955571E-3</v>
       </c>
       <c r="E19" s="1"/>
@@ -4376,7 +9456,7 @@
         <v>13934374</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ref="H19:H46" si="1">(O19-G19)/O19</f>
+        <f t="shared" ref="H19:H46" si="4">(O19-G19)/O19</f>
         <v>0.55806191851291542</v>
       </c>
       <c r="I19" s="1"/>
@@ -4387,7 +9467,7 @@
         <v>31504601</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:L46" si="2">(O19-K19)/O19</f>
+        <f t="shared" ref="L19:L46" si="5">(O19-K19)/O19</f>
         <v>8.1030378859599467E-4</v>
       </c>
       <c r="M19" s="1"/>
@@ -4407,7 +9487,7 @@
         <v>39480612</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.059977850075296E-3</v>
       </c>
       <c r="E20" s="1"/>
@@ -4418,7 +9498,7 @@
         <v>18034319</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.54552209714178679</v>
       </c>
       <c r="I20" s="1"/>
@@ -4429,7 +9509,7 @@
         <v>39681399</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
@@ -4449,7 +9529,7 @@
         <v>32620251</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3268107575586186E-3</v>
       </c>
       <c r="E21" s="1"/>
@@ -4460,7 +9540,7 @@
         <v>17587374</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.46317774314552046</v>
       </c>
       <c r="I21" s="1"/>
@@ -4471,7 +9551,7 @@
         <v>32752578</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8777236656387891E-4</v>
       </c>
       <c r="M21" s="1"/>
@@ -4491,7 +9571,7 @@
         <v>20071024</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.985173718267501E-3</v>
       </c>
       <c r="E22" s="1"/>
@@ -4502,7 +9582,7 @@
         <v>10148224</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.49943300250011619</v>
       </c>
       <c r="I22" s="1"/>
@@ -4513,7 +9593,7 @@
         <v>20269630</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8881830618141217E-4</v>
       </c>
       <c r="M22" s="1"/>
@@ -4533,7 +9613,7 @@
         <v>22794559</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6874548820565161E-3</v>
       </c>
       <c r="E23" s="1"/>
@@ -4544,7 +9624,7 @@
         <v>13342090</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.41683927093774165</v>
       </c>
       <c r="I23" s="1"/>
@@ -4555,7 +9635,7 @@
         <v>22875153</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6482418491359121E-4</v>
       </c>
       <c r="M23" s="1"/>
@@ -4575,7 +9655,7 @@
         <v>25368004</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5530821581509645E-3</v>
       </c>
       <c r="E24" s="1"/>
@@ -4586,7 +9666,7 @@
         <v>10199224</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59937780996965251</v>
       </c>
       <c r="I24" s="1"/>
@@ -4597,7 +9677,7 @@
         <v>25415801</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6756315975121827E-3</v>
       </c>
       <c r="M24" s="1"/>
@@ -4617,7 +9697,7 @@
         <v>23009762</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.3342206314960332E-3</v>
       </c>
       <c r="E25" s="1"/>
@@ -4628,7 +9708,7 @@
         <v>14411726</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37763637243030451</v>
       </c>
       <c r="I25" s="1"/>
@@ -4639,7 +9719,7 @@
         <v>23150846</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4157426616526546E-4</v>
       </c>
       <c r="M25" s="1"/>
@@ -4659,7 +9739,7 @@
         <v>60263438</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.2205204649327297E-3</v>
       </c>
       <c r="E26" s="1"/>
@@ -4670,7 +9750,7 @@
         <v>34825988</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4268547995397392</v>
       </c>
       <c r="I26" s="1"/>
@@ -4681,7 +9761,7 @@
         <v>60733548</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8373234600346287E-4</v>
       </c>
       <c r="M26" s="1"/>
@@ -4701,7 +9781,7 @@
         <v>27832153</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.960751579068435E-3</v>
       </c>
       <c r="E27" s="1"/>
@@ -4712,7 +9792,7 @@
         <v>23881648</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14962919020410517</v>
       </c>
       <c r="I27" s="1"/>
@@ -4723,7 +9803,7 @@
         <v>28078753</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7989015377367846E-4</v>
       </c>
       <c r="M27" s="1"/>
@@ -4743,7 +9823,7 @@
         <v>73482005</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3522826958099309E-3</v>
       </c>
       <c r="E28" s="1"/>
@@ -4754,7 +9834,7 @@
         <v>45563644</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38077316925877625</v>
       </c>
       <c r="I28" s="1"/>
@@ -4765,7 +9845,7 @@
         <v>73573307</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1145463341142723E-4</v>
       </c>
       <c r="M28" s="1"/>
@@ -4785,7 +9865,7 @@
         <v>53546726</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3578394399626841E-3</v>
       </c>
       <c r="E29" s="1"/>
@@ -4796,7 +9876,7 @@
         <v>33718914</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37618262941607128</v>
       </c>
       <c r="I29" s="1"/>
@@ -4807,7 +9887,7 @@
         <v>53940525</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0723540082972234E-3</v>
       </c>
       <c r="M29" s="1"/>
@@ -4827,7 +9907,7 @@
         <v>46337615</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.3790640963800804E-3</v>
       </c>
       <c r="E30" s="1"/>
@@ -4838,7 +9918,7 @@
         <v>27347055</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.41300488947677239</v>
       </c>
       <c r="I30" s="1"/>
@@ -4849,7 +9929,7 @@
         <v>46583768</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.5474787014810785E-5</v>
       </c>
       <c r="M30" s="1"/>
@@ -4869,7 +9949,7 @@
         <v>47154546</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7336748311323186E-4</v>
       </c>
       <c r="E31" s="1"/>
@@ -4880,7 +9960,7 @@
         <v>18911956</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59912658908883287</v>
       </c>
       <c r="I31" s="1"/>
@@ -4891,7 +9971,7 @@
         <v>47160669</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.4357932714411496E-4</v>
       </c>
       <c r="M31" s="1"/>
@@ -4911,7 +9991,7 @@
         <v>67532818</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7849968454489258E-3</v>
       </c>
       <c r="E32" s="1"/>
@@ -4922,7 +10002,7 @@
         <v>36980108</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.45503298411335896</v>
       </c>
       <c r="I32" s="1"/>
@@ -4933,7 +10013,7 @@
         <v>67854016</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.1578663740063813E-5</v>
       </c>
       <c r="M32" s="1"/>
@@ -4953,7 +10033,7 @@
         <v>66138554</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5331932279985019E-2</v>
       </c>
       <c r="E33" s="1"/>
@@ -4964,7 +10044,7 @@
         <v>36980108</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.45503298411335896</v>
       </c>
       <c r="I33" s="1"/>
@@ -4975,7 +10055,7 @@
         <v>67794060</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.3513591036842553E-4</v>
       </c>
       <c r="M33" s="1"/>
@@ -4995,7 +10075,7 @@
         <v>27635106</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8887496850716666E-3</v>
       </c>
       <c r="E34" s="1"/>
@@ -5006,7 +10086,7 @@
         <v>19023576</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31842285610118293</v>
       </c>
       <c r="I34" s="1"/>
@@ -5017,7 +10097,7 @@
         <v>27911067</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6122610951509205E-6</v>
       </c>
       <c r="M34" s="1"/>
@@ -5037,7 +10117,7 @@
         <v>103823588</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2883646837367568E-2</v>
       </c>
       <c r="E35" s="1"/>
@@ -5048,7 +10128,7 @@
         <v>72487795</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31779462390376551</v>
       </c>
       <c r="I35" s="1"/>
@@ -5059,7 +10139,7 @@
         <v>106137058</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1108549978950655E-3</v>
       </c>
       <c r="M35" s="1"/>
@@ -5079,7 +10159,7 @@
         <v>99389936</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5508681571410415E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -5090,7 +10170,7 @@
         <v>51076035</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4874154384330675</v>
       </c>
       <c r="I36" s="1"/>
@@ -5101,7 +10181,7 @@
         <v>99625048</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.913509894688713E-4</v>
       </c>
       <c r="M36" s="1"/>
@@ -5121,7 +10201,7 @@
         <v>273290916</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8662852322579982E-3</v>
       </c>
       <c r="E37" s="1"/>
@@ -5132,7 +10212,7 @@
         <v>142612939</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.48174743618988275</v>
       </c>
       <c r="I37" s="1"/>
@@ -5143,7 +10223,7 @@
         <v>274931733</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.035891195776117E-4</v>
       </c>
       <c r="M37" s="1"/>
@@ -5163,7 +10243,7 @@
         <v>240543768</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.967929313649807E-3</v>
       </c>
       <c r="E38" s="1"/>
@@ -5174,7 +10254,7 @@
         <v>119601127</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.50724746048198954</v>
       </c>
       <c r="I38" s="1"/>
@@ -5185,7 +10265,7 @@
         <v>242403333</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3065853185484134E-3</v>
       </c>
       <c r="M38" s="1"/>
@@ -5205,7 +10285,7 @@
         <v>206766388</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3721149575614117E-2</v>
       </c>
       <c r="E39" s="1"/>
@@ -5216,7 +10296,7 @@
         <v>109932242</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4756215151162026</v>
       </c>
       <c r="I39" s="1"/>
@@ -5227,7 +10307,7 @@
         <v>209610441</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5497302961755017E-4</v>
       </c>
       <c r="M39" s="1"/>
@@ -5247,7 +10327,7 @@
         <v>191590316</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.256883538074598E-2</v>
       </c>
       <c r="E40" s="1"/>
@@ -5258,7 +10338,7 @@
         <v>121542734</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37358481425215562</v>
       </c>
       <c r="I40" s="1"/>
@@ -5269,7 +10349,7 @@
         <v>193836004</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.9485625952837418E-4</v>
       </c>
       <c r="M40" s="1"/>
@@ -5289,7 +10369,7 @@
         <v>203291594</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8946083424890091E-4</v>
       </c>
       <c r="E41" s="1"/>
@@ -5300,7 +10380,7 @@
         <v>162989823</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19863855332227687</v>
       </c>
       <c r="I41" s="1"/>
@@ -5311,7 +10391,7 @@
         <v>203292856</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8325604104713585E-4</v>
       </c>
       <c r="M41" s="1"/>
@@ -5331,7 +10411,7 @@
         <v>216233108</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2090536720447685E-4</v>
       </c>
       <c r="E42" s="1"/>
@@ -5342,7 +10422,7 @@
         <v>176543360</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18389439256345663</v>
       </c>
       <c r="I42" s="1"/>
@@ -5353,7 +10433,7 @@
         <v>216233108</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.2090536720447685E-4</v>
       </c>
       <c r="M42" s="1"/>
@@ -5373,7 +10453,7 @@
         <v>223638473</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7537186724332651E-4</v>
       </c>
       <c r="E43" s="1"/>
@@ -5384,7 +10464,7 @@
         <v>179442115</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19800555396060873</v>
       </c>
       <c r="I43" s="1"/>
@@ -5395,7 +10475,7 @@
         <v>223638473</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.7537186724332651E-4</v>
       </c>
       <c r="M43" s="1"/>
@@ -5415,7 +10495,7 @@
         <v>241291365</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.5064113140855182E-3</v>
       </c>
       <c r="E44" s="1"/>
@@ -5426,7 +10506,7 @@
         <v>193451736</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20508487336809539</v>
       </c>
       <c r="I44" s="1"/>
@@ -5437,7 +10517,7 @@
         <v>241291365</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.5064113140855182E-3</v>
       </c>
       <c r="M44" s="1"/>
@@ -5457,7 +10537,7 @@
         <v>252087912</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.328326348433372E-3</v>
       </c>
       <c r="E45" s="1"/>
@@ -5468,7 +10548,7 @@
         <v>202594307</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19981322736740625</v>
       </c>
       <c r="I45" s="1"/>
@@ -5479,7 +10559,7 @@
         <v>252087912</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.328326348433372E-3</v>
       </c>
       <c r="M45" s="1"/>
@@ -5499,7 +10579,7 @@
         <v>272940000</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9413400109481484E-3</v>
       </c>
       <c r="E46" s="1"/>
@@ -5510,7 +10590,7 @@
         <v>173694262</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.3648528527166876</v>
       </c>
       <c r="I46" s="1"/>
@@ -5521,7 +10601,7 @@
         <v>272940000</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9413400109481484E-3</v>
       </c>
       <c r="M46" s="1"/>
@@ -5553,6 +10633,7 @@
     <oddHeader xml:space="preserve">&amp;R
 </oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5560,8 +10641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32456BF9-1A04-434C-AE1E-544544BF81F0}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" activeCellId="1" sqref="C19:C46 G19:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,25 +10659,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -5638,8 +10719,8 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -5671,7 +10752,7 @@
         <v>2604</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K46" si="2">(N3-J3)/N3</f>
+        <f t="shared" ref="K3:K18" si="2">(N3-J3)/N3</f>
         <v>0</v>
       </c>
       <c r="L3" s="1"/>
@@ -5681,7 +10762,7 @@
       <c r="N3">
         <v>2604</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5723,7 +10804,7 @@
       <c r="N4">
         <v>5390</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5765,7 +10846,7 @@
       <c r="N5">
         <v>7524</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5807,7 +10888,7 @@
       <c r="N6">
         <v>8330</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5849,7 +10930,7 @@
       <c r="N7">
         <v>33950</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5891,7 +10972,7 @@
       <c r="N8">
         <v>20090</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5933,7 +11014,7 @@
       <c r="N9">
         <v>31200</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5975,7 +11056,7 @@
       <c r="N10">
         <v>54120</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6017,7 +11098,7 @@
       <c r="N11">
         <v>120540</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6059,7 +11140,7 @@
       <c r="N12">
         <v>170720</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6101,7 +11182,7 @@
       <c r="N13">
         <v>134550</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6143,7 +11224,7 @@
       <c r="N14">
         <v>319600</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6185,7 +11266,7 @@
       <c r="N15">
         <v>564000</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6227,7 +11308,7 @@
       <c r="N16">
         <v>481600</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -6255,7 +11336,7 @@
       <c r="I17">
         <v>16</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>970000</v>
       </c>
       <c r="K17" s="4">
@@ -6269,7 +11350,7 @@
       <c r="N17">
         <v>970000</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -6297,7 +11378,7 @@
       <c r="I18">
         <v>17</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>771800</v>
       </c>
       <c r="K18" s="4">
@@ -6311,7 +11392,7 @@
       <c r="N18">
         <v>772200</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -6339,7 +11420,7 @@
       <c r="I19" s="2">
         <v>18</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="4"/>
       <c r="L19" s="1"/>
       <c r="M19">
@@ -6348,7 +11429,7 @@
       <c r="N19">
         <v>961450</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6376,7 +11457,7 @@
       <c r="I20">
         <v>19</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="4"/>
       <c r="L20" s="1"/>
       <c r="M20">
@@ -6385,8 +11466,8 @@
       <c r="N20">
         <v>1080400</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -6414,7 +11495,7 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="4"/>
       <c r="L21" s="1"/>
       <c r="M21">
@@ -6423,9 +11504,9 @@
       <c r="N21">
         <v>1022753</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -6453,7 +11534,7 @@
       <c r="I22">
         <v>21</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="4"/>
       <c r="L22" s="1"/>
       <c r="M22">
@@ -6462,8 +11543,8 @@
       <c r="N22">
         <v>2046126</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="7"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -6491,7 +11572,7 @@
       <c r="I23">
         <v>22</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="4"/>
       <c r="L23" s="1"/>
       <c r="M23">
@@ -6500,8 +11581,8 @@
       <c r="N23">
         <v>3072344</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -6529,7 +11610,7 @@
       <c r="I24">
         <v>23</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="4"/>
       <c r="L24" s="1"/>
       <c r="M24">
@@ -6538,8 +11619,8 @@
       <c r="N24">
         <v>4098271</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -6567,7 +11648,7 @@
       <c r="I25">
         <v>24</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="4"/>
       <c r="L25" s="1"/>
       <c r="M25">
@@ -6576,8 +11657,8 @@
       <c r="N25">
         <v>5123100</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="7"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -6605,7 +11686,7 @@
       <c r="I26">
         <v>25</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="4"/>
       <c r="L26" s="1"/>
       <c r="M26">
@@ -6614,8 +11695,8 @@
       <c r="N26">
         <v>6148618</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -6643,7 +11724,7 @@
       <c r="I27">
         <v>26</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="4"/>
       <c r="L27" s="1"/>
       <c r="M27">
@@ -6652,8 +11733,8 @@
       <c r="N27">
         <v>7173833</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -6681,7 +11762,7 @@
       <c r="I28">
         <v>27</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="4"/>
       <c r="L28" s="1"/>
       <c r="M28">
@@ -6690,8 +11771,8 @@
       <c r="N28">
         <v>8200514</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="7"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -6719,7 +11800,7 @@
       <c r="I29">
         <v>28</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="4"/>
       <c r="L29" s="1"/>
       <c r="M29">
@@ -6728,8 +11809,8 @@
       <c r="N29">
         <v>9227822</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -6757,7 +11838,7 @@
       <c r="I30">
         <v>29</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="4"/>
       <c r="L30" s="1"/>
       <c r="M30">
@@ -6766,8 +11847,8 @@
       <c r="N30">
         <v>10248345</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -6795,7 +11876,7 @@
       <c r="I31">
         <v>30</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="4"/>
       <c r="L31" s="1"/>
       <c r="M31">
@@ -6804,8 +11885,8 @@
       <c r="N31">
         <v>19760821</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -6833,7 +11914,7 @@
       <c r="I32">
         <v>31</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="4"/>
       <c r="L32" s="1"/>
       <c r="M32">
@@ -6842,8 +11923,8 @@
       <c r="N32">
         <v>39543875</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="7"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -6871,7 +11952,7 @@
       <c r="I33">
         <v>32</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="4"/>
       <c r="L33" s="1"/>
       <c r="M33">
@@ -6880,8 +11961,8 @@
       <c r="N33">
         <v>59325742</v>
       </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="7"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -6909,7 +11990,7 @@
       <c r="I34">
         <v>33</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="4"/>
       <c r="L34" s="1"/>
       <c r="M34">
@@ -6918,8 +11999,8 @@
       <c r="N34">
         <v>79082677</v>
       </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="7"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -6947,7 +12028,7 @@
       <c r="I35">
         <v>34</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="4"/>
       <c r="L35" s="1"/>
       <c r="M35">
@@ -6956,8 +12037,8 @@
       <c r="N35">
         <v>98845051</v>
       </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="7"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -6985,7 +12066,7 @@
       <c r="I36" s="2">
         <v>35</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="4"/>
       <c r="L36" s="1"/>
       <c r="M36">
@@ -6994,8 +12075,8 @@
       <c r="N36">
         <v>118617881</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="7"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -7023,7 +12104,7 @@
       <c r="I37">
         <v>36</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="4"/>
       <c r="L37" s="1"/>
       <c r="M37">
@@ -7032,8 +12113,8 @@
       <c r="N37">
         <v>138364819</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="7"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -7061,7 +12142,7 @@
       <c r="I38">
         <v>37</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="4"/>
       <c r="L38" s="1"/>
       <c r="M38">
@@ -7070,8 +12151,8 @@
       <c r="N38">
         <v>158100297</v>
       </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="7"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -7099,7 +12180,7 @@
       <c r="I39">
         <v>38</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="4"/>
       <c r="L39" s="1"/>
       <c r="M39">
@@ -7108,8 +12189,8 @@
       <c r="N39">
         <v>177862585</v>
       </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="7"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -7137,7 +12218,7 @@
       <c r="I40">
         <v>39</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="4"/>
       <c r="L40" s="1"/>
       <c r="M40">
@@ -7146,8 +12227,8 @@
       <c r="N40">
         <v>197643615</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -7175,7 +12256,7 @@
       <c r="I41">
         <v>40</v>
       </c>
-      <c r="J41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="4"/>
       <c r="L41" s="1"/>
       <c r="M41">
@@ -7184,8 +12265,8 @@
       <c r="N41">
         <v>203391146</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="7"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -7213,7 +12294,7 @@
       <c r="I42">
         <v>41</v>
       </c>
-      <c r="J42" s="8"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="4"/>
       <c r="L42" s="1"/>
       <c r="M42">
@@ -7222,8 +12303,8 @@
       <c r="N42">
         <v>237164680</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="7"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -7251,7 +12332,7 @@
       <c r="I43">
         <v>42</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="4"/>
       <c r="L43" s="1"/>
       <c r="M43">
@@ -7260,8 +12341,8 @@
       <c r="N43">
         <v>256852145</v>
       </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="7"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -7289,7 +12370,7 @@
       <c r="I44">
         <v>43</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="4"/>
       <c r="L44" s="1"/>
       <c r="M44">
@@ -7298,8 +12379,8 @@
       <c r="N44">
         <v>276772285</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="7"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -7327,7 +12408,7 @@
       <c r="I45">
         <v>44</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="4"/>
       <c r="L45" s="1"/>
       <c r="M45">
@@ -7336,8 +12417,8 @@
       <c r="N45">
         <v>296383891</v>
       </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="7"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -7365,7 +12446,7 @@
       <c r="I46">
         <v>45</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="4"/>
       <c r="L46" s="1"/>
       <c r="M46">
@@ -7374,8 +12455,8 @@
       <c r="N46">
         <v>316232704</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="7"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
@@ -7395,6 +12476,7 @@
     <oddHeader xml:space="preserve">&amp;R
 </oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7402,8 +12484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C75FBA-F597-4FCA-8E75-147FEE67A9C3}">
   <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7455,31 +12537,31 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.02</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.01</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.09</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.02</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.01</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>0.13</v>
       </c>
     </row>
@@ -7487,31 +12569,31 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1.08</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.01</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.01</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.96</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1.55</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.01</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.01</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>1.58</v>
       </c>
     </row>
@@ -7519,31 +12601,31 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2.34</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.09</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>2.14</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>3.51</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.15</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.09</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>2.88</v>
       </c>
     </row>
@@ -7551,31 +12633,31 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4.01</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.09</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>3.67</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>6.32</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.16</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>5.09</v>
       </c>
     </row>
@@ -7583,31 +12665,31 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10.42</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.36</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.37</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>11.05</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>12.26</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.45</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.61</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>15.3</v>
       </c>
     </row>
@@ -7615,31 +12697,31 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>18.23</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.59</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.75</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>15.72</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>22.96</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.62</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.79</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>16.739999999999998</v>
       </c>
     </row>
@@ -7647,31 +12729,31 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>23.13</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>21.58</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>23.9</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>1.55</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>3.01</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>27.34</v>
       </c>
     </row>
@@ -7679,31 +12761,31 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>44.67</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1.91</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2.59</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>38.44</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>63.76</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>2.78</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>2.69</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>56.73</v>
       </c>
     </row>
@@ -7711,31 +12793,31 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>94.8</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>4.8</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>6.06</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>105.75</v>
       </c>
       <c r="I12">
         <v>9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>95.75</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>7.73</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>6.86</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>106.88</v>
       </c>
     </row>
@@ -7743,31 +12825,31 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>128.69999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>5.27</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>7.25</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>145.21</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>123.14</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>6.01</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>6.9</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>183.1</v>
       </c>
     </row>
@@ -7775,31 +12857,31 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>223.15</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>14.34</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>11.68</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>205.07</v>
       </c>
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>216.93</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>23.09</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>219.84</v>
       </c>
     </row>
@@ -7807,31 +12889,31 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>244.34</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>17.21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>17.29</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>246.77</v>
       </c>
       <c r="I15">
         <v>12</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>326.14999999999998</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>23.32</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>14.66</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>238.67</v>
       </c>
     </row>
@@ -7839,31 +12921,31 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>465.31</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>60.12</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>58</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>450.08</v>
       </c>
       <c r="I16">
         <v>13</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>547.82000000000005</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>72.66</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>81.88</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>476.17</v>
       </c>
     </row>
@@ -7871,31 +12953,31 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1721.69</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>176.74</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>134.6</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>727.76</v>
       </c>
       <c r="I17">
         <v>14</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>2062.34</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>163.68</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>193.59</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>821.61</v>
       </c>
     </row>
@@ -7903,31 +12985,31 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2033.87</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>233.67</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>184.38</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1143.1600000000001</v>
       </c>
       <c r="I18">
         <v>15</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2337.4299999999998</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>248.13</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>190.68</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>1174.75</v>
       </c>
     </row>
@@ -7935,31 +13017,31 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>3348.65</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>370.3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>384.43</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1389</v>
       </c>
       <c r="I19">
         <v>16</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>3581.33</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>390.01</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>393.57</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>1400.85</v>
       </c>
     </row>
@@ -7967,31 +13049,31 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4728.46</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>563.04</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>584.21</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>1601.06</v>
       </c>
       <c r="I20">
         <v>17</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>4757.93</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>514.65</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>597.01</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>1667.61</v>
       </c>
     </row>
@@ -7999,897 +13081,841 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7368.02</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>931.80206718750003</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>794.05638114880014</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>1842.0050000000001</v>
       </c>
       <c r="I21">
         <v>18</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>7237.22</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>820.95</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>806.84</v>
       </c>
-      <c r="M21" s="6">
-        <v>1884.66</v>
-      </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>8126.41</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>1062.0897210937501</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>891.66883984500021</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>2024.9307307152869</v>
       </c>
       <c r="I22">
         <v>19</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>8230.33</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>1146.81</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>946.38</v>
       </c>
-      <c r="M22" s="6">
-        <v>2186.25</v>
-      </c>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>11567.48</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>1341.1562531250001</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1014.0218313225001</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>2885.6571383419987</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>11546.01</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>1405.79</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>1130.47</v>
       </c>
-      <c r="M23" s="6">
-        <v>2625.8</v>
-      </c>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>14750.15</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>1617.73972265625</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1291.6182600300003</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>3669.1710191069569</v>
       </c>
       <c r="I24">
         <v>21</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>15387.76</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>1716.53</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>1214.83</v>
       </c>
-      <c r="M24" s="6">
-        <v>3657.93</v>
-      </c>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>16961.64</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>2007.9907593750002</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1564.7980513375001</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>4231.3501556824995</v>
       </c>
       <c r="I25">
         <v>22</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>17285.5</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>2198.0100000000002</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>1589.85</v>
       </c>
-      <c r="M25" s="6">
-        <v>4649.38</v>
-      </c>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>20276.98</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>2408.8491046875001</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1930.7685912900004</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>5047.2647816942781</v>
       </c>
       <c r="I26">
         <v>23</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>21152.79</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>2662.03</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>1943.48</v>
       </c>
-      <c r="M26" s="6">
-        <v>5525.57</v>
-      </c>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>20687.150000000001</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>2781.7905820312503</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>2315.6064114050005</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>5146.4722056781966</v>
       </c>
       <c r="I27">
         <v>24</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>22969.43</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>2893.65</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>2495.7199999999998</v>
       </c>
-      <c r="M27" s="6">
-        <v>5134.03</v>
-      </c>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>23317.34</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>3053.0650640625004</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2650.788339587501</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>5819.3675905747941</v>
       </c>
       <c r="I28">
         <v>25</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>25207.07</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>3058.61</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>2908.53</v>
       </c>
-      <c r="M28" s="6">
-        <v>5997.2</v>
-      </c>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>27289.34</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>3337.2335015625004</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>2914.5250046150009</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>6793.2155924263607</v>
       </c>
       <c r="I29">
         <v>26</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>29762.09</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>3471.28</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>3239.02</v>
       </c>
-      <c r="M29" s="6">
-        <v>6822.08</v>
-      </c>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>29017.82</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>3722.8431140624998</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>3201.1962216150005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>7253.825624767549</v>
       </c>
       <c r="I30">
         <v>27</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>31975.25</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>3748.22</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>3381.93</v>
       </c>
-      <c r="M30" s="6">
-        <v>7752.24</v>
-      </c>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>38582.65</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>4306.7551523437505</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>3558.9110338950004</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>9607.4606073456634</v>
       </c>
       <c r="I31">
         <v>28</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>39471.96</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>4326.1400000000003</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>3821.65</v>
       </c>
-      <c r="M31" s="6">
-        <v>10796.57</v>
-      </c>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43735.08</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>4848.2667843750005</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>4159.957099462501</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>10921.383821712852</v>
       </c>
       <c r="I32">
         <v>29</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>43700.99</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>4900.3599999999997</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>4109.79</v>
       </c>
-      <c r="M32" s="6">
-        <v>11259.89</v>
-      </c>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>48914.34</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>5267.0362359374994</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>4685.5853211300009</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>12174.277337814503</v>
       </c>
       <c r="I33">
         <v>30</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>48200.15</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>5119.2</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>5086.95</v>
       </c>
-      <c r="M33" s="6">
-        <v>11959.63</v>
-      </c>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>49561.84</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>6257.2583062499998</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>5102.281727865</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>12356.523658779492</v>
       </c>
       <c r="I34">
         <v>31</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>49885.06</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>6648.42</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>5333.99</v>
       </c>
-      <c r="M34" s="6">
-        <v>12498.74</v>
-      </c>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>51034.43</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>7009.4089757812508</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>5988.4721597400003</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>12727.011307630502</v>
       </c>
       <c r="I35">
         <v>32</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>54684.07</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>7592.48</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>6070.86</v>
       </c>
-      <c r="M35" s="6">
-        <v>12810.34</v>
-      </c>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>57914.87</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>7813.5257039062499</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>6669.9844361675023</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>14468.146111697635</v>
       </c>
       <c r="I36">
         <v>33</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>56765.29</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>7971.29</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>6849.45</v>
       </c>
-      <c r="M36" s="6">
-        <v>15100.02</v>
-      </c>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>68891.39</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>8411.0032007812497</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>7443.9290367575004</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>17178.907840725165</v>
       </c>
       <c r="I37">
         <v>34</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>73035.67</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>8257.25</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>7988.46</v>
       </c>
-      <c r="M37" s="6">
-        <v>18088.34</v>
-      </c>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>76391.45</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>9221.0740898437489</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>8069.1040607275008</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>19035.976528605661</v>
       </c>
       <c r="I38">
         <v>35</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>82363.95</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>9738.91</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>8639.3700000000008</v>
       </c>
-      <c r="M38" s="6">
-        <v>19271.93</v>
-      </c>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>84451.18</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>11020.523057812499</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>8853.6393612624997</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>21093.500583406789</v>
       </c>
       <c r="I39">
         <v>36</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>92771.58</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>11858.81</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>9209.2800000000007</v>
       </c>
-      <c r="M39" s="6">
-        <v>22140.080000000002</v>
-      </c>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>91784.36</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>11828.990334375001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>10522.863881354999</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>22945.505137387197</v>
       </c>
       <c r="I40">
         <v>37</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>94578.85</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>12023.54</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>10806.42</v>
       </c>
-      <c r="M40" s="6">
-        <v>22886.73</v>
-      </c>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>99314.42</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>12270.3495046875</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>11304.546827210002</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>24791.358062967796</v>
       </c>
       <c r="I41">
         <v>38</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>103558.11</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>12260.41</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>12865.16</v>
       </c>
-      <c r="M41" s="6">
-        <v>24278.38</v>
-      </c>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>104934.71</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>13185.356978906249</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>11761.423695244999</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>26109.414229394075</v>
       </c>
       <c r="I42">
         <v>39</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>116711.76</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>13711.77</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>12139.41</v>
       </c>
-      <c r="M42" s="6">
-        <v>26615.88</v>
-      </c>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>110981.58</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>13489.463620312501</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>12623.219896997502</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>27672.613090797113</v>
       </c>
       <c r="I43">
         <v>40</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>134483.75</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>14013.52</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>13295.47</v>
       </c>
-      <c r="M43" s="6">
-        <v>28765.55</v>
-      </c>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>118392.34</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>13929.676392187501</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>12945.355310755001</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>29455.238718951652</v>
       </c>
       <c r="I44">
         <v>41</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>157718.39999999999</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>14241.62</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>14882.96</v>
       </c>
-      <c r="M44" s="6">
-        <v>29385.18</v>
-      </c>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>120934</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>14446.100156250001</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>13400.193073365004</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>30130.370757749344</v>
       </c>
       <c r="I45">
         <v>42</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>170387.49</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>14894.78</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>15845.25</v>
       </c>
-      <c r="M45" s="6">
-        <v>31398.720000000001</v>
-      </c>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>121304.76</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>15187.662928125001</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>13881.197361500002</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>30234.654924867787</v>
       </c>
       <c r="I46">
         <v>43</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>171404.03</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>15338.4</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>15975.66</v>
       </c>
-      <c r="M46" s="6">
-        <v>32532.880000000001</v>
-      </c>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>130217.09</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>16257.30484921875</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>14543.876884110001</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>32471.31236248972</v>
       </c>
       <c r="I47">
         <v>44</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>189661.66</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>16377.33</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="5">
         <v>15849.97</v>
       </c>
-      <c r="M47" s="6">
-        <v>32154.91</v>
-      </c>
+      <c r="M47" s="5"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>133405.38</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>17148.942323437499</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>15571.331856552504</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>33238.827580969257</v>
       </c>
       <c r="I48">
         <v>45</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>194458.68</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>17626.03</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="5">
         <v>16546.47</v>
       </c>
-      <c r="M48" s="6">
-        <v>34514.720000000001</v>
-      </c>
+      <c r="M48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/All_perf.xlsx
+++ b/All_perf.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttdkoc/Documents/dev/workspaces/python/copt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16578EC-9A16-4437-BE87-BC809C9A9959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7FD77-504A-434D-839C-9C10A49B415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="loose channel" sheetId="1" r:id="rId1"/>
     <sheet name="strict channel" sheetId="3" r:id="rId2"/>
-    <sheet name="Durations" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Durations" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Improved Greedy</t>
   </si>
@@ -61,6 +53,15 @@
   <si>
     <t>Basic Greedy</t>
   </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Gap %</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +85,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,12 +106,93 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -112,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -122,9 +211,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +311,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -801,7 +904,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1882279359"/>
@@ -860,7 +963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1882278943"/>
@@ -902,7 +1005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -939,7 +1042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1015,7 +1118,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1356,7 +1459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1895933711"/>
@@ -1415,7 +1518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1895935375"/>
@@ -1457,7 +1560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1494,7 +1597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1575,7 +1678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2076,7 +2179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2001070095"/>
@@ -2135,7 +2238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2001058863"/>
@@ -2177,7 +2280,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2214,7 +2317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2290,7 +2393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3060,7 +3163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="890864031"/>
@@ -3119,7 +3222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="890857791"/>
@@ -3161,7 +3264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3198,7 +3301,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3274,7 +3377,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3949,7 +4052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="247642127"/>
@@ -4008,7 +4111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="247630063"/>
@@ -4050,7 +4153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4087,7 +4190,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4163,7 +4266,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4664,7 +4767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886368623"/>
@@ -4723,7 +4826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886370703"/>
@@ -4765,7 +4868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4802,7 +4905,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8194,16 +8297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8230,16 +8333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8679,51 +8782,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B31E84-D452-44EC-9AC7-099D3C0C767A}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8765,7 +8868,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -8807,7 +8910,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -8849,7 +8952,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -8891,7 +8994,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -8933,7 +9036,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
       </c>
@@ -8975,7 +9078,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -9017,7 +9120,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>8</v>
       </c>
@@ -9059,7 +9162,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -9101,7 +9204,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10</v>
       </c>
@@ -9143,7 +9246,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>11</v>
       </c>
@@ -9185,7 +9288,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>12</v>
       </c>
@@ -9227,7 +9330,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>13</v>
       </c>
@@ -9269,7 +9372,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>14</v>
       </c>
@@ -9311,7 +9414,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>15</v>
       </c>
@@ -9353,7 +9456,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>16</v>
       </c>
@@ -9395,7 +9498,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>17</v>
       </c>
@@ -9437,7 +9540,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>18</v>
       </c>
@@ -9479,7 +9582,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>19</v>
       </c>
@@ -9521,7 +9624,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>20</v>
       </c>
@@ -9563,7 +9666,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>21</v>
       </c>
@@ -9605,7 +9708,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>22</v>
       </c>
@@ -9647,7 +9750,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>23</v>
       </c>
@@ -9689,7 +9792,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>24</v>
       </c>
@@ -9731,7 +9834,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>25</v>
       </c>
@@ -9773,7 +9876,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>26</v>
       </c>
@@ -9815,7 +9918,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>27</v>
       </c>
@@ -9857,7 +9960,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>28</v>
       </c>
@@ -9899,7 +10002,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>29</v>
       </c>
@@ -9941,7 +10044,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>30</v>
       </c>
@@ -9983,7 +10086,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>31</v>
       </c>
@@ -10025,7 +10128,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>32</v>
       </c>
@@ -10067,7 +10170,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>33</v>
       </c>
@@ -10109,7 +10212,7 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>34</v>
       </c>
@@ -10151,7 +10254,7 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>35</v>
       </c>
@@ -10193,7 +10296,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>36</v>
       </c>
@@ -10235,7 +10338,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>37</v>
       </c>
@@ -10277,7 +10380,7 @@
       </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>38</v>
       </c>
@@ -10319,7 +10422,7 @@
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>39</v>
       </c>
@@ -10361,7 +10464,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>40</v>
       </c>
@@ -10403,7 +10506,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>41</v>
       </c>
@@ -10445,7 +10548,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>42</v>
       </c>
@@ -10487,7 +10590,7 @@
       </c>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>43</v>
       </c>
@@ -10529,7 +10632,7 @@
       </c>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>44</v>
       </c>
@@ -10571,7 +10674,7 @@
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>45</v>
       </c>
@@ -10613,7 +10716,7 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="I47" s="1"/>
       <c r="M47" s="1"/>
@@ -10641,45 +10744,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32456BF9-1A04-434C-AE1E-544544BF81F0}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" activeCellId="1" sqref="C19:C46 G19:G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10719,10 +10827,20 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>90</v>
+      </c>
+      <c r="R2">
+        <f>(Q2-N2)/Q2</f>
+        <v>0</v>
+      </c>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10762,9 +10880,20 @@
       <c r="N3">
         <v>2604</v>
       </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="9"/>
+      <c r="P3" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2604</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R19" si="3">(Q3-N3)/Q3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10804,9 +10933,20 @@
       <c r="N4">
         <v>5390</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4" s="9"/>
+      <c r="P4" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>8300</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.35060240963855421</v>
+      </c>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10846,9 +10986,20 @@
       <c r="N5">
         <v>7524</v>
       </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="9"/>
+      <c r="P5" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>15048</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10888,9 +11039,20 @@
       <c r="N6">
         <v>8330</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" s="9"/>
+      <c r="P6" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>41650</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10930,9 +11092,20 @@
       <c r="N7">
         <v>33950</v>
       </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+      <c r="P7" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>195700</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.82652018395503324</v>
+      </c>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10972,9 +11145,20 @@
       <c r="N8">
         <v>20090</v>
       </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O8" s="9"/>
+      <c r="P8" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>74664</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0.73092789028179583</v>
+      </c>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11014,9 +11198,20 @@
       <c r="N9">
         <v>31200</v>
       </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="9"/>
+      <c r="P9" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>270520</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0.88466656809108379</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11056,9 +11251,20 @@
       <c r="N10">
         <v>54120</v>
       </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="9"/>
+      <c r="P10" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>705516</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0.92329018760736825</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11098,9 +11304,20 @@
       <c r="N11">
         <v>120540</v>
       </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" s="9"/>
+      <c r="P11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1672862</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0.92794384713144296</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11140,9 +11357,20 @@
       <c r="N12">
         <v>170720</v>
       </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="9"/>
+      <c r="P12" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1161046</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0.85296017556582604</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11182,9 +11410,20 @@
       <c r="N13">
         <v>134550</v>
       </c>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="9"/>
+      <c r="P13" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1982340</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0.93212566966312538</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11224,9 +11463,20 @@
       <c r="N14">
         <v>319600</v>
       </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="9"/>
+      <c r="P14" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>4244663</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0.92470544775875019</v>
+      </c>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11266,9 +11516,20 @@
       <c r="N15">
         <v>564000</v>
       </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="9"/>
+      <c r="P15" s="10">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>6378160</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0.91157324369410608</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11308,9 +11569,20 @@
       <c r="N16">
         <v>481600</v>
       </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O16" s="9"/>
+      <c r="P16" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4565882</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0.89452202225112254</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11350,9 +11622,20 @@
       <c r="N17">
         <v>970000</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="9"/>
+      <c r="P17" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>14814516</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0.93452367934261238</v>
+      </c>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11392,9 +11675,20 @@
       <c r="N18">
         <v>772200</v>
       </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="9"/>
+      <c r="P18" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>11077403</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0.93029052026002845</v>
+      </c>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11423,15 +11717,17 @@
       <c r="J19" s="7"/>
       <c r="K19" s="4"/>
       <c r="L19" s="1"/>
-      <c r="M19">
+      <c r="M19" s="19">
         <v>18</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="19">
         <v>961450</v>
       </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11466,10 +11762,11 @@
       <c r="N20">
         <v>1080400</v>
       </c>
+      <c r="O20" s="9"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11504,11 +11801,12 @@
       <c r="N21">
         <v>1022753</v>
       </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11543,10 +11841,11 @@
       <c r="N22">
         <v>2046126</v>
       </c>
+      <c r="O22" s="9"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11581,10 +11880,11 @@
       <c r="N23">
         <v>3072344</v>
       </c>
+      <c r="O23" s="9"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11619,10 +11919,11 @@
       <c r="N24">
         <v>4098271</v>
       </c>
+      <c r="O24" s="9"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11657,10 +11958,11 @@
       <c r="N25">
         <v>5123100</v>
       </c>
+      <c r="O25" s="9"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11695,10 +11997,11 @@
       <c r="N26">
         <v>6148618</v>
       </c>
+      <c r="O26" s="9"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11733,10 +12036,11 @@
       <c r="N27">
         <v>7173833</v>
       </c>
+      <c r="O27" s="9"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11771,10 +12075,11 @@
       <c r="N28">
         <v>8200514</v>
       </c>
+      <c r="O28" s="9"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11809,10 +12114,11 @@
       <c r="N29">
         <v>9227822</v>
       </c>
+      <c r="O29" s="9"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11847,10 +12153,11 @@
       <c r="N30">
         <v>10248345</v>
       </c>
+      <c r="O30" s="9"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11885,10 +12192,11 @@
       <c r="N31">
         <v>19760821</v>
       </c>
+      <c r="O31" s="9"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11923,10 +12231,11 @@
       <c r="N32">
         <v>39543875</v>
       </c>
+      <c r="O32" s="9"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11961,10 +12270,11 @@
       <c r="N33">
         <v>59325742</v>
       </c>
+      <c r="O33" s="9"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11999,10 +12309,11 @@
       <c r="N34">
         <v>79082677</v>
       </c>
+      <c r="O34" s="9"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12037,10 +12348,11 @@
       <c r="N35">
         <v>98845051</v>
       </c>
+      <c r="O35" s="9"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12075,10 +12387,11 @@
       <c r="N36">
         <v>118617881</v>
       </c>
+      <c r="O36" s="9"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12113,10 +12426,11 @@
       <c r="N37">
         <v>138364819</v>
       </c>
+      <c r="O37" s="9"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12151,10 +12465,11 @@
       <c r="N38">
         <v>158100297</v>
       </c>
+      <c r="O38" s="9"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12189,10 +12504,11 @@
       <c r="N39">
         <v>177862585</v>
       </c>
+      <c r="O39" s="9"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12227,10 +12543,11 @@
       <c r="N40">
         <v>197643615</v>
       </c>
+      <c r="O40" s="9"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12265,10 +12582,11 @@
       <c r="N41">
         <v>203391146</v>
       </c>
+      <c r="O41" s="9"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12303,10 +12621,11 @@
       <c r="N42">
         <v>237164680</v>
       </c>
+      <c r="O42" s="9"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12341,10 +12660,11 @@
       <c r="N43">
         <v>256852145</v>
       </c>
+      <c r="O43" s="9"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12379,10 +12699,11 @@
       <c r="N44">
         <v>276772285</v>
       </c>
+      <c r="O44" s="9"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12417,10 +12738,11 @@
       <c r="N45">
         <v>296383891</v>
       </c>
+      <c r="O45" s="9"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12455,20 +12777,23 @@
       <c r="N46">
         <v>316232704</v>
       </c>
+      <c r="O46" s="9"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="L47" s="1"/>
+      <c r="O47" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12481,27 +12806,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355891BB-3B71-4141-BEE4-80CDFF830844}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.35060200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.82652000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.73092800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.88466699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.92329000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.92794399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.85296000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.93212600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.924705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.91157299999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.89452200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.93452400000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.93029099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="18">
+        <f>AVERAGE(B6:B18)</f>
+        <v>0.88261923076923088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C75FBA-F597-4FCA-8E75-147FEE67A9C3}">
   <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -12533,7 +13031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -12565,7 +13063,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -12597,7 +13095,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -12629,7 +13127,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -12661,7 +13159,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -12693,7 +13191,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -12725,7 +13223,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -12757,7 +13255,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -12789,7 +13287,7 @@
         <v>56.73</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -12821,7 +13319,7 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -12853,7 +13351,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -12885,7 +13383,7 @@
         <v>219.84</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -12917,7 +13415,7 @@
         <v>238.67</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -12949,7 +13447,7 @@
         <v>476.17</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -12981,7 +13479,7 @@
         <v>821.61</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -13013,7 +13511,7 @@
         <v>1174.75</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -13045,7 +13543,7 @@
         <v>1400.85</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -13077,7 +13575,7 @@
         <v>1667.61</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -13107,7 +13605,7 @@
       </c>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -13137,7 +13635,7 @@
       </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -13167,7 +13665,7 @@
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
@@ -13197,7 +13695,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -13227,7 +13725,7 @@
       </c>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
@@ -13257,7 +13755,7 @@
       </c>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
@@ -13287,7 +13785,7 @@
       </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
@@ -13317,7 +13815,7 @@
       </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
@@ -13347,7 +13845,7 @@
       </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
@@ -13377,7 +13875,7 @@
       </c>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
@@ -13407,7 +13905,7 @@
       </c>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
@@ -13437,7 +13935,7 @@
       </c>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -13467,7 +13965,7 @@
       </c>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
@@ -13497,7 +13995,7 @@
       </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
@@ -13527,7 +14025,7 @@
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
@@ -13557,7 +14055,7 @@
       </c>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
@@ -13587,7 +14085,7 @@
       </c>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
@@ -13617,7 +14115,7 @@
       </c>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
@@ -13647,7 +14145,7 @@
       </c>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
@@ -13677,7 +14175,7 @@
       </c>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
@@ -13707,7 +14205,7 @@
       </c>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
@@ -13737,7 +14235,7 @@
       </c>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
@@ -13767,7 +14265,7 @@
       </c>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
@@ -13797,7 +14295,7 @@
       </c>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
@@ -13827,7 +14325,7 @@
       </c>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
@@ -13857,7 +14355,7 @@
       </c>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
@@ -13887,7 +14385,7 @@
       </c>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>

--- a/All_perf.xlsx
+++ b/All_perf.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttdkoc/Documents/dev/workspaces/python/copt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C6F2D9-0252-3B4E-A94E-D88D8BC0C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751F89F-6466-CA47-B889-06EBF51C77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="4" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="loose channel" sheetId="1" r:id="rId1"/>
     <sheet name="Durations" sheetId="2" r:id="rId2"/>
     <sheet name="strict channel" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="NetworkingEXX" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Exact</t>
   </si>
@@ -56,6 +67,36 @@
   <si>
     <t>Upper Bound</t>
   </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Objective Value</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Direct Message</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>Direct Messages</t>
+  </si>
+  <si>
+    <t>Greed With Alg-A</t>
+  </si>
+  <si>
+    <t>Greed With Alg-B</t>
+  </si>
+  <si>
+    <t>Greed With Alg-C</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +127,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +152,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -191,14 +244,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,8 +275,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -16580,7 +16636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B31E84-D452-44EC-9AC7-099D3C0C767A}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -16602,27 +16658,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2">
@@ -16631,7 +16687,7 @@
       <c r="C2">
         <v>450</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f t="shared" ref="D2:D18" si="0">(O2-C2)/O2</f>
         <v>0</v>
       </c>
@@ -16642,18 +16698,18 @@
       <c r="G2">
         <v>450</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H18" si="1">(O2-G2)/O2</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
         <v>450</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <f t="shared" ref="L2:L18" si="2">(O2-K2)/O2</f>
         <v>0</v>
       </c>
@@ -16673,7 +16729,7 @@
       <c r="C3">
         <v>13083</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16684,7 +16740,7 @@
       <c r="G3">
         <v>13083</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -16695,7 +16751,7 @@
       <c r="K3">
         <v>13083</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16715,7 +16771,7 @@
       <c r="C4">
         <v>12180</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16726,7 +16782,7 @@
       <c r="G4">
         <v>11892</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>2.3645320197044337E-2</v>
       </c>
@@ -16737,7 +16793,7 @@
       <c r="K4">
         <v>12180</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16757,7 +16813,7 @@
       <c r="C5">
         <v>63096</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16768,7 +16824,7 @@
       <c r="G5">
         <v>63096</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -16779,7 +16835,7 @@
       <c r="K5">
         <v>63096</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16799,7 +16855,7 @@
       <c r="C6">
         <v>69978</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16810,7 +16866,7 @@
       <c r="G6">
         <v>64710</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>7.5280802537940492E-2</v>
       </c>
@@ -16821,7 +16877,7 @@
       <c r="K6">
         <v>69978</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16841,7 +16897,7 @@
       <c r="C7">
         <v>215581</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16852,7 +16908,7 @@
       <c r="G7">
         <v>186598</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0.1344413468719414</v>
       </c>
@@ -16863,7 +16919,7 @@
       <c r="K7">
         <v>215581</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16883,7 +16939,7 @@
       <c r="C8">
         <v>74664</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16894,7 +16950,7 @@
       <c r="G8">
         <v>53481</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0.28371102539376408</v>
       </c>
@@ -16905,7 +16961,7 @@
       <c r="K8">
         <v>74664</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16925,7 +16981,7 @@
       <c r="C9">
         <v>340171</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4.3785323136270107E-3</v>
       </c>
@@ -16936,7 +16992,7 @@
       <c r="G9">
         <v>324253</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>5.0967755153409608E-2</v>
       </c>
@@ -16947,7 +17003,7 @@
       <c r="K9">
         <v>341667</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16967,7 +17023,7 @@
       <c r="C10">
         <v>697042</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>1.2011067077146373E-2</v>
       </c>
@@ -16978,7 +17034,7 @@
       <c r="G10">
         <v>658443</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>6.6721378395387207E-2</v>
       </c>
@@ -16989,7 +17045,7 @@
       <c r="K10">
         <v>704460</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>1.496776827173303E-3</v>
       </c>
@@ -17009,7 +17065,7 @@
       <c r="C11">
         <v>1672414</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>2.6780451704922463E-4</v>
       </c>
@@ -17020,7 +17076,7 @@
       <c r="G11">
         <v>1444858</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>0.13629576139573976</v>
       </c>
@@ -17031,7 +17087,7 @@
       <c r="K11">
         <v>1672762</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>5.9777793984201927E-5</v>
       </c>
@@ -17051,7 +17107,7 @@
       <c r="C12">
         <v>1158970</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>1.7880428510153774E-3</v>
       </c>
@@ -17062,7 +17118,7 @@
       <c r="G12">
         <v>858146</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>0.26088544295402594</v>
       </c>
@@ -17073,7 +17129,7 @@
       <c r="K12">
         <v>1160295</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>6.4683053040103498E-4</v>
       </c>
@@ -17093,7 +17149,7 @@
       <c r="C13">
         <v>1968454</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>7.0048528506714289E-3</v>
       </c>
@@ -17104,7 +17160,7 @@
       <c r="G13">
         <v>1729604</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>0.12749376998900289</v>
       </c>
@@ -17115,7 +17171,7 @@
       <c r="K13">
         <v>1978269</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>2.0536335845515907E-3</v>
       </c>
@@ -17135,7 +17191,7 @@
       <c r="C14">
         <v>4230527</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>3.3302997199070928E-3</v>
       </c>
@@ -17146,7 +17202,7 @@
       <c r="G14">
         <v>4099795</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>3.4129446790004292E-2</v>
       </c>
@@ -17157,7 +17213,7 @@
       <c r="K14">
         <v>4244663</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17177,7 +17233,7 @@
       <c r="C15">
         <v>6314464</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>9.9865792015252051E-3</v>
       </c>
@@ -17188,7 +17244,7 @@
       <c r="G15">
         <v>5498050</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>0.13798807179500044</v>
       </c>
@@ -17199,7 +17255,7 @@
       <c r="K15">
         <v>6373050</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
         <v>8.0117149773602421E-4</v>
       </c>
@@ -17219,7 +17275,7 @@
       <c r="C16">
         <v>4565882</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17230,7 +17286,7 @@
       <c r="G16">
         <v>2760287</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>0.39545371518580635</v>
       </c>
@@ -17241,7 +17297,7 @@
       <c r="K16">
         <v>4565882</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17261,7 +17317,7 @@
       <c r="C17">
         <v>14674342</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>9.4619358472460384E-3</v>
       </c>
@@ -17272,7 +17328,7 @@
       <c r="G17">
         <v>8143356</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>0.45031238280076108</v>
       </c>
@@ -17283,7 +17339,7 @@
       <c r="K17">
         <v>14801318</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f t="shared" si="2"/>
         <v>8.9088296910948695E-4</v>
       </c>
@@ -17303,7 +17359,7 @@
       <c r="C18">
         <v>10806986</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>2.4411588167370997E-2</v>
       </c>
@@ -17314,7 +17370,7 @@
       <c r="G18">
         <v>7101562</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>0.35891453980684823</v>
       </c>
@@ -17325,7 +17381,7 @@
       <c r="K18">
         <v>11077403</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17345,7 +17401,7 @@
       <c r="C19">
         <v>31474422</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" ref="D19:D46" si="3">(O19-C19)/O19</f>
         <v>1.7674511538955571E-3</v>
       </c>
@@ -17356,7 +17412,7 @@
       <c r="G19">
         <v>13934374</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" ref="H19:H46" si="4">(O19-G19)/O19</f>
         <v>0.55806191851291542</v>
       </c>
@@ -17367,7 +17423,7 @@
       <c r="K19">
         <v>31504601</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <f t="shared" ref="L19:L46" si="5">(O19-K19)/O19</f>
         <v>8.1030378859599467E-4</v>
       </c>
@@ -17387,7 +17443,7 @@
       <c r="C20">
         <v>39480612</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="3"/>
         <v>5.059977850075296E-3</v>
       </c>
@@ -17398,7 +17454,7 @@
       <c r="G20">
         <v>18034319</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="4"/>
         <v>0.54552209714178679</v>
       </c>
@@ -17409,7 +17465,7 @@
       <c r="K20">
         <v>39681399</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17429,7 +17485,7 @@
       <c r="C21">
         <v>32620251</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="3"/>
         <v>4.3268107575586186E-3</v>
       </c>
@@ -17440,7 +17496,7 @@
       <c r="G21">
         <v>17587374</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="4"/>
         <v>0.46317774314552046</v>
       </c>
@@ -17451,7 +17507,7 @@
       <c r="K21">
         <v>32752578</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="5"/>
         <v>2.8777236656387891E-4</v>
       </c>
@@ -17471,7 +17527,7 @@
       <c r="C22">
         <v>20071024</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="3"/>
         <v>9.985173718267501E-3</v>
       </c>
@@ -17482,7 +17538,7 @@
       <c r="G22">
         <v>10148224</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="4"/>
         <v>0.49943300250011619</v>
       </c>
@@ -17493,7 +17549,7 @@
       <c r="K22">
         <v>20269630</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="5"/>
         <v>1.8881830618141217E-4</v>
       </c>
@@ -17513,7 +17569,7 @@
       <c r="C23">
         <v>22794559</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="3"/>
         <v>3.6874548820565161E-3</v>
       </c>
@@ -17524,7 +17580,7 @@
       <c r="G23">
         <v>13342090</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="4"/>
         <v>0.41683927093774165</v>
       </c>
@@ -17535,7 +17591,7 @@
       <c r="K23">
         <v>22875153</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="5"/>
         <v>1.6482418491359121E-4</v>
       </c>
@@ -17555,7 +17611,7 @@
       <c r="C24">
         <v>25368004</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="3"/>
         <v>3.5530821581509645E-3</v>
       </c>
@@ -17566,7 +17622,7 @@
       <c r="G24">
         <v>10199224</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="4"/>
         <v>0.59937780996965251</v>
       </c>
@@ -17577,7 +17633,7 @@
       <c r="K24">
         <v>25415801</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="5"/>
         <v>1.6756315975121827E-3</v>
       </c>
@@ -17597,7 +17653,7 @@
       <c r="C25">
         <v>23009762</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="3"/>
         <v>6.3342206314960332E-3</v>
       </c>
@@ -17608,7 +17664,7 @@
       <c r="G25">
         <v>14411726</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="4"/>
         <v>0.37763637243030451</v>
       </c>
@@ -17619,7 +17675,7 @@
       <c r="K25">
         <v>23150846</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="5"/>
         <v>2.4157426616526546E-4</v>
       </c>
@@ -17639,7 +17695,7 @@
       <c r="C26">
         <v>60263438</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="3"/>
         <v>8.2205204649327297E-3</v>
       </c>
@@ -17650,7 +17706,7 @@
       <c r="G26">
         <v>34825988</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="4"/>
         <v>0.4268547995397392</v>
       </c>
@@ -17661,7 +17717,7 @@
       <c r="K26">
         <v>60733548</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f t="shared" si="5"/>
         <v>4.8373234600346287E-4</v>
       </c>
@@ -17681,7 +17737,7 @@
       <c r="C27">
         <v>27832153</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="3"/>
         <v>8.960751579068435E-3</v>
       </c>
@@ -17692,7 +17748,7 @@
       <c r="G27">
         <v>23881648</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="4"/>
         <v>0.14962919020410517</v>
       </c>
@@ -17703,7 +17759,7 @@
       <c r="K27">
         <v>28078753</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <f t="shared" si="5"/>
         <v>1.7989015377367846E-4</v>
       </c>
@@ -17723,7 +17779,7 @@
       <c r="C28">
         <v>73482005</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="3"/>
         <v>1.3522826958099309E-3</v>
       </c>
@@ -17734,7 +17790,7 @@
       <c r="G28">
         <v>45563644</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="4"/>
         <v>0.38077316925877625</v>
       </c>
@@ -17745,7 +17801,7 @@
       <c r="K28">
         <v>73573307</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <f t="shared" si="5"/>
         <v>1.1145463341142723E-4</v>
       </c>
@@ -17765,7 +17821,7 @@
       <c r="C29">
         <v>53546726</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="3"/>
         <v>9.3578394399626841E-3</v>
       </c>
@@ -17776,7 +17832,7 @@
       <c r="G29">
         <v>33718914</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="4"/>
         <v>0.37618262941607128</v>
       </c>
@@ -17787,7 +17843,7 @@
       <c r="K29">
         <v>53940525</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <f t="shared" si="5"/>
         <v>2.0723540082972234E-3</v>
       </c>
@@ -17807,7 +17863,7 @@
       <c r="C30">
         <v>46337615</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="3"/>
         <v>5.3790640963800804E-3</v>
       </c>
@@ -17818,7 +17874,7 @@
       <c r="G30">
         <v>27347055</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="4"/>
         <v>0.41300488947677239</v>
       </c>
@@ -17829,7 +17885,7 @@
       <c r="K30">
         <v>46583768</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <f t="shared" si="5"/>
         <v>9.5474787014810785E-5</v>
       </c>
@@ -17849,7 +17905,7 @@
       <c r="C31">
         <v>47154546</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="3"/>
         <v>4.7336748311323186E-4</v>
       </c>
@@ -17860,7 +17916,7 @@
       <c r="G31">
         <v>18911956</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="4"/>
         <v>0.59912658908883287</v>
       </c>
@@ -17871,7 +17927,7 @@
       <c r="K31">
         <v>47160669</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <f t="shared" si="5"/>
         <v>3.4357932714411496E-4</v>
       </c>
@@ -17891,7 +17947,7 @@
       <c r="C32">
         <v>67532818</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f t="shared" si="3"/>
         <v>4.7849968454489258E-3</v>
       </c>
@@ -17902,7 +17958,7 @@
       <c r="G32">
         <v>36980108</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <f t="shared" si="4"/>
         <v>0.45503298411335896</v>
       </c>
@@ -17913,7 +17969,7 @@
       <c r="K32">
         <v>67854016</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <f t="shared" si="5"/>
         <v>5.1578663740063813E-5</v>
       </c>
@@ -17933,7 +17989,7 @@
       <c r="C33">
         <v>66138554</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f t="shared" si="3"/>
         <v>2.5331932279985019E-2</v>
       </c>
@@ -17944,7 +18000,7 @@
       <c r="G33">
         <v>36980108</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="4"/>
         <v>0.45503298411335896</v>
       </c>
@@ -17955,7 +18011,7 @@
       <c r="K33">
         <v>67794060</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <f t="shared" si="5"/>
         <v>9.3513591036842553E-4</v>
       </c>
@@ -17975,7 +18031,7 @@
       <c r="C34">
         <v>27635106</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f t="shared" si="3"/>
         <v>9.8887496850716666E-3</v>
       </c>
@@ -17986,7 +18042,7 @@
       <c r="G34">
         <v>19023576</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" si="4"/>
         <v>0.31842285610118293</v>
       </c>
@@ -17997,7 +18053,7 @@
       <c r="K34">
         <v>27911067</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <f t="shared" si="5"/>
         <v>1.6122610951509205E-6</v>
       </c>
@@ -18017,7 +18073,7 @@
       <c r="C35">
         <v>103823588</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" si="3"/>
         <v>2.2883646837367568E-2</v>
       </c>
@@ -18028,7 +18084,7 @@
       <c r="G35">
         <v>72487795</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="4"/>
         <v>0.31779462390376551</v>
       </c>
@@ -18039,7 +18095,7 @@
       <c r="K35">
         <v>106137058</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <f t="shared" si="5"/>
         <v>1.1108549978950655E-3</v>
       </c>
@@ -18059,7 +18115,7 @@
       <c r="C36">
         <v>99389936</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f t="shared" si="3"/>
         <v>2.5508681571410415E-3</v>
       </c>
@@ -18070,7 +18126,7 @@
       <c r="G36">
         <v>51076035</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="4"/>
         <v>0.4874154384330675</v>
       </c>
@@ -18081,7 +18137,7 @@
       <c r="K36">
         <v>99625048</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <f t="shared" si="5"/>
         <v>1.913509894688713E-4</v>
       </c>
@@ -18101,7 +18157,7 @@
       <c r="C37">
         <v>273290916</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f t="shared" si="3"/>
         <v>6.8662852322579982E-3</v>
       </c>
@@ -18112,7 +18168,7 @@
       <c r="G37">
         <v>142612939</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f t="shared" si="4"/>
         <v>0.48174743618988275</v>
       </c>
@@ -18123,7 +18179,7 @@
       <c r="K37">
         <v>274931733</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <f t="shared" si="5"/>
         <v>9.035891195776117E-4</v>
       </c>
@@ -18143,7 +18199,7 @@
       <c r="C38">
         <v>240543768</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f t="shared" si="3"/>
         <v>8.967929313649807E-3</v>
       </c>
@@ -18154,7 +18210,7 @@
       <c r="G38">
         <v>119601127</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f t="shared" si="4"/>
         <v>0.50724746048198954</v>
       </c>
@@ -18165,7 +18221,7 @@
       <c r="K38">
         <v>242403333</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <f t="shared" si="5"/>
         <v>1.3065853185484134E-3</v>
       </c>
@@ -18185,7 +18241,7 @@
       <c r="C39">
         <v>206766388</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <f t="shared" si="3"/>
         <v>1.3721149575614117E-2</v>
       </c>
@@ -18196,7 +18252,7 @@
       <c r="G39">
         <v>109932242</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <f t="shared" si="4"/>
         <v>0.4756215151162026</v>
       </c>
@@ -18207,7 +18263,7 @@
       <c r="K39">
         <v>209610441</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <f t="shared" si="5"/>
         <v>1.5497302961755017E-4</v>
       </c>
@@ -18227,7 +18283,7 @@
       <c r="C40">
         <v>191590316</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <f t="shared" si="3"/>
         <v>1.256883538074598E-2</v>
       </c>
@@ -18238,7 +18294,7 @@
       <c r="G40">
         <v>121542734</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <f t="shared" si="4"/>
         <v>0.37358481425215562</v>
       </c>
@@ -18249,7 +18305,7 @@
       <c r="K40">
         <v>193836004</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <f t="shared" si="5"/>
         <v>9.9485625952837418E-4</v>
       </c>
@@ -18269,7 +18325,7 @@
       <c r="C41">
         <v>203291594</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <f t="shared" si="3"/>
         <v>4.8946083424890091E-4</v>
       </c>
@@ -18280,7 +18336,7 @@
       <c r="G41">
         <v>162989823</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <f t="shared" si="4"/>
         <v>0.19863855332227687</v>
       </c>
@@ -18291,7 +18347,7 @@
       <c r="K41">
         <v>203292856</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <f t="shared" si="5"/>
         <v>4.8325604104713585E-4</v>
       </c>
@@ -18311,7 +18367,7 @@
       <c r="C42">
         <v>216233108</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <f t="shared" si="3"/>
         <v>4.2090536720447685E-4</v>
       </c>
@@ -18322,7 +18378,7 @@
       <c r="G42">
         <v>176543360</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <f t="shared" si="4"/>
         <v>0.18389439256345663</v>
       </c>
@@ -18333,7 +18389,7 @@
       <c r="K42">
         <v>216233108</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <f t="shared" si="5"/>
         <v>4.2090536720447685E-4</v>
       </c>
@@ -18353,7 +18409,7 @@
       <c r="C43">
         <v>223638473</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <f t="shared" si="3"/>
         <v>4.7537186724332651E-4</v>
       </c>
@@ -18364,7 +18420,7 @@
       <c r="G43">
         <v>179442115</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <f t="shared" si="4"/>
         <v>0.19800555396060873</v>
       </c>
@@ -18375,7 +18431,7 @@
       <c r="K43">
         <v>223638473</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <f t="shared" si="5"/>
         <v>4.7537186724332651E-4</v>
       </c>
@@ -18395,7 +18451,7 @@
       <c r="C44">
         <v>241291365</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <f t="shared" si="3"/>
         <v>8.5064113140855182E-3</v>
       </c>
@@ -18406,7 +18462,7 @@
       <c r="G44">
         <v>193451736</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <f t="shared" si="4"/>
         <v>0.20508487336809539</v>
       </c>
@@ -18417,7 +18473,7 @@
       <c r="K44">
         <v>241291365</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <f t="shared" si="5"/>
         <v>8.5064113140855182E-3</v>
       </c>
@@ -18437,7 +18493,7 @@
       <c r="C45">
         <v>252087912</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <f t="shared" si="3"/>
         <v>4.328326348433372E-3</v>
       </c>
@@ -18448,7 +18504,7 @@
       <c r="G45">
         <v>202594307</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <f t="shared" si="4"/>
         <v>0.19981322736740625</v>
       </c>
@@ -18459,7 +18515,7 @@
       <c r="K45">
         <v>252087912</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <f t="shared" si="5"/>
         <v>4.328326348433372E-3</v>
       </c>
@@ -18479,7 +18535,7 @@
       <c r="C46">
         <v>272940000</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f t="shared" si="3"/>
         <v>1.9413400109481484E-3</v>
       </c>
@@ -18490,7 +18546,7 @@
       <c r="G46">
         <v>173694262</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <f t="shared" si="4"/>
         <v>0.3648528527166876</v>
       </c>
@@ -18501,7 +18557,7 @@
       <c r="K46">
         <v>272940000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <f t="shared" si="5"/>
         <v>1.9413400109481484E-3</v>
       </c>
@@ -18542,8 +18598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C75FBA-F597-4FCA-8E75-147FEE67A9C3}">
   <dimension ref="B3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD56" sqref="AD56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18569,10 +18625,10 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -18595,31 +18651,31 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.02</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.01</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.09</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.02</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.01</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.13</v>
       </c>
     </row>
@@ -18627,31 +18683,31 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.08</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.01</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.01</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.96</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>1.55</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.01</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.01</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>1.58</v>
       </c>
     </row>
@@ -18659,31 +18715,31 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.34</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.09</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2.14</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3.51</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0.15</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0.09</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>2.88</v>
       </c>
     </row>
@@ -18691,31 +18747,31 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4.01</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.09</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>3.67</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>6.32</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.16</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>5.09</v>
       </c>
     </row>
@@ -18723,31 +18779,31 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>10.42</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.36</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.37</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>11.05</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>12.26</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.45</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.61</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>15.3</v>
       </c>
     </row>
@@ -18755,31 +18811,31 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>18.23</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.59</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.75</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>15.72</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>22.96</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0.62</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0.79</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>16.739999999999998</v>
       </c>
     </row>
@@ -18787,31 +18843,31 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>23.13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>21.58</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>23.9</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1.55</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>3.01</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>27.34</v>
       </c>
     </row>
@@ -18819,31 +18875,31 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>44.67</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.91</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2.59</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>38.44</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>63.76</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>2.78</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>2.69</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>56.73</v>
       </c>
     </row>
@@ -18851,31 +18907,31 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>94.8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4.8</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>6.06</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>105.75</v>
       </c>
       <c r="I12">
         <v>9</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>95.75</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>7.73</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>6.86</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>106.88</v>
       </c>
     </row>
@@ -18883,31 +18939,31 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>128.69999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5.27</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7.25</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>145.21</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>123.14</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>6.01</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>6.9</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>183.1</v>
       </c>
     </row>
@@ -18915,31 +18971,31 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>223.15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>14.34</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>11.68</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>205.07</v>
       </c>
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>216.93</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>23.09</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>219.84</v>
       </c>
     </row>
@@ -18947,31 +19003,31 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>244.34</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>17.21</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>17.29</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>246.77</v>
       </c>
       <c r="I15">
         <v>12</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>326.14999999999998</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>23.32</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>14.66</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>238.67</v>
       </c>
     </row>
@@ -18979,31 +19035,31 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>465.31</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>60.12</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>58</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>450.08</v>
       </c>
       <c r="I16">
         <v>13</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>547.82000000000005</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>72.66</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>81.88</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>476.17</v>
       </c>
     </row>
@@ -19011,31 +19067,31 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>1721.69</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>176.74</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>134.6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>727.76</v>
       </c>
       <c r="I17">
         <v>14</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>2062.34</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>163.68</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>193.59</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>821.61</v>
       </c>
     </row>
@@ -19043,31 +19099,31 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2033.87</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>233.67</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>184.38</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1143.1600000000001</v>
       </c>
       <c r="I18">
         <v>15</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>2337.4299999999998</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>248.13</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>190.68</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>1174.75</v>
       </c>
     </row>
@@ -19075,31 +19131,31 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>3348.65</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>370.3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>384.43</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1389</v>
       </c>
       <c r="I19">
         <v>16</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>3581.33</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>390.01</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>393.57</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>1400.85</v>
       </c>
     </row>
@@ -19107,31 +19163,31 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>4728.46</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>563.04</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>584.21</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>1601.06</v>
       </c>
       <c r="I20">
         <v>17</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>4757.93</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>514.65</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>597.01</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>1667.61</v>
       </c>
     </row>
@@ -19139,841 +19195,841 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>7368.02</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>931.80206718750003</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>794.05638114880014</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1842.0050000000001</v>
       </c>
       <c r="I21">
         <v>18</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>7237.22</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>820.95</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>806.84</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>8126.41</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1062.0897210937501</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>891.66883984500021</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>2024.9307307152869</v>
       </c>
       <c r="I22">
         <v>19</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>8230.33</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>1146.81</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>946.38</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>11567.48</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1341.1562531250001</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>1014.0218313225001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>2885.6571383419987</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>11546.01</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>1405.79</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>1130.47</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>14750.15</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1617.73972265625</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>1291.6182600300003</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>3669.1710191069569</v>
       </c>
       <c r="I24">
         <v>21</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>15387.76</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>1716.53</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>1214.83</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>16961.64</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>2007.9907593750002</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1564.7980513375001</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>4231.3501556824995</v>
       </c>
       <c r="I25">
         <v>22</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>17285.5</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>2198.0100000000002</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>1589.85</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>20276.98</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>2408.8491046875001</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>1930.7685912900004</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>5047.2647816942781</v>
       </c>
       <c r="I26">
         <v>23</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>21152.79</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>2662.03</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>1943.48</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>20687.150000000001</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>2781.7905820312503</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>2315.6064114050005</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>5146.4722056781966</v>
       </c>
       <c r="I27">
         <v>24</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>22969.43</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>2893.65</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>2495.7199999999998</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>23317.34</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>3053.0650640625004</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>2650.788339587501</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>5819.3675905747941</v>
       </c>
       <c r="I28">
         <v>25</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>25207.07</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>3058.61</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>2908.53</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>27289.34</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>3337.2335015625004</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>2914.5250046150009</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>6793.2155924263607</v>
       </c>
       <c r="I29">
         <v>26</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>29762.09</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>3471.28</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>3239.02</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>29017.82</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>3722.8431140624998</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>3201.1962216150005</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>7253.825624767549</v>
       </c>
       <c r="I30">
         <v>27</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>31975.25</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>3748.22</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>3381.93</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>38582.65</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>4306.7551523437505</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>3558.9110338950004</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>9607.4606073456634</v>
       </c>
       <c r="I31">
         <v>28</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>39471.96</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>4326.1400000000003</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>3821.65</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>43735.08</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>4848.2667843750005</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>4159.957099462501</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>10921.383821712852</v>
       </c>
       <c r="I32">
         <v>29</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>43700.99</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>4900.3599999999997</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>4109.79</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>48914.34</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>5267.0362359374994</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>4685.5853211300009</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>12174.277337814503</v>
       </c>
       <c r="I33">
         <v>30</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>48200.15</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>5119.2</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>5086.95</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>49561.84</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>6257.2583062499998</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>5102.281727865</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>12356.523658779492</v>
       </c>
       <c r="I34">
         <v>31</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>49885.06</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>6648.42</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>5333.99</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>51034.43</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>7009.4089757812508</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>5988.4721597400003</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>12727.011307630502</v>
       </c>
       <c r="I35">
         <v>32</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>54684.07</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>7592.48</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>6070.86</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>57914.87</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>7813.5257039062499</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>6669.9844361675023</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>14468.146111697635</v>
       </c>
       <c r="I36">
         <v>33</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>56765.29</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>7971.29</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>6849.45</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>68891.39</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>8411.0032007812497</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>7443.9290367575004</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>17178.907840725165</v>
       </c>
       <c r="I37">
         <v>34</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>73035.67</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>8257.25</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>7988.46</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>76391.45</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>9221.0740898437489</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>8069.1040607275008</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>19035.976528605661</v>
       </c>
       <c r="I38">
         <v>35</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>82363.95</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>9738.91</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>8639.3700000000008</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>84451.18</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>11020.523057812499</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>8853.6393612624997</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>21093.500583406789</v>
       </c>
       <c r="I39">
         <v>36</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>92771.58</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>11858.81</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>9209.2800000000007</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>91784.36</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>11828.990334375001</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>10522.863881354999</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>22945.505137387197</v>
       </c>
       <c r="I40">
         <v>37</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>94578.85</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>12023.54</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>10806.42</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>99314.42</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>12270.3495046875</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>11304.546827210002</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>24791.358062967796</v>
       </c>
       <c r="I41">
         <v>38</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>103558.11</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>12260.41</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>12865.16</v>
       </c>
-      <c r="M41" s="5"/>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>104934.71</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>13185.356978906249</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>11761.423695244999</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>26109.414229394075</v>
       </c>
       <c r="I42">
         <v>39</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>116711.76</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>13711.77</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>12139.41</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>110981.58</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>13489.463620312501</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>12623.219896997502</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>27672.613090797113</v>
       </c>
       <c r="I43">
         <v>40</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>134483.75</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>14013.52</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>13295.47</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>118392.34</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>13929.676392187501</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>12945.355310755001</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>29455.238718951652</v>
       </c>
       <c r="I44">
         <v>41</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>157718.39999999999</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>14241.62</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>14882.96</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>120934</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>14446.100156250001</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>13400.193073365004</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>30130.370757749344</v>
       </c>
       <c r="I45">
         <v>42</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>170387.49</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>14894.78</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>15845.25</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>121304.76</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>15187.662928125001</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>13881.197361500002</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>30234.654924867787</v>
       </c>
       <c r="I46">
         <v>43</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>171404.03</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>15338.4</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>15975.66</v>
       </c>
-      <c r="M46" s="5"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>130217.09</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>16257.30484921875</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>14543.876884110001</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>32471.31236248972</v>
       </c>
       <c r="I47">
         <v>44</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>189661.66</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>16377.33</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>15849.97</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>133405.38</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>17148.942323437499</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>15571.331856552504</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>33238.827580969257</v>
       </c>
       <c r="I48">
         <v>45</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>194458.68</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>17626.03</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>16546.47</v>
       </c>
-      <c r="M48" s="5"/>
+      <c r="M48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20009,29 +20065,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="18"/>
+      <c r="P1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="19"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -20040,7 +20096,7 @@
       <c r="B2">
         <v>90</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>(N2-B2)/N2</f>
         <v>0</v>
       </c>
@@ -20051,18 +20107,18 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>(N2-F2)/N2</f>
         <v>0</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>90</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>(N2-J2)/N2</f>
         <v>0</v>
       </c>
@@ -20073,18 +20129,18 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10">
+      <c r="O2" s="8"/>
+      <c r="P2" s="9">
         <v>1</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>90</v>
       </c>
       <c r="R2">
         <f>(Q2-N2)/Q2</f>
         <v>0</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -20093,7 +20149,7 @@
       <c r="B3">
         <v>2510</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C46" si="0">(N3-B3)/N3</f>
         <v>3.6098310291858678E-2</v>
       </c>
@@ -20104,7 +20160,7 @@
       <c r="F3">
         <v>2510</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G46" si="1">(N3-F3)/N3</f>
         <v>3.6098310291858678E-2</v>
       </c>
@@ -20115,7 +20171,7 @@
       <c r="J3">
         <v>2604</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K18" si="2">(N3-J3)/N3</f>
         <v>0</v>
       </c>
@@ -20126,18 +20182,18 @@
       <c r="N3">
         <v>2604</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10">
+      <c r="O3" s="8"/>
+      <c r="P3" s="9">
         <v>2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>2604</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R18" si="3">(Q3-N3)/Q3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -20146,7 +20202,7 @@
       <c r="B4">
         <v>5390</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20157,7 +20213,7 @@
       <c r="F4">
         <v>5390</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20168,7 +20224,7 @@
       <c r="J4">
         <v>5390</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20179,18 +20235,18 @@
       <c r="N4">
         <v>5390</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10">
+      <c r="O4" s="8"/>
+      <c r="P4" s="9">
         <v>3</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>8300</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
         <v>0.35060240963855421</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -20199,7 +20255,7 @@
       <c r="B5">
         <v>7166</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>4.758107389686337E-2</v>
       </c>
@@ -20210,7 +20266,7 @@
       <c r="F5">
         <v>7166</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>4.758107389686337E-2</v>
       </c>
@@ -20221,7 +20277,7 @@
       <c r="J5">
         <v>7524</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20232,18 +20288,18 @@
       <c r="N5">
         <v>7524</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10">
+      <c r="O5" s="8"/>
+      <c r="P5" s="9">
         <v>4</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>15048</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -20252,7 +20308,7 @@
       <c r="B6">
         <v>7650</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>8.1632653061224483E-2</v>
       </c>
@@ -20263,7 +20319,7 @@
       <c r="F6">
         <v>7650</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>8.1632653061224483E-2</v>
       </c>
@@ -20274,7 +20330,7 @@
       <c r="J6">
         <v>8330</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20285,18 +20341,18 @@
       <c r="N6">
         <v>8330</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10">
+      <c r="O6" s="8"/>
+      <c r="P6" s="9">
         <v>5</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>41650</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -20305,7 +20361,7 @@
       <c r="B7">
         <v>33368</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>1.7142857142857144E-2</v>
       </c>
@@ -20316,7 +20372,7 @@
       <c r="F7">
         <v>33368</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>1.7142857142857144E-2</v>
       </c>
@@ -20327,7 +20383,7 @@
       <c r="J7">
         <v>33924</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>7.6583210603829157E-4</v>
       </c>
@@ -20338,18 +20394,18 @@
       <c r="N7">
         <v>33950</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10">
+      <c r="O7" s="8"/>
+      <c r="P7" s="9">
         <v>6</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>195700</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
         <v>0.82652018395503324</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -20358,7 +20414,7 @@
       <c r="B8">
         <v>20017</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>3.6336485813837729E-3</v>
       </c>
@@ -20369,7 +20425,7 @@
       <c r="F8">
         <v>17302</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>0.13877551020408163</v>
       </c>
@@ -20380,7 +20436,7 @@
       <c r="J8">
         <v>20090</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20391,18 +20447,18 @@
       <c r="N8">
         <v>20090</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10">
+      <c r="O8" s="8"/>
+      <c r="P8" s="9">
         <v>7</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>74664</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
         <v>0.73092789028179583</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -20411,7 +20467,7 @@
       <c r="B9">
         <v>29870</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4.2628205128205129E-2</v>
       </c>
@@ -20422,7 +20478,7 @@
       <c r="F9">
         <v>23643</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>0.24221153846153845</v>
       </c>
@@ -20433,7 +20489,7 @@
       <c r="J9">
         <v>31200</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20444,18 +20500,18 @@
       <c r="N9">
         <v>31200</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10">
+      <c r="O9" s="8"/>
+      <c r="P9" s="9">
         <v>8</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>270520</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
         <v>0.88466656809108379</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -20464,7 +20520,7 @@
       <c r="B10">
         <v>52355</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>3.2612712490761274E-2</v>
       </c>
@@ -20475,7 +20531,7 @@
       <c r="F10">
         <v>52355</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>3.2612712490761274E-2</v>
       </c>
@@ -20486,7 +20542,7 @@
       <c r="J10">
         <v>53820</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>5.5432372505543242E-3</v>
       </c>
@@ -20497,18 +20553,18 @@
       <c r="N10">
         <v>54120</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10">
+      <c r="O10" s="8"/>
+      <c r="P10" s="9">
         <v>9</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>705516</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
         <v>0.92329018760736825</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -20517,7 +20573,7 @@
       <c r="B11">
         <v>112278</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6.854156296665008E-2</v>
       </c>
@@ -20528,7 +20584,7 @@
       <c r="F11">
         <v>93396</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>0.22518666002986559</v>
       </c>
@@ -20539,7 +20595,7 @@
       <c r="J11">
         <v>119210</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>1.1033681765389082E-2</v>
       </c>
@@ -20550,18 +20606,18 @@
       <c r="N11">
         <v>120540</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10">
+      <c r="O11" s="8"/>
+      <c r="P11" s="9">
         <v>10</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>1672862</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
         <v>0.92794384713144296</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -20570,7 +20626,7 @@
       <c r="B12">
         <v>150407</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>0.11898430178069354</v>
       </c>
@@ -20581,7 +20637,7 @@
       <c r="F12">
         <v>120365</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>0.29495665417057171</v>
       </c>
@@ -20592,7 +20648,7 @@
       <c r="J12">
         <v>170720</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20603,18 +20659,18 @@
       <c r="N12">
         <v>170720</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10">
+      <c r="O12" s="8"/>
+      <c r="P12" s="9">
         <v>11</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>1161046</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
         <v>0.85296017556582604</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -20623,7 +20679,7 @@
       <c r="B13">
         <v>114776</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>0.14696395392047565</v>
       </c>
@@ -20634,7 +20690,7 @@
       <c r="F13">
         <v>99345</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>0.26164994425863991</v>
       </c>
@@ -20645,7 +20701,7 @@
       <c r="J13">
         <v>133620</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>6.9119286510590855E-3</v>
       </c>
@@ -20656,18 +20712,18 @@
       <c r="N13">
         <v>134550</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10">
+      <c r="O13" s="8"/>
+      <c r="P13" s="9">
         <v>12</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>1982340</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
         <v>0.93212566966312538</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -20676,7 +20732,7 @@
       <c r="B14">
         <v>274405</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>0.14141113892365456</v>
       </c>
@@ -20687,7 +20743,7 @@
       <c r="F14">
         <v>230016</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>0.28030037546933667</v>
       </c>
@@ -20698,7 +20754,7 @@
       <c r="J14">
         <v>319420</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>5.6320400500625787E-4</v>
       </c>
@@ -20709,18 +20765,18 @@
       <c r="N14">
         <v>319600</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10">
+      <c r="O14" s="8"/>
+      <c r="P14" s="9">
         <v>13</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>4244663</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
         <v>0.92470544775875019</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -20729,7 +20785,7 @@
       <c r="B15">
         <v>493993</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>0.12412588652482269</v>
       </c>
@@ -20740,7 +20796,7 @@
       <c r="F15">
         <v>463178</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>0.17876241134751772</v>
       </c>
@@ -20751,7 +20807,7 @@
       <c r="J15">
         <v>563840</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>2.8368794326241134E-4</v>
       </c>
@@ -20762,18 +20818,18 @@
       <c r="N15">
         <v>564000</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10">
+      <c r="O15" s="8"/>
+      <c r="P15" s="9">
         <v>14</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>6378160</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
         <v>0.91157324369410608</v>
       </c>
-      <c r="S15" s="5"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -20782,7 +20838,7 @@
       <c r="B16">
         <v>423004</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>0.12166943521594685</v>
       </c>
@@ -20793,7 +20849,7 @@
       <c r="F16">
         <v>416233</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0.13572882059800664</v>
       </c>
@@ -20804,7 +20860,7 @@
       <c r="J16">
         <v>480890</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>1.4742524916943522E-3</v>
       </c>
@@ -20815,18 +20871,18 @@
       <c r="N16">
         <v>481600</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10">
+      <c r="O16" s="8"/>
+      <c r="P16" s="9">
         <v>15</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>4565882</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
         <v>0.89452202225112254</v>
       </c>
-      <c r="S16" s="5"/>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -20835,7 +20891,7 @@
       <c r="B17">
         <v>920941</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>5.0576288659793814E-2</v>
       </c>
@@ -20846,7 +20902,7 @@
       <c r="F17">
         <v>890329</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>8.2135051546391752E-2</v>
       </c>
@@ -20854,10 +20910,10 @@
       <c r="I17">
         <v>16</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>970000</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20868,18 +20924,18 @@
       <c r="N17">
         <v>970000</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10">
+      <c r="O17" s="8"/>
+      <c r="P17" s="9">
         <v>16</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>14814516</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
         <v>0.93452367934261238</v>
       </c>
-      <c r="S17" s="5"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -20888,7 +20944,7 @@
       <c r="B18">
         <v>706083</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>8.5621600621600624E-2</v>
       </c>
@@ -20899,7 +20955,7 @@
       <c r="F18">
         <v>706083</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>8.5621600621600624E-2</v>
       </c>
@@ -20907,10 +20963,10 @@
       <c r="I18">
         <v>17</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>771800</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>5.1800051800051804E-4</v>
       </c>
@@ -20921,18 +20977,18 @@
       <c r="N18">
         <v>772200</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10">
+      <c r="O18" s="8"/>
+      <c r="P18" s="9">
         <v>17</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>11077403</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
         <v>0.93029052026002845</v>
       </c>
-      <c r="S18" s="5"/>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -20941,7 +20997,7 @@
       <c r="B19">
         <v>860252</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>0.10525560351552343</v>
       </c>
@@ -20952,26 +21008,26 @@
       <c r="F19">
         <v>780472</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.18823443756825628</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>18</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <v>18</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <v>961450</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="5"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -20980,7 +21036,7 @@
       <c r="B20">
         <v>864315</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>0.20000462791558682</v>
       </c>
@@ -20991,7 +21047,7 @@
       <c r="F20">
         <v>792367</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.26659848204368752</v>
       </c>
@@ -20999,8 +21055,8 @@
       <c r="I20">
         <v>19</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20">
         <v>19</v>
@@ -21008,9 +21064,9 @@
       <c r="N20">
         <v>1080400</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
+      <c r="O20" s="8"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -21019,7 +21075,7 @@
       <c r="B21">
         <v>659953</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>0.35472885437637436</v>
       </c>
@@ -21030,7 +21086,7 @@
       <c r="F21">
         <v>597265</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.41602224584039355</v>
       </c>
@@ -21038,8 +21094,8 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="1"/>
       <c r="M21">
         <v>20</v>
@@ -21047,10 +21103,10 @@
       <c r="N21">
         <v>1022753</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -21059,7 +21115,7 @@
       <c r="B22">
         <v>1019719</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>0.50163430795561958</v>
       </c>
@@ -21070,7 +21126,7 @@
       <c r="F22">
         <v>883314</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>0.56829931294553704</v>
       </c>
@@ -21078,8 +21134,8 @@
       <c r="I22">
         <v>21</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="1"/>
       <c r="M22">
         <v>21</v>
@@ -21087,9 +21143,9 @@
       <c r="N22">
         <v>2046126</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
+      <c r="O22" s="8"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -21098,7 +21154,7 @@
       <c r="B23">
         <v>1658427</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>0.46020790640631387</v>
       </c>
@@ -21109,7 +21165,7 @@
       <c r="F23">
         <v>1599535</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0.47937633285856013</v>
       </c>
@@ -21117,8 +21173,8 @@
       <c r="I23">
         <v>22</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="1"/>
       <c r="M23">
         <v>22</v>
@@ -21126,9 +21182,9 @@
       <c r="N23">
         <v>3072344</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
+      <c r="O23" s="8"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -21137,7 +21193,7 @@
       <c r="B24">
         <v>3010147</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>0.26550806425441364</v>
       </c>
@@ -21148,7 +21204,7 @@
       <c r="F24">
         <v>2662337</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0.35037556081576843</v>
       </c>
@@ -21156,8 +21212,8 @@
       <c r="I24">
         <v>23</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="1"/>
       <c r="M24">
         <v>23</v>
@@ -21165,9 +21221,9 @@
       <c r="N24">
         <v>4098271</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
+      <c r="O24" s="8"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -21176,7 +21232,7 @@
       <c r="B25">
         <v>3178712</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>0.37953348558489974</v>
       </c>
@@ -21187,7 +21243,7 @@
       <c r="F25">
         <v>2729581</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.4672013038980305</v>
       </c>
@@ -21195,8 +21251,8 @@
       <c r="I25">
         <v>24</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25">
         <v>24</v>
@@ -21204,9 +21260,9 @@
       <c r="N25">
         <v>5123100</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
+      <c r="O25" s="8"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -21215,7 +21271,7 @@
       <c r="B26">
         <v>3966361</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>0.35491829220810273</v>
       </c>
@@ -21226,7 +21282,7 @@
       <c r="F26">
         <v>3466977</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0.4361371937563856</v>
       </c>
@@ -21234,8 +21290,8 @@
       <c r="I26">
         <v>25</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26">
         <v>25</v>
@@ -21243,9 +21299,9 @@
       <c r="N26">
         <v>6148618</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
+      <c r="O26" s="8"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -21254,7 +21310,7 @@
       <c r="B27">
         <v>6074144</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>0.15329169218185035</v>
       </c>
@@ -21265,7 +21321,7 @@
       <c r="F27">
         <v>4286262</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>0.4025143880544752</v>
       </c>
@@ -21273,8 +21329,8 @@
       <c r="I27">
         <v>26</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="4"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="1"/>
       <c r="M27">
         <v>26</v>
@@ -21282,9 +21338,9 @@
       <c r="N27">
         <v>7173833</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="6"/>
+      <c r="O27" s="8"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -21293,7 +21349,7 @@
       <c r="B28">
         <v>5032349</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>0.38633736860884577</v>
       </c>
@@ -21304,7 +21360,7 @@
       <c r="F28">
         <v>4495396</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>0.451815337428849</v>
       </c>
@@ -21312,8 +21368,8 @@
       <c r="I28">
         <v>27</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="1"/>
       <c r="M28">
         <v>27</v>
@@ -21321,9 +21377,9 @@
       <c r="N28">
         <v>8200514</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
+      <c r="O28" s="8"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -21332,7 +21388,7 @@
       <c r="B29">
         <v>5975923</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>0.35240157428264218</v>
       </c>
@@ -21343,7 +21399,7 @@
       <c r="F29">
         <v>5502254</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>0.40373210493223644</v>
       </c>
@@ -21351,8 +21407,8 @@
       <c r="I29">
         <v>28</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="1"/>
       <c r="M29">
         <v>28</v>
@@ -21360,9 +21416,9 @@
       <c r="N29">
         <v>9227822</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="6"/>
+      <c r="O29" s="8"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -21371,7 +21427,7 @@
       <c r="B30">
         <v>6732065</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>0.34310710656208393</v>
       </c>
@@ -21382,7 +21438,7 @@
       <c r="F30">
         <v>6276007</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>0.38760775520340113</v>
       </c>
@@ -21390,8 +21446,8 @@
       <c r="I30">
         <v>29</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="1"/>
       <c r="M30">
         <v>29</v>
@@ -21399,9 +21455,9 @@
       <c r="N30">
         <v>10248345</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="6"/>
+      <c r="O30" s="8"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -21410,7 +21466,7 @@
       <c r="B31">
         <v>10439210</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>0.47172184799406869</v>
       </c>
@@ -21421,7 +21477,7 @@
       <c r="F31">
         <v>8988744</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>0.54512294807994055</v>
       </c>
@@ -21429,8 +21485,8 @@
       <c r="I31">
         <v>30</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="4"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="1"/>
       <c r="M31">
         <v>30</v>
@@ -21438,9 +21494,9 @@
       <c r="N31">
         <v>19760821</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
+      <c r="O31" s="8"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -21449,7 +21505,7 @@
       <c r="B32">
         <v>33204665</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>0.16030826518645427</v>
       </c>
@@ -21460,7 +21516,7 @@
       <c r="F32">
         <v>31267376</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>0.20929913924722857</v>
       </c>
@@ -21468,8 +21524,8 @@
       <c r="I32">
         <v>31</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="4"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="1"/>
       <c r="M32">
         <v>31</v>
@@ -21477,9 +21533,9 @@
       <c r="N32">
         <v>39543875</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="6"/>
+      <c r="O32" s="8"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -21488,7 +21544,7 @@
       <c r="B33">
         <v>37985254</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>0.35971716965630196</v>
       </c>
@@ -21499,7 +21555,7 @@
       <c r="F33">
         <v>34041448</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>0.42619431544573011</v>
       </c>
@@ -21507,8 +21563,8 @@
       <c r="I33">
         <v>32</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="1"/>
       <c r="M33">
         <v>32</v>
@@ -21516,9 +21572,9 @@
       <c r="N33">
         <v>59325742</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="6"/>
+      <c r="O33" s="8"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -21527,7 +21583,7 @@
       <c r="B34">
         <v>63155648</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>0.20139719094233494</v>
       </c>
@@ -21538,7 +21594,7 @@
       <c r="F34">
         <v>60638550</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>0.23322588080825843</v>
       </c>
@@ -21546,8 +21602,8 @@
       <c r="I34">
         <v>33</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="4"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="1"/>
       <c r="M34">
         <v>33</v>
@@ -21555,9 +21611,9 @@
       <c r="N34">
         <v>79082677</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="6"/>
+      <c r="O34" s="8"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -21566,7 +21622,7 @@
       <c r="B35">
         <v>80207405</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>0.1885541644366191</v>
       </c>
@@ -21577,7 +21633,7 @@
       <c r="F35">
         <v>73959964</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>0.25175855288900606</v>
       </c>
@@ -21585,8 +21641,8 @@
       <c r="I35">
         <v>34</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="4"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="1"/>
       <c r="M35">
         <v>34</v>
@@ -21594,9 +21650,9 @@
       <c r="N35">
         <v>98845051</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="6"/>
+      <c r="O35" s="8"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -21605,7 +21661,7 @@
       <c r="B36">
         <v>89501785</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>0.24546127240293561</v>
       </c>
@@ -21616,16 +21672,16 @@
       <c r="F36">
         <v>87873858</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>0.25918540055525019</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="2">
+      <c r="I36">
         <v>35</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="4"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="1"/>
       <c r="M36">
         <v>35</v>
@@ -21633,9 +21689,9 @@
       <c r="N36">
         <v>118617881</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
+      <c r="O36" s="8"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -21644,7 +21700,7 @@
       <c r="B37">
         <v>84968347</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>0.38591075669314467</v>
       </c>
@@ -21655,7 +21711,7 @@
       <c r="F37">
         <v>76948539</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0.44387207993962685</v>
       </c>
@@ -21663,8 +21719,8 @@
       <c r="I37">
         <v>36</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="1"/>
       <c r="M37">
         <v>36</v>
@@ -21672,9 +21728,9 @@
       <c r="N37">
         <v>138364819</v>
       </c>
-      <c r="O37" s="9"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="6"/>
+      <c r="O37" s="8"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -21683,7 +21739,7 @@
       <c r="B38">
         <v>105609705</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>0.33200818085749706</v>
       </c>
@@ -21694,7 +21750,7 @@
       <c r="F38">
         <v>87270834</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f t="shared" si="1"/>
         <v>0.44800335194816238</v>
       </c>
@@ -21702,8 +21758,8 @@
       <c r="I38">
         <v>37</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="4"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="1"/>
       <c r="M38">
         <v>37</v>
@@ -21711,9 +21767,9 @@
       <c r="N38">
         <v>158100297</v>
       </c>
-      <c r="O38" s="9"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="6"/>
+      <c r="O38" s="8"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -21722,7 +21778,7 @@
       <c r="B39">
         <v>124947031</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>0.2975080678153868</v>
       </c>
@@ -21733,7 +21789,7 @@
       <c r="F39">
         <v>110088127</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f t="shared" si="1"/>
         <v>0.38104955013444791</v>
       </c>
@@ -21741,8 +21797,8 @@
       <c r="I39">
         <v>38</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="4"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="1"/>
       <c r="M39">
         <v>38</v>
@@ -21750,9 +21806,9 @@
       <c r="N39">
         <v>177862585</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="6"/>
+      <c r="O39" s="8"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -21761,7 +21817,7 @@
       <c r="B40">
         <v>158733608</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>0.19686953712114605</v>
       </c>
@@ -21772,7 +21828,7 @@
       <c r="F40">
         <v>157173483</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f t="shared" si="1"/>
         <v>0.20476316424388413</v>
       </c>
@@ -21780,8 +21836,8 @@
       <c r="I40">
         <v>39</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="1"/>
       <c r="M40">
         <v>39</v>
@@ -21789,9 +21845,9 @@
       <c r="N40">
         <v>197643615</v>
       </c>
-      <c r="O40" s="9"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="6"/>
+      <c r="O40" s="8"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -21800,7 +21856,7 @@
       <c r="B41">
         <v>168746330</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>0.17033591029572154</v>
       </c>
@@ -21811,7 +21867,7 @@
       <c r="F41">
         <v>168583488</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <f t="shared" si="1"/>
         <v>0.17113654495068334</v>
       </c>
@@ -21819,8 +21875,8 @@
       <c r="I41">
         <v>40</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="1"/>
       <c r="M41">
         <v>40</v>
@@ -21828,9 +21884,9 @@
       <c r="N41">
         <v>203391146</v>
       </c>
-      <c r="O41" s="9"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="6"/>
+      <c r="O41" s="8"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -21839,7 +21895,7 @@
       <c r="B42">
         <v>185945603</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>0.21596418572951082</v>
       </c>
@@ -21850,7 +21906,7 @@
       <c r="F42">
         <v>156500038</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <f t="shared" si="1"/>
         <v>0.3401208055094882</v>
       </c>
@@ -21858,8 +21914,8 @@
       <c r="I42">
         <v>41</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="4"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="1"/>
       <c r="M42">
         <v>41</v>
@@ -21867,9 +21923,9 @@
       <c r="N42">
         <v>237164680</v>
       </c>
-      <c r="O42" s="9"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="6"/>
+      <c r="O42" s="8"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -21878,7 +21934,7 @@
       <c r="B43">
         <v>195368489</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>0.23937372997215967</v>
       </c>
@@ -21889,7 +21945,7 @@
       <c r="F43">
         <v>181832457</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <f t="shared" si="1"/>
         <v>0.29207343392051488</v>
       </c>
@@ -21897,8 +21953,8 @@
       <c r="I43">
         <v>42</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="4"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="1"/>
       <c r="M43">
         <v>42</v>
@@ -21906,9 +21962,9 @@
       <c r="N43">
         <v>256852145</v>
       </c>
-      <c r="O43" s="9"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="6"/>
+      <c r="O43" s="8"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -21917,7 +21973,7 @@
       <c r="B44">
         <v>215687053</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>0.22070574009966351</v>
       </c>
@@ -21928,7 +21984,7 @@
       <c r="F44">
         <v>195977949</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="1"/>
         <v>0.29191628056255703</v>
       </c>
@@ -21936,8 +21992,8 @@
       <c r="I44">
         <v>43</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="1"/>
       <c r="M44">
         <v>43</v>
@@ -21945,9 +22001,9 @@
       <c r="N44">
         <v>276772285</v>
       </c>
-      <c r="O44" s="9"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="6"/>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -21956,7 +22012,7 @@
       <c r="B45">
         <v>207328322</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>0.30047371569192333</v>
       </c>
@@ -21967,7 +22023,7 @@
       <c r="F45">
         <v>186623585</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <f t="shared" si="1"/>
         <v>0.37033155084666863</v>
       </c>
@@ -21975,8 +22031,8 @@
       <c r="I45">
         <v>44</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="4"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="1"/>
       <c r="M45">
         <v>44</v>
@@ -21984,9 +22040,9 @@
       <c r="N45">
         <v>296383891</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="6"/>
+      <c r="O45" s="8"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="5"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -21995,7 +22051,7 @@
       <c r="B46">
         <v>164063971</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>0.48119227099294576</v>
       </c>
@@ -22006,7 +22062,7 @@
       <c r="F46">
         <v>150825577</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <f t="shared" si="1"/>
         <v>0.52305509489619395</v>
       </c>
@@ -22014,8 +22070,8 @@
       <c r="I46">
         <v>45</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="4"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="1"/>
       <c r="M46">
         <v>45</v>
@@ -22023,15 +22079,15 @@
       <c r="N46">
         <v>316232704</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="6"/>
+      <c r="O46" s="8"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
       <c r="H47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22066,154 +22122,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0.35060200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>0.82652000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>0.73092800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.88466699999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.92329000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.92794399999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.85296000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0.93212600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>0.924705</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.91157299999999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.89452200000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.93452400000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>0.93029099999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <f>AVERAGE(B6:B18)</f>
         <v>0.88261923076923088</v>
       </c>
@@ -22222,4 +22278,937 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F1A473-994F-5D42-A9F3-FFDA207A32EE}">
+  <dimension ref="A2:V18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="19" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" style="19" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="D2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="N2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>450</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.82</v>
+      </c>
+      <c r="J4">
+        <v>450</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.92</v>
+      </c>
+      <c r="O4">
+        <v>450</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.62</v>
+      </c>
+      <c r="T4">
+        <v>450</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>5390</v>
+      </c>
+      <c r="F5">
+        <v>97</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4067</v>
+      </c>
+      <c r="K5">
+        <v>1260</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4067</v>
+      </c>
+      <c r="P5">
+        <v>1260</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.03</v>
+      </c>
+      <c r="T5">
+        <v>4067</v>
+      </c>
+      <c r="U5">
+        <v>1260</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+      <c r="E6">
+        <v>10498</v>
+      </c>
+      <c r="F6">
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3290</v>
+      </c>
+      <c r="K6">
+        <v>1220</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3290</v>
+      </c>
+      <c r="P6">
+        <v>1220</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.06</v>
+      </c>
+      <c r="T6">
+        <v>3290</v>
+      </c>
+      <c r="U6">
+        <v>1220</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>30727</v>
+      </c>
+      <c r="F7">
+        <v>499</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+      <c r="J7">
+        <v>13002</v>
+      </c>
+      <c r="K7">
+        <v>2600</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>0.01</v>
+      </c>
+      <c r="O7">
+        <v>13002</v>
+      </c>
+      <c r="P7">
+        <v>2600</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>13002</v>
+      </c>
+      <c r="U7">
+        <v>2600</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="E8">
+        <v>37466</v>
+      </c>
+      <c r="F8">
+        <v>1219</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>12580</v>
+      </c>
+      <c r="K8">
+        <v>5950</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>0.09</v>
+      </c>
+      <c r="O8">
+        <v>12580</v>
+      </c>
+      <c r="P8">
+        <v>5950</v>
+      </c>
+      <c r="Q8">
+        <v>34</v>
+      </c>
+      <c r="S8">
+        <v>0.36</v>
+      </c>
+      <c r="T8">
+        <v>12580</v>
+      </c>
+      <c r="U8">
+        <v>5950</v>
+      </c>
+      <c r="V8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E9">
+        <v>128020</v>
+      </c>
+      <c r="F9">
+        <v>1714</v>
+      </c>
+      <c r="G9">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9">
+        <v>46255</v>
+      </c>
+      <c r="K9">
+        <v>8258</v>
+      </c>
+      <c r="L9">
+        <v>72</v>
+      </c>
+      <c r="N9">
+        <v>0.19</v>
+      </c>
+      <c r="O9">
+        <v>46187</v>
+      </c>
+      <c r="P9">
+        <v>8258</v>
+      </c>
+      <c r="Q9">
+        <v>72</v>
+      </c>
+      <c r="S9">
+        <v>0.64</v>
+      </c>
+      <c r="T9">
+        <v>46187</v>
+      </c>
+      <c r="U9">
+        <v>8258</v>
+      </c>
+      <c r="V9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E10">
+        <v>35796</v>
+      </c>
+      <c r="F10">
+        <v>2395</v>
+      </c>
+      <c r="G10">
+        <v>138</v>
+      </c>
+      <c r="I10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J10">
+        <v>22664</v>
+      </c>
+      <c r="K10">
+        <v>11900</v>
+      </c>
+      <c r="L10">
+        <v>138</v>
+      </c>
+      <c r="N10">
+        <v>0.39</v>
+      </c>
+      <c r="O10">
+        <v>22678</v>
+      </c>
+      <c r="P10">
+        <v>11900</v>
+      </c>
+      <c r="Q10">
+        <v>138</v>
+      </c>
+      <c r="S10">
+        <v>1.23</v>
+      </c>
+      <c r="T10">
+        <v>22657</v>
+      </c>
+      <c r="U10">
+        <v>11900</v>
+      </c>
+      <c r="V10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>8.14</v>
+      </c>
+      <c r="E11">
+        <v>270940</v>
+      </c>
+      <c r="F11">
+        <v>4867</v>
+      </c>
+      <c r="G11">
+        <v>138</v>
+      </c>
+      <c r="I11">
+        <v>0.91</v>
+      </c>
+      <c r="J11">
+        <v>49660</v>
+      </c>
+      <c r="K11">
+        <v>12000</v>
+      </c>
+      <c r="L11">
+        <v>138</v>
+      </c>
+      <c r="N11">
+        <v>0.97</v>
+      </c>
+      <c r="O11">
+        <v>50050</v>
+      </c>
+      <c r="P11">
+        <v>12000</v>
+      </c>
+      <c r="Q11">
+        <v>138</v>
+      </c>
+      <c r="S11">
+        <v>2.9</v>
+      </c>
+      <c r="T11">
+        <v>49855</v>
+      </c>
+      <c r="U11">
+        <v>12000</v>
+      </c>
+      <c r="V11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>28.31</v>
+      </c>
+      <c r="E12">
+        <v>702573</v>
+      </c>
+      <c r="F12">
+        <v>9406</v>
+      </c>
+      <c r="G12">
+        <v>558</v>
+      </c>
+      <c r="I12">
+        <v>3.6</v>
+      </c>
+      <c r="J12">
+        <v>111012</v>
+      </c>
+      <c r="K12">
+        <v>25400</v>
+      </c>
+      <c r="L12">
+        <v>558</v>
+      </c>
+      <c r="N12">
+        <v>3.91</v>
+      </c>
+      <c r="O12">
+        <v>111078</v>
+      </c>
+      <c r="P12">
+        <v>25400</v>
+      </c>
+      <c r="Q12">
+        <v>558</v>
+      </c>
+      <c r="S12">
+        <v>11.14</v>
+      </c>
+      <c r="T12">
+        <v>110352</v>
+      </c>
+      <c r="U12">
+        <v>25400</v>
+      </c>
+      <c r="V12">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+      <c r="D13">
+        <v>75.34</v>
+      </c>
+      <c r="E13">
+        <v>1033112</v>
+      </c>
+      <c r="F13">
+        <v>13507</v>
+      </c>
+      <c r="G13">
+        <v>1326</v>
+      </c>
+      <c r="I13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="J13">
+        <v>268814</v>
+      </c>
+      <c r="K13">
+        <v>38100</v>
+      </c>
+      <c r="L13">
+        <v>1326</v>
+      </c>
+      <c r="N13">
+        <v>8.74</v>
+      </c>
+      <c r="O13">
+        <v>268520</v>
+      </c>
+      <c r="P13">
+        <v>38100</v>
+      </c>
+      <c r="Q13">
+        <v>1326</v>
+      </c>
+      <c r="S13">
+        <v>25.47</v>
+      </c>
+      <c r="T13">
+        <v>263032</v>
+      </c>
+      <c r="U13">
+        <v>38100</v>
+      </c>
+      <c r="V13">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>4000</v>
+      </c>
+      <c r="D14">
+        <v>167.71</v>
+      </c>
+      <c r="E14">
+        <v>1194109</v>
+      </c>
+      <c r="F14">
+        <v>17566</v>
+      </c>
+      <c r="G14">
+        <v>2398</v>
+      </c>
+      <c r="I14">
+        <v>14.34</v>
+      </c>
+      <c r="J14">
+        <v>375584</v>
+      </c>
+      <c r="K14">
+        <v>49600</v>
+      </c>
+      <c r="L14">
+        <v>2398</v>
+      </c>
+      <c r="N14">
+        <v>16.02</v>
+      </c>
+      <c r="O14">
+        <v>376457</v>
+      </c>
+      <c r="P14">
+        <v>49600</v>
+      </c>
+      <c r="Q14">
+        <v>2398</v>
+      </c>
+      <c r="S14">
+        <v>46.91</v>
+      </c>
+      <c r="T14">
+        <v>370540</v>
+      </c>
+      <c r="U14">
+        <v>49600</v>
+      </c>
+      <c r="V14">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="D15">
+        <v>307.83999999999997</v>
+      </c>
+      <c r="E15">
+        <v>1738544</v>
+      </c>
+      <c r="F15">
+        <v>21412</v>
+      </c>
+      <c r="G15">
+        <v>3762</v>
+      </c>
+      <c r="I15">
+        <v>22.04</v>
+      </c>
+      <c r="J15">
+        <v>354660</v>
+      </c>
+      <c r="K15">
+        <v>64500</v>
+      </c>
+      <c r="L15">
+        <v>3762</v>
+      </c>
+      <c r="N15">
+        <v>27.33</v>
+      </c>
+      <c r="O15">
+        <v>353694</v>
+      </c>
+      <c r="P15">
+        <v>64500</v>
+      </c>
+      <c r="Q15">
+        <v>3762</v>
+      </c>
+      <c r="S15">
+        <v>77.75</v>
+      </c>
+      <c r="T15">
+        <v>345552</v>
+      </c>
+      <c r="U15">
+        <v>64500</v>
+      </c>
+      <c r="V15">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>2271.0100000000002</v>
+      </c>
+      <c r="E16">
+        <v>4660587</v>
+      </c>
+      <c r="F16">
+        <v>39863</v>
+      </c>
+      <c r="G16">
+        <v>14972</v>
+      </c>
+      <c r="I16">
+        <v>155.44</v>
+      </c>
+      <c r="J16">
+        <v>861424</v>
+      </c>
+      <c r="K16">
+        <v>121000</v>
+      </c>
+      <c r="L16">
+        <v>14972</v>
+      </c>
+      <c r="N16">
+        <v>185.54</v>
+      </c>
+      <c r="O16">
+        <v>859044</v>
+      </c>
+      <c r="P16">
+        <v>121000</v>
+      </c>
+      <c r="Q16">
+        <v>14972</v>
+      </c>
+      <c r="S16">
+        <v>500.6</v>
+      </c>
+      <c r="T16">
+        <v>822868</v>
+      </c>
+      <c r="U16">
+        <v>121000</v>
+      </c>
+      <c r="V16">
+        <v>14972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>15000</v>
+      </c>
+      <c r="I17">
+        <v>702.25</v>
+      </c>
+      <c r="J17">
+        <v>1589216</v>
+      </c>
+      <c r="K17">
+        <v>181500</v>
+      </c>
+      <c r="L17">
+        <v>33712</v>
+      </c>
+      <c r="N17">
+        <v>721.18</v>
+      </c>
+      <c r="O17">
+        <v>1583008</v>
+      </c>
+      <c r="P17">
+        <v>181500</v>
+      </c>
+      <c r="Q17">
+        <v>33712</v>
+      </c>
+      <c r="S17">
+        <v>1732.8</v>
+      </c>
+      <c r="T17">
+        <v>1510944</v>
+      </c>
+      <c r="U17">
+        <v>181500</v>
+      </c>
+      <c r="V17">
+        <v>33712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>20000</v>
+      </c>
+      <c r="I18">
+        <v>1490.33</v>
+      </c>
+      <c r="J18">
+        <v>1744120</v>
+      </c>
+      <c r="K18">
+        <v>250000</v>
+      </c>
+      <c r="L18">
+        <v>59762</v>
+      </c>
+      <c r="N18">
+        <v>1505.61</v>
+      </c>
+      <c r="O18">
+        <v>1740592</v>
+      </c>
+      <c r="P18">
+        <v>250000</v>
+      </c>
+      <c r="Q18">
+        <v>59762</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/All_perf.xlsx
+++ b/All_perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttdkoc/Documents/dev/workspaces/python/copt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751F89F-6466-CA47-B889-06EBF51C77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD728B-BD31-754B-A824-61B40E39458F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="4" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="8" xr2:uid="{544C10BC-9448-4CAA-97CB-C174D9523FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="loose channel" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="strict channel" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="NetworkingEXX" sheetId="5" r:id="rId5"/>
+    <sheet name="NetworkingLESS" sheetId="7" r:id="rId6"/>
+    <sheet name="TestInstances" sheetId="8" r:id="rId7"/>
+    <sheet name="OvGap" sheetId="9" r:id="rId8"/>
+    <sheet name="IntraGap" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>Exact</t>
   </si>
@@ -97,13 +101,62 @@
   <si>
     <t>Greed With Alg-C</t>
   </si>
+  <si>
+    <t>OV Diff</t>
+  </si>
+  <si>
+    <t>OV-C Diff</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Objective Value Gap (%)</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Exact(BIP)</t>
+  </si>
+  <si>
+    <t>A+G Algorithm-A</t>
+  </si>
+  <si>
+    <t>A+G Algorithm-B</t>
+  </si>
+  <si>
+    <t>A+G Algorithm-C</t>
+  </si>
+  <si>
+    <t>Objective Value Gap To Algorithm-C(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -160,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -243,13 +296,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -275,8 +406,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -16658,27 +16857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2">
@@ -20065,29 +20264,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -22284,7 +22483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F1A473-994F-5D42-A9F3-FFDA207A32EE}">
   <dimension ref="A2:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -22292,22 +22491,22 @@
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4" style="20" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4" style="20" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" style="19" customWidth="1"/>
+    <col min="13" max="13" width="4" style="20" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" style="19" customWidth="1"/>
+    <col min="18" max="18" width="4" style="20" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
@@ -22315,32 +22514,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="S2" s="18" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -23211,4 +23410,3535 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C03F23-5B48-E740-AE12-B3F8383D5054}">
+  <dimension ref="A2:AD26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4" style="20" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.1640625" customWidth="1"/>
+    <col min="20" max="20" width="4" style="20" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
+    <col min="25" max="25" width="4" style="20" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18"/>
+      <c r="U2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.87</v>
+      </c>
+      <c r="J4">
+        <v>450</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>($F4-J4)/$F4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>($V4-J4)/$V4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.86</v>
+      </c>
+      <c r="P4">
+        <v>450</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>($F4-P4)/$F4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S26" si="0">($V4-P4)/$V4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1.84</v>
+      </c>
+      <c r="V4">
+        <v>450</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>($F4-V4)/$F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>5390</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4067</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L19" si="1">($F5-J5)/$F5</f>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="M5">
+        <f>($V5-J5)/$V5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4067</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R19" si="2">($F5-P5)/$F5</f>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.03</v>
+      </c>
+      <c r="V5">
+        <v>4067</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X19" si="3">($F5-V5)/$F5</f>
+        <v>0.24545454545454545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F6">
+        <v>7290</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2890</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.60356652949245537</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M26" si="4">($V6-J6)/$V6</f>
+        <v>0.50933786078098475</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2890</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0.60356652949245537</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.50933786078098475</v>
+      </c>
+      <c r="U6">
+        <v>0.06</v>
+      </c>
+      <c r="V6">
+        <v>5890</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>0.19204389574759945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>24472</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>11782</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51855181431840469</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.43731792349204834</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14632</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0.40209218698921217</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.30120827164621045</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
+      </c>
+      <c r="V7">
+        <v>20939</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>0.1443690748610657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F8">
+        <v>29348</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.02</v>
+      </c>
+      <c r="J8">
+        <v>10880</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62927627095543137</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>0.49699491447064265</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>15734</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0.46388169551587843</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.27258437355524734</v>
+      </c>
+      <c r="U8">
+        <v>0.33</v>
+      </c>
+      <c r="V8">
+        <v>21630</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>0.26298214529099084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="E9">
+        <v>0.41</v>
+      </c>
+      <c r="F9">
+        <v>99280</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>31563</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68208098307816278</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0.61270016565433461</v>
+      </c>
+      <c r="O9">
+        <v>0.09</v>
+      </c>
+      <c r="P9">
+        <v>40182</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0.5952659145850121</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.50693907601693355</v>
+      </c>
+      <c r="U9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V9">
+        <v>81495</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>0.17913980660757453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>33031</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>22664</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.31385668008840178</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0.14979179952732866</v>
+      </c>
+      <c r="O10">
+        <v>0.19</v>
+      </c>
+      <c r="P10">
+        <v>22678</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0.31343283582089554</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.14926660914581535</v>
+      </c>
+      <c r="U10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V10">
+        <v>26657</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>0.19297024007750296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1.29</v>
+      </c>
+      <c r="F11">
+        <v>115483</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <v>34580</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70056198747867648</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.63388035997882475</v>
+      </c>
+      <c r="O11">
+        <v>0.24</v>
+      </c>
+      <c r="P11">
+        <v>54775</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.52568776356693192</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.4200635256749603</v>
+      </c>
+      <c r="U11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V11">
+        <v>94450</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>0.18213070322038741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>4.26</v>
+      </c>
+      <c r="F12">
+        <v>370512</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <v>111012</v>
+      </c>
+      <c r="K12">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70038217385671719</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.60402636685309896</v>
+      </c>
+      <c r="O12">
+        <v>0.97</v>
+      </c>
+      <c r="P12">
+        <v>117078</v>
+      </c>
+      <c r="Q12">
+        <v>56</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.68401023448633247</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.58238928204542861</v>
+      </c>
+      <c r="U12">
+        <v>8.75</v>
+      </c>
+      <c r="V12">
+        <v>280352</v>
+      </c>
+      <c r="W12">
+        <v>56</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>0.24333894718659585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3000</v>
+      </c>
+      <c r="E13">
+        <v>11.3</v>
+      </c>
+      <c r="F13">
+        <v>799008</v>
+      </c>
+      <c r="G13">
+        <v>122</v>
+      </c>
+      <c r="I13">
+        <v>1.36</v>
+      </c>
+      <c r="J13">
+        <v>268814</v>
+      </c>
+      <c r="K13">
+        <v>122</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66356532099803756</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.59456858794145684</v>
+      </c>
+      <c r="O13">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P13">
+        <v>268520</v>
+      </c>
+      <c r="Q13">
+        <v>122</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0.66393327726380713</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.59501200545373378</v>
+      </c>
+      <c r="U13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="V13">
+        <v>663032</v>
+      </c>
+      <c r="W13">
+        <v>122</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>0.17018102447034322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
+        <v>24.03</v>
+      </c>
+      <c r="F14">
+        <v>923919</v>
+      </c>
+      <c r="G14">
+        <v>244</v>
+      </c>
+      <c r="I14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J14">
+        <v>335135</v>
+      </c>
+      <c r="K14">
+        <v>244</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63726798561345743</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.5413946932687439</v>
+      </c>
+      <c r="O14">
+        <v>3.88</v>
+      </c>
+      <c r="P14">
+        <v>334359</v>
+      </c>
+      <c r="Q14">
+        <v>244</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0.63810788608092273</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.54245658688780329</v>
+      </c>
+      <c r="U14">
+        <v>37.33</v>
+      </c>
+      <c r="V14">
+        <v>730770</v>
+      </c>
+      <c r="W14">
+        <v>244</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>0.20905404045159803</v>
+      </c>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="E15">
+        <v>43.93</v>
+      </c>
+      <c r="F15">
+        <v>1079619</v>
+      </c>
+      <c r="G15">
+        <v>392</v>
+      </c>
+      <c r="I15">
+        <v>3.8</v>
+      </c>
+      <c r="J15">
+        <v>316572</v>
+      </c>
+      <c r="K15">
+        <v>392</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70677433427903735</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.6522570142426859</v>
+      </c>
+      <c r="O15">
+        <v>6.13</v>
+      </c>
+      <c r="P15">
+        <v>315606</v>
+      </c>
+      <c r="Q15">
+        <v>392</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.70766909437496006</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.65331813058980936</v>
+      </c>
+      <c r="U15">
+        <v>60.39</v>
+      </c>
+      <c r="V15">
+        <v>910362</v>
+      </c>
+      <c r="W15">
+        <v>392</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>0.15677475109274661</v>
+      </c>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>309.95999999999998</v>
+      </c>
+      <c r="F16">
+        <v>3531509</v>
+      </c>
+      <c r="G16">
+        <v>1606</v>
+      </c>
+      <c r="I16">
+        <v>15.53</v>
+      </c>
+      <c r="J16">
+        <v>861424</v>
+      </c>
+      <c r="K16">
+        <v>1606</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75607481107934316</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0.69484084980239957</v>
+      </c>
+      <c r="O16">
+        <v>25.1</v>
+      </c>
+      <c r="P16">
+        <v>859044</v>
+      </c>
+      <c r="Q16">
+        <v>1606</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0.75674874395053215</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.69568396396855958</v>
+      </c>
+      <c r="U16">
+        <v>290.14</v>
+      </c>
+      <c r="V16">
+        <v>2822868</v>
+      </c>
+      <c r="W16">
+        <v>1606</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>0.20066237973625439</v>
+      </c>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="E17">
+        <v>1732.32</v>
+      </c>
+      <c r="F17">
+        <v>5931296</v>
+      </c>
+      <c r="G17">
+        <v>3548</v>
+      </c>
+      <c r="I17">
+        <v>35.65</v>
+      </c>
+      <c r="J17">
+        <v>1589216</v>
+      </c>
+      <c r="K17">
+        <v>3548</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.7320626048674691</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.64769768811140194</v>
+      </c>
+      <c r="O17">
+        <v>57.41</v>
+      </c>
+      <c r="P17">
+        <v>1583008</v>
+      </c>
+      <c r="Q17">
+        <v>3548</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0.73310925639185764</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.64907389672760296</v>
+      </c>
+      <c r="U17">
+        <v>749.64</v>
+      </c>
+      <c r="V17">
+        <v>4510944</v>
+      </c>
+      <c r="W17">
+        <v>3548</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>0.23946739464697092</v>
+      </c>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+      <c r="E18">
+        <v>9234.91</v>
+      </c>
+      <c r="F18">
+        <v>11862592</v>
+      </c>
+      <c r="G18">
+        <v>6100</v>
+      </c>
+      <c r="I18">
+        <v>66.44</v>
+      </c>
+      <c r="J18">
+        <v>2744120</v>
+      </c>
+      <c r="K18">
+        <v>6100</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76867450216613709</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0.68604872530373229</v>
+      </c>
+      <c r="O18">
+        <v>104.96</v>
+      </c>
+      <c r="P18">
+        <v>2840592</v>
+      </c>
+      <c r="Q18">
+        <v>6100</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0.76054204679719239</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0.67501148663614552</v>
+      </c>
+      <c r="U18">
+        <v>1209.1400000000001</v>
+      </c>
+      <c r="V18">
+        <v>8740592</v>
+      </c>
+      <c r="W18">
+        <v>6100</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>0.26318025605196571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>25000</v>
+      </c>
+      <c r="E19">
+        <v>50792.01</v>
+      </c>
+      <c r="F19">
+        <v>12891294</v>
+      </c>
+      <c r="G19">
+        <v>9472</v>
+      </c>
+      <c r="I19">
+        <v>109.15</v>
+      </c>
+      <c r="J19">
+        <v>4006876</v>
+      </c>
+      <c r="K19">
+        <v>9472</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68917968979685051</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0.61575619066907861</v>
+      </c>
+      <c r="O19">
+        <v>168.04</v>
+      </c>
+      <c r="P19">
+        <v>3997952</v>
+      </c>
+      <c r="Q19">
+        <v>9472</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0.68987193993093321</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0.61661196752727665</v>
+      </c>
+      <c r="U19">
+        <v>1668.64</v>
+      </c>
+      <c r="V19">
+        <v>10427952</v>
+      </c>
+      <c r="W19">
+        <v>9472</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>0.19108570481753034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>30000</v>
+      </c>
+      <c r="G20">
+        <v>13646</v>
+      </c>
+      <c r="I20">
+        <v>163.15</v>
+      </c>
+      <c r="J20">
+        <v>6156725</v>
+      </c>
+      <c r="K20">
+        <v>13646</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0.52836154506374644</v>
+      </c>
+      <c r="O20">
+        <v>253.59</v>
+      </c>
+      <c r="P20">
+        <v>6413256</v>
+      </c>
+      <c r="Q20">
+        <v>13646</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0.50870988212878476</v>
+      </c>
+      <c r="U20">
+        <v>2128.14</v>
+      </c>
+      <c r="V20">
+        <v>13053908</v>
+      </c>
+      <c r="W20">
+        <v>13646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>35000</v>
+      </c>
+      <c r="G21">
+        <v>18388</v>
+      </c>
+      <c r="I21">
+        <v>231.98</v>
+      </c>
+      <c r="J21">
+        <v>7832598</v>
+      </c>
+      <c r="K21">
+        <v>18388</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0.5750799051359109</v>
+      </c>
+      <c r="O21">
+        <v>357.76</v>
+      </c>
+      <c r="P21">
+        <v>8158958</v>
+      </c>
+      <c r="Q21">
+        <v>18388</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0.55737480624537106</v>
+      </c>
+      <c r="U21">
+        <v>2587.64</v>
+      </c>
+      <c r="V21">
+        <v>18433108</v>
+      </c>
+      <c r="W21">
+        <v>18388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>40000</v>
+      </c>
+      <c r="G22">
+        <v>23990</v>
+      </c>
+      <c r="I22">
+        <v>316.45999999999998</v>
+      </c>
+      <c r="J22">
+        <v>11825328</v>
+      </c>
+      <c r="K22">
+        <v>23990</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0.57020981320619024</v>
+      </c>
+      <c r="O22">
+        <v>496.71</v>
+      </c>
+      <c r="P22">
+        <v>12318050</v>
+      </c>
+      <c r="Q22">
+        <v>23990</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0.55230188875644814</v>
+      </c>
+      <c r="U22">
+        <v>3047.14</v>
+      </c>
+      <c r="V22">
+        <v>27514188</v>
+      </c>
+      <c r="W22">
+        <v>23990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>45000</v>
+      </c>
+      <c r="G23">
+        <v>30476</v>
+      </c>
+      <c r="I23">
+        <v>415.75</v>
+      </c>
+      <c r="J23">
+        <v>25355318</v>
+      </c>
+      <c r="K23">
+        <v>30476</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0.60378255634382039</v>
+      </c>
+      <c r="O23">
+        <v>653.14</v>
+      </c>
+      <c r="P23">
+        <v>36411790</v>
+      </c>
+      <c r="Q23">
+        <v>30476</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.43100747729743932</v>
+      </c>
+      <c r="U23">
+        <v>3506.64</v>
+      </c>
+      <c r="V23">
+        <v>63993442</v>
+      </c>
+      <c r="W23">
+        <v>30476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>50000</v>
+      </c>
+      <c r="G24">
+        <v>37502</v>
+      </c>
+      <c r="I24">
+        <v>530.86</v>
+      </c>
+      <c r="J24">
+        <v>31567586</v>
+      </c>
+      <c r="K24">
+        <v>37502</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0.61083766712761545</v>
+      </c>
+      <c r="O24">
+        <v>860.19</v>
+      </c>
+      <c r="P24">
+        <v>32882904</v>
+      </c>
+      <c r="Q24">
+        <v>37502</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0.59462254629610678</v>
+      </c>
+      <c r="U24">
+        <v>3966.14</v>
+      </c>
+      <c r="V24">
+        <v>81116756</v>
+      </c>
+      <c r="W24">
+        <v>37502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>55000</v>
+      </c>
+      <c r="G25">
+        <v>44992</v>
+      </c>
+      <c r="I25">
+        <v>672.84</v>
+      </c>
+      <c r="J25">
+        <v>36707166</v>
+      </c>
+      <c r="K25">
+        <v>44992</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.58097829271440793</v>
+      </c>
+      <c r="O25">
+        <v>1067.24</v>
+      </c>
+      <c r="P25">
+        <v>38236632</v>
+      </c>
+      <c r="Q25">
+        <v>44992</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0.56351904634939931</v>
+      </c>
+      <c r="U25">
+        <v>4425.6400000000003</v>
+      </c>
+      <c r="V25">
+        <v>87602063</v>
+      </c>
+      <c r="W25">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="G26">
+        <v>53644</v>
+      </c>
+      <c r="I26">
+        <v>838.03</v>
+      </c>
+      <c r="J26">
+        <v>43814448</v>
+      </c>
+      <c r="K26">
+        <v>53644</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0.63567472170361794</v>
+      </c>
+      <c r="O26">
+        <v>1874.29</v>
+      </c>
+      <c r="P26">
+        <v>45640047</v>
+      </c>
+      <c r="Q26">
+        <v>53644</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>0.62049452672015959</v>
+      </c>
+      <c r="U26">
+        <v>4885.1400000000003</v>
+      </c>
+      <c r="V26">
+        <v>120261894</v>
+      </c>
+      <c r="W26">
+        <v>53644</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="U2:X2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D91D38E-6269-3A4D-9F76-C5B55836BC8A}">
+  <dimension ref="C5:V37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:V37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>700</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>3000</v>
+      </c>
+      <c r="F14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4000</v>
+      </c>
+      <c r="F15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+      <c r="F16">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>15000</v>
+      </c>
+      <c r="F18">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>20000</v>
+      </c>
+      <c r="F19">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>25000</v>
+      </c>
+      <c r="F20">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>30000</v>
+      </c>
+      <c r="F21">
+        <v>13646</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>35000</v>
+      </c>
+      <c r="F22">
+        <v>18388</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>40000</v>
+      </c>
+      <c r="F23">
+        <v>23990</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>45000</v>
+      </c>
+      <c r="F24">
+        <v>30476</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>50000</v>
+      </c>
+      <c r="F25">
+        <v>37502</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>55000</v>
+      </c>
+      <c r="F26">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>60000</v>
+      </c>
+      <c r="F27">
+        <v>53644</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="I29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="I30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>2000</v>
+      </c>
+      <c r="Q31">
+        <v>56</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>25000</v>
+      </c>
+      <c r="V31">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>3000</v>
+      </c>
+      <c r="Q32">
+        <v>122</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>30000</v>
+      </c>
+      <c r="V32">
+        <v>13646</v>
+      </c>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>200</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>4000</v>
+      </c>
+      <c r="Q33">
+        <v>244</v>
+      </c>
+      <c r="S33">
+        <v>17</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>35000</v>
+      </c>
+      <c r="V33">
+        <v>18388</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>500</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>11</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>5000</v>
+      </c>
+      <c r="Q34">
+        <v>392</v>
+      </c>
+      <c r="S34">
+        <v>18</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>40000</v>
+      </c>
+      <c r="V34">
+        <v>23990</v>
+      </c>
+    </row>
+    <row r="35" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>700</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>10000</v>
+      </c>
+      <c r="Q35">
+        <v>1606</v>
+      </c>
+      <c r="S35">
+        <v>19</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>45000</v>
+      </c>
+      <c r="V35">
+        <v>30476</v>
+      </c>
+    </row>
+    <row r="36" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>1000</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
+      <c r="N36">
+        <v>13</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>15000</v>
+      </c>
+      <c r="Q36">
+        <v>3548</v>
+      </c>
+      <c r="S36">
+        <v>20</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>50000</v>
+      </c>
+      <c r="V36">
+        <v>37502</v>
+      </c>
+    </row>
+    <row r="37" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I37" s="25">
+        <v>7</v>
+      </c>
+      <c r="J37" s="25">
+        <v>10</v>
+      </c>
+      <c r="K37" s="25">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="25">
+        <v>12</v>
+      </c>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25">
+        <v>14</v>
+      </c>
+      <c r="O37" s="25">
+        <v>10</v>
+      </c>
+      <c r="P37" s="25">
+        <v>20000</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>6100</v>
+      </c>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25">
+        <v>21</v>
+      </c>
+      <c r="T37" s="25">
+        <v>10</v>
+      </c>
+      <c r="U37" s="25">
+        <v>55000</v>
+      </c>
+      <c r="V37" s="25">
+        <v>44992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BCCACE-EA30-D046-B0A4-6BE1833C0F15}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27">
+        <f>NetworkingLESS!L5</f>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="C4" s="27">
+        <f>NetworkingLESS!R5</f>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="D4" s="28">
+        <f>NetworkingLESS!X5</f>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="22">
+        <f>NetworkingLESS!E5</f>
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="22">
+        <f>NetworkingLESS!I5</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <f>NetworkingLESS!O5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <f>NetworkingLESS!U5</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27">
+        <f>NetworkingLESS!L6</f>
+        <v>0.60356652949245537</v>
+      </c>
+      <c r="C5" s="27">
+        <f>NetworkingLESS!R6</f>
+        <v>0.60356652949245537</v>
+      </c>
+      <c r="D5" s="28">
+        <f>NetworkingLESS!X6</f>
+        <v>0.19204389574759945</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="22">
+        <f>NetworkingLESS!E6</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <f>NetworkingLESS!I6</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <f>NetworkingLESS!O6</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <f>NetworkingLESS!U6</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27">
+        <f>NetworkingLESS!L7</f>
+        <v>0.51855181431840469</v>
+      </c>
+      <c r="C6" s="27">
+        <f>NetworkingLESS!R7</f>
+        <v>0.40209218698921217</v>
+      </c>
+      <c r="D6" s="28">
+        <f>NetworkingLESS!X7</f>
+        <v>0.1443690748610657</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="22">
+        <f>NetworkingLESS!E7</f>
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="22">
+        <f>NetworkingLESS!I7</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <f>NetworkingLESS!O7</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <f>NetworkingLESS!U7</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27">
+        <f>NetworkingLESS!L8</f>
+        <v>0.62927627095543137</v>
+      </c>
+      <c r="C7" s="27">
+        <f>NetworkingLESS!R8</f>
+        <v>0.46388169551587843</v>
+      </c>
+      <c r="D7" s="28">
+        <f>NetworkingLESS!X8</f>
+        <v>0.26298214529099084</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22">
+        <f>NetworkingLESS!E8</f>
+        <v>0.27</v>
+      </c>
+      <c r="G7" s="22">
+        <f>NetworkingLESS!I8</f>
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="22">
+        <f>NetworkingLESS!O8</f>
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="22">
+        <f>NetworkingLESS!U8</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>5</v>
+      </c>
+      <c r="B8" s="27">
+        <f>NetworkingLESS!L9</f>
+        <v>0.68208098307816278</v>
+      </c>
+      <c r="C8" s="27">
+        <f>NetworkingLESS!R9</f>
+        <v>0.5952659145850121</v>
+      </c>
+      <c r="D8" s="28">
+        <f>NetworkingLESS!X9</f>
+        <v>0.17913980660757453</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="22">
+        <f>NetworkingLESS!E9</f>
+        <v>0.41</v>
+      </c>
+      <c r="G8" s="22">
+        <f>NetworkingLESS!I9</f>
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="22">
+        <f>NetworkingLESS!O9</f>
+        <v>0.09</v>
+      </c>
+      <c r="I8" s="22">
+        <f>NetworkingLESS!U9</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>6</v>
+      </c>
+      <c r="B9" s="27">
+        <f>NetworkingLESS!L10</f>
+        <v>0.31385668008840178</v>
+      </c>
+      <c r="C9" s="27">
+        <f>NetworkingLESS!R10</f>
+        <v>0.31343283582089554</v>
+      </c>
+      <c r="D9" s="28">
+        <f>NetworkingLESS!X10</f>
+        <v>0.19297024007750296</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="22">
+        <f>NetworkingLESS!E10</f>
+        <v>0.63</v>
+      </c>
+      <c r="G9" s="22">
+        <f>NetworkingLESS!I10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="22">
+        <f>NetworkingLESS!O10</f>
+        <v>0.19</v>
+      </c>
+      <c r="I9" s="22">
+        <f>NetworkingLESS!U10</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27">
+        <f>NetworkingLESS!L11</f>
+        <v>0.70056198747867648</v>
+      </c>
+      <c r="C10" s="27">
+        <f>NetworkingLESS!R11</f>
+        <v>0.52568776356693192</v>
+      </c>
+      <c r="D10" s="28">
+        <f>NetworkingLESS!X11</f>
+        <v>0.18213070322038741</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="22">
+        <f>NetworkingLESS!E11</f>
+        <v>1.29</v>
+      </c>
+      <c r="G10" s="22">
+        <f>NetworkingLESS!I11</f>
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="22">
+        <f>NetworkingLESS!O11</f>
+        <v>0.24</v>
+      </c>
+      <c r="I10" s="22">
+        <f>NetworkingLESS!U11</f>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27">
+        <f>NetworkingLESS!L12</f>
+        <v>0.70038217385671719</v>
+      </c>
+      <c r="C11" s="27">
+        <f>NetworkingLESS!R12</f>
+        <v>0.68401023448633247</v>
+      </c>
+      <c r="D11" s="28">
+        <f>NetworkingLESS!X12</f>
+        <v>0.24333894718659585</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="22">
+        <f>NetworkingLESS!E12</f>
+        <v>4.26</v>
+      </c>
+      <c r="G11" s="22">
+        <f>NetworkingLESS!I12</f>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="22">
+        <f>NetworkingLESS!O12</f>
+        <v>0.97</v>
+      </c>
+      <c r="I11" s="22">
+        <f>NetworkingLESS!U12</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27">
+        <f>NetworkingLESS!L13</f>
+        <v>0.66356532099803756</v>
+      </c>
+      <c r="C12" s="27">
+        <f>NetworkingLESS!R13</f>
+        <v>0.66393327726380713</v>
+      </c>
+      <c r="D12" s="28">
+        <f>NetworkingLESS!X13</f>
+        <v>0.17018102447034322</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="22">
+        <f>NetworkingLESS!E13</f>
+        <v>11.3</v>
+      </c>
+      <c r="G12" s="22">
+        <f>NetworkingLESS!I13</f>
+        <v>1.36</v>
+      </c>
+      <c r="H12" s="22">
+        <f>NetworkingLESS!O13</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I12" s="22">
+        <f>NetworkingLESS!U13</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27">
+        <f>NetworkingLESS!L14</f>
+        <v>0.63726798561345743</v>
+      </c>
+      <c r="C13" s="27">
+        <f>NetworkingLESS!R14</f>
+        <v>0.63810788608092273</v>
+      </c>
+      <c r="D13" s="28">
+        <f>NetworkingLESS!X14</f>
+        <v>0.20905404045159803</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="22">
+        <f>NetworkingLESS!E14</f>
+        <v>24.03</v>
+      </c>
+      <c r="G13" s="22">
+        <f>NetworkingLESS!I14</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H13" s="22">
+        <f>NetworkingLESS!O14</f>
+        <v>3.88</v>
+      </c>
+      <c r="I13" s="22">
+        <f>NetworkingLESS!U14</f>
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27">
+        <f>NetworkingLESS!L15</f>
+        <v>0.70677433427903735</v>
+      </c>
+      <c r="C14" s="27">
+        <f>NetworkingLESS!R15</f>
+        <v>0.70766909437496006</v>
+      </c>
+      <c r="D14" s="28">
+        <f>NetworkingLESS!X15</f>
+        <v>0.15677475109274661</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="22">
+        <f>NetworkingLESS!E15</f>
+        <v>43.93</v>
+      </c>
+      <c r="G14" s="22">
+        <f>NetworkingLESS!I15</f>
+        <v>3.8</v>
+      </c>
+      <c r="H14" s="22">
+        <f>NetworkingLESS!O15</f>
+        <v>6.13</v>
+      </c>
+      <c r="I14" s="22">
+        <f>NetworkingLESS!U15</f>
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27">
+        <f>NetworkingLESS!L16</f>
+        <v>0.75607481107934316</v>
+      </c>
+      <c r="C15" s="27">
+        <f>NetworkingLESS!R16</f>
+        <v>0.75674874395053215</v>
+      </c>
+      <c r="D15" s="28">
+        <f>NetworkingLESS!X16</f>
+        <v>0.20066237973625439</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="22">
+        <f>NetworkingLESS!E16</f>
+        <v>309.95999999999998</v>
+      </c>
+      <c r="G15" s="22">
+        <f>NetworkingLESS!I16</f>
+        <v>15.53</v>
+      </c>
+      <c r="H15" s="22">
+        <f>NetworkingLESS!O16</f>
+        <v>25.1</v>
+      </c>
+      <c r="I15" s="22">
+        <f>NetworkingLESS!U16</f>
+        <v>290.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>13</v>
+      </c>
+      <c r="B16" s="27">
+        <f>NetworkingLESS!L17</f>
+        <v>0.7320626048674691</v>
+      </c>
+      <c r="C16" s="27">
+        <f>NetworkingLESS!R17</f>
+        <v>0.73310925639185764</v>
+      </c>
+      <c r="D16" s="28">
+        <f>NetworkingLESS!X17</f>
+        <v>0.23946739464697092</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="22">
+        <f>NetworkingLESS!E17</f>
+        <v>1732.32</v>
+      </c>
+      <c r="G16" s="22">
+        <f>NetworkingLESS!I17</f>
+        <v>35.65</v>
+      </c>
+      <c r="H16" s="22">
+        <f>NetworkingLESS!O17</f>
+        <v>57.41</v>
+      </c>
+      <c r="I16" s="22">
+        <f>NetworkingLESS!U17</f>
+        <v>749.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27">
+        <f>NetworkingLESS!L18</f>
+        <v>0.76867450216613709</v>
+      </c>
+      <c r="C17" s="27">
+        <f>NetworkingLESS!R18</f>
+        <v>0.76054204679719239</v>
+      </c>
+      <c r="D17" s="28">
+        <f>NetworkingLESS!X18</f>
+        <v>0.26318025605196571</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="22">
+        <f>NetworkingLESS!E18</f>
+        <v>9234.91</v>
+      </c>
+      <c r="G17" s="22">
+        <f>NetworkingLESS!I18</f>
+        <v>66.44</v>
+      </c>
+      <c r="H17" s="22">
+        <f>NetworkingLESS!O18</f>
+        <v>104.96</v>
+      </c>
+      <c r="I17" s="22">
+        <f>NetworkingLESS!U18</f>
+        <v>1209.1400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>15</v>
+      </c>
+      <c r="B18" s="27">
+        <f>NetworkingLESS!L19</f>
+        <v>0.68917968979685051</v>
+      </c>
+      <c r="C18" s="27">
+        <f>NetworkingLESS!R19</f>
+        <v>0.68987193993093321</v>
+      </c>
+      <c r="D18" s="28">
+        <f>NetworkingLESS!X19</f>
+        <v>0.19108570481753034</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="22">
+        <f>NetworkingLESS!E19</f>
+        <v>50792.01</v>
+      </c>
+      <c r="G18" s="22">
+        <f>NetworkingLESS!I19</f>
+        <v>109.15</v>
+      </c>
+      <c r="H18" s="22">
+        <f>NetworkingLESS!O19</f>
+        <v>168.04</v>
+      </c>
+      <c r="I18" s="22">
+        <f>NetworkingLESS!U19</f>
+        <v>1668.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="35">
+        <f t="shared" ref="B19:I19" si="0">AVERAGE(B4:B18)</f>
+        <v>0.62315534890154178</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.58555826338009809</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.2048556606475781</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36">
+        <f t="shared" si="0"/>
+        <v>4143.7006666666666</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="0"/>
+        <v>15.685333333333334</v>
+      </c>
+      <c r="H19" s="36">
+        <f t="shared" si="0"/>
+        <v>24.616</v>
+      </c>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>269.90400000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29F935A-7EB1-C14F-935D-FC60577D8149}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="44">
+        <f>NetworkingLESS!M5</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="44">
+        <f>NetworkingLESS!S5</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="53">
+        <f>NetworkingLESS!I5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <f>NetworkingLESS!O5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <f>NetworkingLESS!U5</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="44">
+        <f>NetworkingLESS!M6</f>
+        <v>0.50933786078098475</v>
+      </c>
+      <c r="C5" s="44">
+        <f>NetworkingLESS!S6</f>
+        <v>0.50933786078098475</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="53">
+        <f>NetworkingLESS!I6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <f>NetworkingLESS!O6</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <f>NetworkingLESS!U6</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="44">
+        <f>NetworkingLESS!M7</f>
+        <v>0.43731792349204834</v>
+      </c>
+      <c r="C6" s="44">
+        <f>NetworkingLESS!S7</f>
+        <v>0.30120827164621045</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="53">
+        <f>NetworkingLESS!I7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <f>NetworkingLESS!O7</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <f>NetworkingLESS!U7</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="44">
+        <f>NetworkingLESS!M8</f>
+        <v>0.49699491447064265</v>
+      </c>
+      <c r="C7" s="44">
+        <f>NetworkingLESS!S8</f>
+        <v>0.27258437355524734</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="53">
+        <f>NetworkingLESS!I8</f>
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="22">
+        <f>NetworkingLESS!O8</f>
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="22">
+        <f>NetworkingLESS!U8</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="44">
+        <f>NetworkingLESS!M9</f>
+        <v>0.61270016565433461</v>
+      </c>
+      <c r="C8" s="44">
+        <f>NetworkingLESS!S9</f>
+        <v>0.50693907601693355</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="53">
+        <f>NetworkingLESS!I9</f>
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="22">
+        <f>NetworkingLESS!O9</f>
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="22">
+        <f>NetworkingLESS!U9</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="50">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44">
+        <f>NetworkingLESS!M10</f>
+        <v>0.14979179952732866</v>
+      </c>
+      <c r="C9" s="44">
+        <f>NetworkingLESS!S10</f>
+        <v>0.14926660914581535</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="53">
+        <f>NetworkingLESS!I10</f>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="22">
+        <f>NetworkingLESS!O10</f>
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="22">
+        <f>NetworkingLESS!U10</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44">
+        <f>NetworkingLESS!M11</f>
+        <v>0.63388035997882475</v>
+      </c>
+      <c r="C10" s="44">
+        <f>NetworkingLESS!S11</f>
+        <v>0.4200635256749603</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="53">
+        <f>NetworkingLESS!I11</f>
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="22">
+        <f>NetworkingLESS!O11</f>
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="22">
+        <f>NetworkingLESS!U11</f>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="50">
+        <v>8</v>
+      </c>
+      <c r="B11" s="44">
+        <f>NetworkingLESS!M12</f>
+        <v>0.60402636685309896</v>
+      </c>
+      <c r="C11" s="44">
+        <f>NetworkingLESS!S12</f>
+        <v>0.58238928204542861</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="53">
+        <f>NetworkingLESS!I12</f>
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="22">
+        <f>NetworkingLESS!O12</f>
+        <v>0.97</v>
+      </c>
+      <c r="G11" s="22">
+        <f>NetworkingLESS!U12</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="50">
+        <v>9</v>
+      </c>
+      <c r="B12" s="44">
+        <f>NetworkingLESS!M13</f>
+        <v>0.59456858794145684</v>
+      </c>
+      <c r="C12" s="44">
+        <f>NetworkingLESS!S13</f>
+        <v>0.59501200545373378</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="53">
+        <f>NetworkingLESS!I13</f>
+        <v>1.36</v>
+      </c>
+      <c r="F12" s="22">
+        <f>NetworkingLESS!O13</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G12" s="22">
+        <f>NetworkingLESS!U13</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="50">
+        <v>10</v>
+      </c>
+      <c r="B13" s="44">
+        <f>NetworkingLESS!M14</f>
+        <v>0.5413946932687439</v>
+      </c>
+      <c r="C13" s="44">
+        <f>NetworkingLESS!S14</f>
+        <v>0.54245658688780329</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="53">
+        <f>NetworkingLESS!I14</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="22">
+        <f>NetworkingLESS!O14</f>
+        <v>3.88</v>
+      </c>
+      <c r="G13" s="22">
+        <f>NetworkingLESS!U14</f>
+        <v>37.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="50">
+        <v>11</v>
+      </c>
+      <c r="B14" s="44">
+        <f>NetworkingLESS!M15</f>
+        <v>0.6522570142426859</v>
+      </c>
+      <c r="C14" s="44">
+        <f>NetworkingLESS!S15</f>
+        <v>0.65331813058980936</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="53">
+        <f>NetworkingLESS!I15</f>
+        <v>3.8</v>
+      </c>
+      <c r="F14" s="22">
+        <f>NetworkingLESS!O15</f>
+        <v>6.13</v>
+      </c>
+      <c r="G14" s="22">
+        <f>NetworkingLESS!U15</f>
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
+        <v>12</v>
+      </c>
+      <c r="B15" s="44">
+        <f>NetworkingLESS!M16</f>
+        <v>0.69484084980239957</v>
+      </c>
+      <c r="C15" s="44">
+        <f>NetworkingLESS!S16</f>
+        <v>0.69568396396855958</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="53">
+        <f>NetworkingLESS!I16</f>
+        <v>15.53</v>
+      </c>
+      <c r="F15" s="22">
+        <f>NetworkingLESS!O16</f>
+        <v>25.1</v>
+      </c>
+      <c r="G15" s="22">
+        <f>NetworkingLESS!U16</f>
+        <v>290.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>13</v>
+      </c>
+      <c r="B16" s="44">
+        <f>NetworkingLESS!M17</f>
+        <v>0.64769768811140194</v>
+      </c>
+      <c r="C16" s="44">
+        <f>NetworkingLESS!S17</f>
+        <v>0.64907389672760296</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="53">
+        <f>NetworkingLESS!I17</f>
+        <v>35.65</v>
+      </c>
+      <c r="F16" s="22">
+        <f>NetworkingLESS!O17</f>
+        <v>57.41</v>
+      </c>
+      <c r="G16" s="22">
+        <f>NetworkingLESS!U17</f>
+        <v>749.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="44">
+        <f>NetworkingLESS!M18</f>
+        <v>0.68604872530373229</v>
+      </c>
+      <c r="C17" s="44">
+        <f>NetworkingLESS!S18</f>
+        <v>0.67501148663614552</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="53">
+        <f>NetworkingLESS!I18</f>
+        <v>66.44</v>
+      </c>
+      <c r="F17" s="22">
+        <f>NetworkingLESS!O18</f>
+        <v>104.96</v>
+      </c>
+      <c r="G17" s="22">
+        <f>NetworkingLESS!U18</f>
+        <v>1209.1400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="50">
+        <v>15</v>
+      </c>
+      <c r="B18" s="44">
+        <f>NetworkingLESS!M19</f>
+        <v>0.61575619066907861</v>
+      </c>
+      <c r="C18" s="44">
+        <f>NetworkingLESS!S19</f>
+        <v>0.61661196752727665</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="53">
+        <f>NetworkingLESS!I19</f>
+        <v>109.15</v>
+      </c>
+      <c r="F18" s="22">
+        <f>NetworkingLESS!O19</f>
+        <v>168.04</v>
+      </c>
+      <c r="G18" s="22">
+        <f>NetworkingLESS!U19</f>
+        <v>1668.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="46">
+        <f>AVERAGE(B4:B18)</f>
+        <v>0.52510754267311743</v>
+      </c>
+      <c r="C19" s="46">
+        <f>AVERAGE(C4:C18)</f>
+        <v>0.47793046911043408</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="52">
+        <f>AVERAGE(E4:E18)</f>
+        <v>15.685333333333334</v>
+      </c>
+      <c r="F19" s="52">
+        <f>AVERAGE(F4:F18)</f>
+        <v>24.616</v>
+      </c>
+      <c r="G19" s="52">
+        <f>AVERAGE(G4:G18)</f>
+        <v>269.90400000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="50">
+        <v>16</v>
+      </c>
+      <c r="B20" s="44">
+        <f>NetworkingLESS!M20</f>
+        <v>0.52836154506374644</v>
+      </c>
+      <c r="C20" s="44">
+        <f>NetworkingLESS!S20</f>
+        <v>0.50870988212878476</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="53">
+        <f>NetworkingLESS!I20</f>
+        <v>163.15</v>
+      </c>
+      <c r="F20" s="22">
+        <f>NetworkingLESS!O20</f>
+        <v>253.59</v>
+      </c>
+      <c r="G20" s="22">
+        <f>NetworkingLESS!U20</f>
+        <v>2128.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="50">
+        <v>17</v>
+      </c>
+      <c r="B21" s="44">
+        <f>NetworkingLESS!M21</f>
+        <v>0.5750799051359109</v>
+      </c>
+      <c r="C21" s="44">
+        <f>NetworkingLESS!S21</f>
+        <v>0.55737480624537106</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="53">
+        <f>NetworkingLESS!I21</f>
+        <v>231.98</v>
+      </c>
+      <c r="F21" s="22">
+        <f>NetworkingLESS!O21</f>
+        <v>357.76</v>
+      </c>
+      <c r="G21" s="22">
+        <f>NetworkingLESS!U21</f>
+        <v>2587.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="50">
+        <v>18</v>
+      </c>
+      <c r="B22" s="44">
+        <f>NetworkingLESS!M22</f>
+        <v>0.57020981320619024</v>
+      </c>
+      <c r="C22" s="44">
+        <f>NetworkingLESS!S22</f>
+        <v>0.55230188875644814</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="53">
+        <f>NetworkingLESS!I22</f>
+        <v>316.45999999999998</v>
+      </c>
+      <c r="F22" s="22">
+        <f>NetworkingLESS!O22</f>
+        <v>496.71</v>
+      </c>
+      <c r="G22" s="22">
+        <f>NetworkingLESS!U22</f>
+        <v>3047.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="50">
+        <v>19</v>
+      </c>
+      <c r="B23" s="44">
+        <f>NetworkingLESS!M23</f>
+        <v>0.60378255634382039</v>
+      </c>
+      <c r="C23" s="44">
+        <f>NetworkingLESS!S23</f>
+        <v>0.43100747729743932</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="53">
+        <f>NetworkingLESS!I23</f>
+        <v>415.75</v>
+      </c>
+      <c r="F23" s="22">
+        <f>NetworkingLESS!O23</f>
+        <v>653.14</v>
+      </c>
+      <c r="G23" s="22">
+        <f>NetworkingLESS!U23</f>
+        <v>3506.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="44">
+        <f>NetworkingLESS!M24</f>
+        <v>0.61083766712761545</v>
+      </c>
+      <c r="C24" s="44">
+        <f>NetworkingLESS!S24</f>
+        <v>0.59462254629610678</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="53">
+        <f>NetworkingLESS!I24</f>
+        <v>530.86</v>
+      </c>
+      <c r="F24" s="22">
+        <f>NetworkingLESS!O24</f>
+        <v>860.19</v>
+      </c>
+      <c r="G24" s="22">
+        <f>NetworkingLESS!U24</f>
+        <v>3966.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="45">
+        <v>21</v>
+      </c>
+      <c r="B25" s="44">
+        <f>NetworkingLESS!M25</f>
+        <v>0.58097829271440793</v>
+      </c>
+      <c r="C25" s="44">
+        <f>NetworkingLESS!S25</f>
+        <v>0.56351904634939931</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="53">
+        <f>NetworkingLESS!I25</f>
+        <v>672.84</v>
+      </c>
+      <c r="F25" s="22">
+        <f>NetworkingLESS!O25</f>
+        <v>1067.24</v>
+      </c>
+      <c r="G25" s="22">
+        <f>NetworkingLESS!U25</f>
+        <v>4425.6400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="46">
+        <f>AVERAGE(B20:B25)</f>
+        <v>0.57820829659861517</v>
+      </c>
+      <c r="C26" s="46">
+        <f>AVERAGE(C20:C25)</f>
+        <v>0.53458927451225824</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="52">
+        <f>AVERAGE(E20:E25)</f>
+        <v>388.50666666666666</v>
+      </c>
+      <c r="F26" s="52">
+        <f>AVERAGE(F20:F25)</f>
+        <v>614.77166666666665</v>
+      </c>
+      <c r="G26" s="52">
+        <f>AVERAGE(G20:G25)</f>
+        <v>3276.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>